--- a/src/data/seed.xlsx
+++ b/src/data/seed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="ContainsPart" sheetId="12" r:id="rId12"/>
     <sheet name="RatesVendor" sheetId="13" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="MOCK_DATA__2" localSheetId="0">Account!$A$2:$L$21</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +38,31 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="MOCK_DATA (2)" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Scott\Downloads\Browser\MOCK_DATA (2).csv" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="201">
   <si>
     <t>customerId</t>
   </si>
@@ -188,49 +214,467 @@
     <t>admin</t>
   </si>
   <si>
-    <t>joe@test.com</t>
-  </si>
-  <si>
-    <t>pswd</t>
-  </si>
-  <si>
-    <t>joe</t>
-  </si>
-  <si>
-    <t>shmoe</t>
-  </si>
-  <si>
-    <t>1234 Fake St</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>A1A1A1</t>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>dcoleman0@gravatar.com</t>
+  </si>
+  <si>
+    <t>nec</t>
+  </si>
+  <si>
+    <t>Doris</t>
+  </si>
+  <si>
+    <t>Coleman</t>
+  </si>
+  <si>
+    <t>1-(202)876-8809</t>
+  </si>
+  <si>
+    <t>0475 Cambridge Parkway</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>ghawkins1@yelp.com</t>
+  </si>
+  <si>
+    <t>vivamus</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Hawkins</t>
+  </si>
+  <si>
+    <t>1-(518)163-8665</t>
+  </si>
+  <si>
+    <t>22868 Forest Place</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>emiller2@chicagotribune.com</t>
+  </si>
+  <si>
+    <t>ligula</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>1-(518)661-6997</t>
+  </si>
+  <si>
+    <t>5 Lerdahl Road</t>
+  </si>
+  <si>
+    <t>mhawkins3@shinystat.com</t>
+  </si>
+  <si>
+    <t>porttitor</t>
+  </si>
+  <si>
+    <t>Marilyn</t>
+  </si>
+  <si>
+    <t>1-(305)863-3025</t>
+  </si>
+  <si>
+    <t>8125 Oriole Parkway</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>mprice4@mediafire.com</t>
+  </si>
+  <si>
+    <t>faucibus</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>1-(202)146-8119</t>
+  </si>
+  <si>
+    <t>48 Heath Plaza</t>
+  </si>
+  <si>
+    <t>mcrawford5@tripod.com</t>
+  </si>
+  <si>
+    <t>pellentesque</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>1-(561)147-4896</t>
+  </si>
+  <si>
+    <t>0 Spenser Park</t>
+  </si>
+  <si>
+    <t>Lake Worth</t>
+  </si>
+  <si>
+    <t>ecooper6@mlb.com</t>
+  </si>
+  <si>
+    <t>cubilia</t>
+  </si>
+  <si>
+    <t>Ernest</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>1-(214)687-7486</t>
+  </si>
+  <si>
+    <t>56 Sachs Terrace</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>cmarshall7@topsy.com</t>
+  </si>
+  <si>
+    <t>semper</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>1-(251)323-3089</t>
+  </si>
+  <si>
+    <t>03694 Starling Trail</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>jmartin8@java.com</t>
+  </si>
+  <si>
+    <t>gravida</t>
+  </si>
+  <si>
+    <t>Jacqueline</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>1-(701)240-4735</t>
+  </si>
+  <si>
+    <t>28227 Badeau Parkway</t>
+  </si>
+  <si>
+    <t>Fargo</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>rflores9@economist.com</t>
+  </si>
+  <si>
+    <t>diam</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>1-(608)357-6583</t>
+  </si>
+  <si>
+    <t>77700 Forest Place</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>rshawa@tamu.edu</t>
+  </si>
+  <si>
+    <t>mus</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Shaw</t>
+  </si>
+  <si>
+    <t>1-(520)347-5517</t>
+  </si>
+  <si>
+    <t>8190 Center Place</t>
+  </si>
+  <si>
+    <t>Tucson</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>jdanielsb@imgur.com</t>
+  </si>
+  <si>
+    <t>augue</t>
+  </si>
+  <si>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>Daniels</t>
+  </si>
+  <si>
+    <t>1-(731)828-9905</t>
+  </si>
+  <si>
+    <t>5550 Sachs Drive</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>redwardsc@jiathis.com</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Edwards</t>
+  </si>
+  <si>
+    <t>1-(513)194-4635</t>
+  </si>
+  <si>
+    <t>38 Petterle Street</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>cmyersd@nifty.com</t>
+  </si>
+  <si>
+    <t>curabitur</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Myers</t>
+  </si>
+  <si>
+    <t>1-(608)855-1945</t>
+  </si>
+  <si>
+    <t>666 Burrows Junction</t>
+  </si>
+  <si>
+    <t>pcolee@sourceforge.net</t>
+  </si>
+  <si>
+    <t>sapien</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>1-(717)176-0760</t>
+  </si>
+  <si>
+    <t>2690 Sundown Terrace</t>
+  </si>
+  <si>
+    <t>Lancaster</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>jwarrenf@theglobeandmail.com</t>
+  </si>
+  <si>
+    <t>primis</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>1-(304)702-9618</t>
+  </si>
+  <si>
+    <t>366 School Terrace</t>
+  </si>
+  <si>
+    <t>Huntington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>ffoxg@economist.com</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>1-(757)220-7707</t>
+  </si>
+  <si>
+    <t>4 Porter Trail</t>
+  </si>
+  <si>
+    <t>Norfolk</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>pharrish@comsenz.com</t>
+  </si>
+  <si>
+    <t>pharetra</t>
+  </si>
+  <si>
+    <t>Phillip</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>1-(650)359-8512</t>
+  </si>
+  <si>
+    <t>0 Thierer Place</t>
+  </si>
+  <si>
+    <t>Redwood City</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>scolei@theguardian.com</t>
+  </si>
+  <si>
+    <t>morbi</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>1-(951)303-0657</t>
+  </si>
+  <si>
+    <t>78 Jay Terrace</t>
+  </si>
+  <si>
+    <t>Corona</t>
+  </si>
+  <si>
+    <t>gfowlerj@slashdot.org</t>
+  </si>
+  <si>
+    <t>proin</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
+    <t>Fowler</t>
+  </si>
+  <si>
+    <t>1-(515)167-4752</t>
+  </si>
+  <si>
+    <t>396 Maple Wood Place</t>
+  </si>
+  <si>
+    <t>Des Moines</t>
+  </si>
+  <si>
+    <t>Iowa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -253,16 +697,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -276,6 +717,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MOCK_DATA (2)" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,26 +986,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -608,41 +1065,760 @@
       <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2">
+        <v>20057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3">
+        <v>12255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4">
+        <v>12237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2">
-        <v>1234567890</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5">
+        <v>33185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" t="s">
         <v>58</v>
       </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6">
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7">
+        <v>33467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8">
+        <v>75049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9">
+        <v>36622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10">
+        <v>58122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11">
+        <v>53779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12">
+        <v>85715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13">
+        <v>38308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15">
+        <v>53710</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16">
+        <v>17622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" t="s">
+        <v>169</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17">
+        <v>25775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18">
+        <v>23514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" t="s">
+        <v>184</v>
+      </c>
+      <c r="I19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19">
+        <v>94064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20">
+        <v>92878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21">
+        <v>50936</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -845,16 +2021,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">

--- a/src/data/seed.xlsx
+++ b/src/data/seed.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11140" windowHeight="2360" tabRatio="833" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
-    <sheet name="Part" sheetId="2" r:id="rId2"/>
-    <sheet name="PartCategory" sheetId="3" r:id="rId3"/>
-    <sheet name="Vehicle" sheetId="4" r:id="rId4"/>
-    <sheet name="Make" sheetId="5" r:id="rId5"/>
-    <sheet name="Model" sheetId="6" r:id="rId6"/>
-    <sheet name="Order" sheetId="7" r:id="rId7"/>
-    <sheet name="Shipment" sheetId="8" r:id="rId8"/>
-    <sheet name="Payment" sheetId="9" r:id="rId9"/>
-    <sheet name="ListedPart" sheetId="10" r:id="rId10"/>
-    <sheet name="FitsIn" sheetId="11" r:id="rId11"/>
-    <sheet name="ContainsPart" sheetId="12" r:id="rId12"/>
-    <sheet name="RatesVendor" sheetId="13" r:id="rId13"/>
+    <sheet name="RatesVendor" sheetId="13" r:id="rId2"/>
+    <sheet name="PartOrder" sheetId="7" r:id="rId3"/>
+    <sheet name="Payment" sheetId="9" r:id="rId4"/>
+    <sheet name="Shipment" sheetId="8" r:id="rId5"/>
+    <sheet name="PartCategory" sheetId="3" r:id="rId6"/>
+    <sheet name="Part" sheetId="2" r:id="rId7"/>
+    <sheet name="ListedPart" sheetId="10" r:id="rId8"/>
+    <sheet name="ContainsPart" sheetId="12" r:id="rId9"/>
+    <sheet name="Make" sheetId="5" r:id="rId10"/>
+    <sheet name="Model" sheetId="6" r:id="rId11"/>
+    <sheet name="Vehicle" sheetId="4" r:id="rId12"/>
+    <sheet name="FitsIn" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="MOCK_DATA__2" localSheetId="0">Account!$A$2:$L$21</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="207">
   <si>
     <t>customerId</t>
   </si>
@@ -172,9 +172,6 @@
     <t>partName</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
     <t>accountId</t>
   </si>
   <si>
@@ -665,6 +662,27 @@
   </si>
   <si>
     <t>Iowa</t>
+  </si>
+  <si>
+    <t>dateListed</t>
+  </si>
+  <si>
+    <t>imagePath</t>
+  </si>
+  <si>
+    <t>Seat</t>
+  </si>
+  <si>
+    <t>Red/Black Seat</t>
+  </si>
+  <si>
+    <t>Red and black seat</t>
+  </si>
+  <si>
+    <t>Place to sit</t>
+  </si>
+  <si>
+    <t>public/images/parts/part1.jpg</t>
   </si>
 </sst>
 </file>
@@ -700,8 +718,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,7 +1008,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1022,40 +1041,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>47</v>
-      </c>
-      <c r="L1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1063,34 +1082,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2">
         <v>20057</v>
@@ -1101,34 +1120,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>63</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>64</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>65</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>66</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>67</v>
       </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L3">
         <v>12255</v>
@@ -1139,34 +1158,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
         <v>69</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>70</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>71</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>73</v>
       </c>
-      <c r="H4" t="s">
-        <v>74</v>
-      </c>
       <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4">
         <v>12237</v>
@@ -1177,34 +1196,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
         <v>75</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>76</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
         <v>77</v>
       </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>78</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>79</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>80</v>
       </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5">
         <v>33185</v>
@@ -1215,34 +1234,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
         <v>82</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>83</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>84</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>86</v>
       </c>
-      <c r="H6" t="s">
-        <v>87</v>
-      </c>
       <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
         <v>58</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6">
         <v>20022</v>
@@ -1253,34 +1272,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
         <v>88</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>89</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>90</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>92</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>93</v>
       </c>
-      <c r="I7" t="s">
-        <v>94</v>
-      </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L7">
         <v>33467</v>
@@ -1291,34 +1310,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
         <v>95</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>96</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>97</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>98</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>99</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>100</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>101</v>
       </c>
-      <c r="J8" t="s">
-        <v>102</v>
-      </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L8">
         <v>75049</v>
@@ -1329,34 +1348,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
         <v>103</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>104</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>105</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>106</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>107</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>108</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>109</v>
       </c>
-      <c r="J9" t="s">
-        <v>110</v>
-      </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9">
         <v>36622</v>
@@ -1367,34 +1386,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
         <v>111</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>112</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>113</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>114</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>115</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>116</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>117</v>
       </c>
-      <c r="J10" t="s">
-        <v>118</v>
-      </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L10">
         <v>58122</v>
@@ -1405,34 +1424,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
         <v>119</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>120</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>121</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>122</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>123</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>124</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>125</v>
       </c>
-      <c r="J11" t="s">
-        <v>126</v>
-      </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L11">
         <v>53779</v>
@@ -1443,34 +1462,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" t="s">
         <v>127</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>128</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>129</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>130</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>131</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>132</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>133</v>
       </c>
-      <c r="J12" t="s">
-        <v>134</v>
-      </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L12">
         <v>85715</v>
@@ -1481,34 +1500,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
         <v>135</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>136</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>137</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>138</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>139</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>140</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>141</v>
       </c>
-      <c r="J13" t="s">
-        <v>142</v>
-      </c>
       <c r="K13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L13">
         <v>38308</v>
@@ -1519,34 +1538,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
         <v>143</v>
       </c>
-      <c r="D14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>144</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>145</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>146</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>147</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>148</v>
       </c>
-      <c r="J14" t="s">
-        <v>149</v>
-      </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L14">
         <v>45271</v>
@@ -1557,34 +1576,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" t="s">
         <v>150</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>151</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>152</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>153</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>154</v>
       </c>
-      <c r="H15" t="s">
-        <v>155</v>
-      </c>
       <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
         <v>125</v>
       </c>
-      <c r="J15" t="s">
-        <v>126</v>
-      </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15">
         <v>53710</v>
@@ -1595,34 +1614,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" t="s">
         <v>156</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>157</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>158</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>159</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>160</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>161</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>162</v>
       </c>
-      <c r="J16" t="s">
-        <v>163</v>
-      </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L16">
         <v>17622</v>
@@ -1633,34 +1652,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" t="s">
         <v>164</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>165</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>166</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>167</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>168</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>169</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>170</v>
       </c>
-      <c r="J17" t="s">
-        <v>171</v>
-      </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L17">
         <v>25775</v>
@@ -1671,34 +1690,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
         <v>172</v>
       </c>
-      <c r="D18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>173</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>174</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>175</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>176</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>177</v>
       </c>
-      <c r="J18" t="s">
-        <v>178</v>
-      </c>
       <c r="K18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L18">
         <v>23514</v>
@@ -1709,34 +1728,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" t="s">
         <v>179</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>180</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>181</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>182</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>183</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>184</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>185</v>
       </c>
-      <c r="J19" t="s">
-        <v>186</v>
-      </c>
       <c r="K19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L19">
         <v>94064</v>
@@ -1747,34 +1766,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" t="s">
         <v>187</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>188</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
         <v>189</v>
       </c>
-      <c r="F20" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>190</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>191</v>
       </c>
-      <c r="I20" t="s">
-        <v>192</v>
-      </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L20">
         <v>92878</v>
@@ -1785,34 +1804,34 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" t="s">
         <v>193</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>194</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>195</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>196</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>197</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>198</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>199</v>
       </c>
-      <c r="J21" t="s">
-        <v>200</v>
-      </c>
       <c r="K21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21">
         <v>50936</v>
@@ -1825,36 +1844,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1863,6 +1866,64 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1889,38 +1950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -1951,154 +1981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -2129,7 +2012,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
@@ -2216,30 +2130,184 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>250</v>
+      </c>
+      <c r="F2" s="1">
+        <v>42005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/seed.xlsx
+++ b/src/data/seed.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Google Drive\Classes\COSC 304 - Introduction to Databases\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett\Documents\GitHub\everything-roadster\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11140" windowHeight="2360" tabRatio="833" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11136" windowHeight="2364" tabRatio="833" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -1011,35 +1011,35 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>20057</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>12255</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>12237</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>33185</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>20022</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>33467</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>75049</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>36622</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>58122</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>53779</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>85715</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>38308</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>53710</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>17622</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>25775</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>23514</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>94064</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>92878</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1850,12 +1850,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1873,12 +1873,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1896,15 +1896,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1931,13 +1931,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1958,14 +1958,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1989,14 +1989,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2020,14 +2020,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2051,28 +2051,28 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2138,13 +2138,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -2167,22 +2167,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2214,6 +2214,51 @@
       </c>
       <c r="E2" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2229,17 +2274,17 @@
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2259,7 +2304,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2292,14 +2337,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>

--- a/src/data/seed.xlsx
+++ b/src/data/seed.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="217">
   <si>
     <t>customerId</t>
   </si>
@@ -683,19 +683,55 @@
   </si>
   <si>
     <t>public/images/parts/part1.jpg</t>
+  </si>
+  <si>
+    <t>Brake</t>
+  </si>
+  <si>
+    <t>Brake Rotor - Rear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brake </t>
+  </si>
+  <si>
+    <t>Brake Rotor - Front</t>
+  </si>
+  <si>
+    <t>Brake Rotor features a patented elliptical grooves help channel awa heat, water and gases, reducing brake fade</t>
+  </si>
+  <si>
+    <t>public/images/parts/part2.jpg</t>
+  </si>
+  <si>
+    <t>public/images/parts/part3.jpg</t>
+  </si>
+  <si>
+    <t>public/images/parts/part4.jpg</t>
+  </si>
+  <si>
+    <t>Resists brake fade that can occur In extended &amp; extreme Use</t>
+  </si>
+  <si>
+    <t>Sever Duty Brake Pad Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF666666"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -718,9 +754,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2170,7 +2207,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2220,16 +2257,52 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -2263,6 +2336,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/data/seed.xlsx
+++ b/src/data/seed.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett\Documents\GitHub\everything-roadster\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11136" windowHeight="2364" tabRatio="833" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" tabRatio="833" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="256">
   <si>
     <t>customerId</t>
   </si>
@@ -679,9 +679,6 @@
     <t>Red and black seat</t>
   </si>
   <si>
-    <t>Place to sit</t>
-  </si>
-  <si>
     <t>public/images/parts/part1.jpg</t>
   </si>
   <si>
@@ -713,6 +710,126 @@
   </si>
   <si>
     <t>Sever Duty Brake Pad Set</t>
+  </si>
+  <si>
+    <t>A device for slowing or stopping a moving vehicle, typically by applying pressure to the wheels.</t>
+  </si>
+  <si>
+    <t>A thing made or used for sitting on</t>
+  </si>
+  <si>
+    <t>Tire</t>
+  </si>
+  <si>
+    <t>A  tire consists of a rubber ring around the rim of an automobile whee</t>
+  </si>
+  <si>
+    <t>Wheel Rim</t>
+  </si>
+  <si>
+    <t>The outer edge of a wheel, on which the tire is fitted.</t>
+  </si>
+  <si>
+    <t>Steering Wheel</t>
+  </si>
+  <si>
+    <t>A wheel that a driver rotates in order to steer a vehicle.</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Windshield Wipers</t>
+  </si>
+  <si>
+    <t>A motor-driven device for keeping a windshield clear of rain, typically one with a rubber blade on an arm that moves in an arc</t>
+  </si>
+  <si>
+    <t>An automotive battery is a type of rechargeable battery that supplies electric energy to an automobile.</t>
+  </si>
+  <si>
+    <t>Windshield</t>
+  </si>
+  <si>
+    <t>A window at the front of the passenger compartment of a motor vehicle.</t>
+  </si>
+  <si>
+    <t>Engine</t>
+  </si>
+  <si>
+    <t>A machine with moving parts that converts power into motion.</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Caravan</t>
+  </si>
+  <si>
+    <t>F-150</t>
+  </si>
+  <si>
+    <t>F-350</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Chevrolet</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Corvette</t>
+  </si>
+  <si>
+    <t>Daytona</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>Corolla</t>
+  </si>
+  <si>
+    <t>Camry</t>
+  </si>
+  <si>
+    <t>Accord</t>
+  </si>
+  <si>
+    <t>Fit</t>
+  </si>
+  <si>
+    <t>Avenger</t>
+  </si>
+  <si>
+    <t>Challenger</t>
+  </si>
+  <si>
+    <t>Charger</t>
+  </si>
+  <si>
+    <t>Dart</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Viper</t>
   </si>
 </sst>
 </file>
@@ -1881,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1897,6 +2014,36 @@
         <v>29</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1904,10 +2051,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1920,6 +2067,96 @@
         <v>29</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1927,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1938,7 +2175,7 @@
     <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1953,6 +2190,810 @@
       </c>
       <c r="D1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5">
+        <f>D2</f>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D37" si="0">D3</f>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" t="s">
+        <v>249</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D38">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" t="s">
+        <v>250</v>
+      </c>
+      <c r="D39">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41">
+        <f>D38</f>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:D55" si="1">D39</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" t="s">
+        <v>253</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" t="s">
+        <v>253</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" t="s">
+        <v>254</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>233</v>
+      </c>
+      <c r="C53" t="s">
+        <v>255</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>233</v>
+      </c>
+      <c r="C54" t="s">
+        <v>255</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>233</v>
+      </c>
+      <c r="C55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>2013</v>
       </c>
     </row>
   </sheetData>
@@ -1989,10 +3030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2013,6 +3054,51 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2023,7 +3109,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2054,7 +3140,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2085,7 +3171,7 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2169,10 +3255,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2194,20 +3280,85 @@
         <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2250,7 +3401,7 @@
         <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2258,16 +3409,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
         <v>207</v>
       </c>
-      <c r="C3" t="s">
-        <v>208</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" t="s">
         <v>211</v>
-      </c>
-      <c r="E3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2275,16 +3426,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
         <v>209</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>210</v>
       </c>
-      <c r="D4" t="s">
-        <v>211</v>
-      </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2292,46 +3443,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/seed.xlsx
+++ b/src/data/seed.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett\Documents\GitHub\everything-roadster\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" tabRatio="833" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17088" windowHeight="5928" tabRatio="833" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="265">
   <si>
     <t>customerId</t>
   </si>
@@ -830,6 +830,33 @@
   </si>
   <si>
     <t>Viper</t>
+  </si>
+  <si>
+    <t>dodge engine</t>
+  </si>
+  <si>
+    <t>every other engine</t>
+  </si>
+  <si>
+    <t>Paypal</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>MasterCard</t>
+  </si>
+  <si>
+    <t>Internal combustion engine made for Dodge vehicles</t>
+  </si>
+  <si>
+    <t>Internal combustion engine made for non-Dodge vehicles</t>
+  </si>
+  <si>
+    <t>public/images/parts/part5.jpg</t>
+  </si>
+  <si>
+    <t>public/images/parts/part6.jpg</t>
   </si>
 </sst>
 </file>
@@ -871,10 +898,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,7 +1190,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2166,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3003,10 +3031,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B266"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="D260" sqref="D260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3023,6 +3051,2126 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>3</v>
+      </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>3</v>
+      </c>
+      <c r="B120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>3</v>
+      </c>
+      <c r="B123">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>3</v>
+      </c>
+      <c r="B125">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>3</v>
+      </c>
+      <c r="B126">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>3</v>
+      </c>
+      <c r="B129">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>3</v>
+      </c>
+      <c r="B130">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>3</v>
+      </c>
+      <c r="B131">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>3</v>
+      </c>
+      <c r="B132">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>3</v>
+      </c>
+      <c r="B134">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>3</v>
+      </c>
+      <c r="B135">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="B136">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>3</v>
+      </c>
+      <c r="B138">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>3</v>
+      </c>
+      <c r="B139">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>3</v>
+      </c>
+      <c r="B140">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>3</v>
+      </c>
+      <c r="B141">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>3</v>
+      </c>
+      <c r="B142">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>3</v>
+      </c>
+      <c r="B143">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>3</v>
+      </c>
+      <c r="B144">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>3</v>
+      </c>
+      <c r="B146">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>3</v>
+      </c>
+      <c r="B147">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>3</v>
+      </c>
+      <c r="B148">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="B149">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>3</v>
+      </c>
+      <c r="B150">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>3</v>
+      </c>
+      <c r="B152">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>3</v>
+      </c>
+      <c r="B153">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>3</v>
+      </c>
+      <c r="B154">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>3</v>
+      </c>
+      <c r="B155">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="B156">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>3</v>
+      </c>
+      <c r="B159">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>3</v>
+      </c>
+      <c r="B161">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>3</v>
+      </c>
+      <c r="B162">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>3</v>
+      </c>
+      <c r="B163">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>4</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>4</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>4</v>
+      </c>
+      <c r="B167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>4</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>4</v>
+      </c>
+      <c r="B169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>4</v>
+      </c>
+      <c r="B170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>4</v>
+      </c>
+      <c r="B171">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>4</v>
+      </c>
+      <c r="B173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>4</v>
+      </c>
+      <c r="B175">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>4</v>
+      </c>
+      <c r="B176">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>4</v>
+      </c>
+      <c r="B178">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>4</v>
+      </c>
+      <c r="B179">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>4</v>
+      </c>
+      <c r="B180">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>4</v>
+      </c>
+      <c r="B181">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>4</v>
+      </c>
+      <c r="B182">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>4</v>
+      </c>
+      <c r="B183">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>4</v>
+      </c>
+      <c r="B184">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>4</v>
+      </c>
+      <c r="B185">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>4</v>
+      </c>
+      <c r="B187">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>4</v>
+      </c>
+      <c r="B188">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>4</v>
+      </c>
+      <c r="B189">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>4</v>
+      </c>
+      <c r="B190">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>4</v>
+      </c>
+      <c r="B191">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>4</v>
+      </c>
+      <c r="B192">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>4</v>
+      </c>
+      <c r="B193">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>4</v>
+      </c>
+      <c r="B194">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>4</v>
+      </c>
+      <c r="B195">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>4</v>
+      </c>
+      <c r="B196">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="B197">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>4</v>
+      </c>
+      <c r="B198">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>4</v>
+      </c>
+      <c r="B199">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>4</v>
+      </c>
+      <c r="B200">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>4</v>
+      </c>
+      <c r="B201">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>4</v>
+      </c>
+      <c r="B202">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="B205">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>4</v>
+      </c>
+      <c r="B207">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>4</v>
+      </c>
+      <c r="B208">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>4</v>
+      </c>
+      <c r="B209">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>4</v>
+      </c>
+      <c r="B210">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>4</v>
+      </c>
+      <c r="B211">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>4</v>
+      </c>
+      <c r="B212">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>4</v>
+      </c>
+      <c r="B213">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>4</v>
+      </c>
+      <c r="B214">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>4</v>
+      </c>
+      <c r="B215">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>4</v>
+      </c>
+      <c r="B216">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>4</v>
+      </c>
+      <c r="B217">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>5</v>
+      </c>
+      <c r="B218">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>5</v>
+      </c>
+      <c r="B219">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>5</v>
+      </c>
+      <c r="B220">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>5</v>
+      </c>
+      <c r="B221">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>5</v>
+      </c>
+      <c r="B222">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>5</v>
+      </c>
+      <c r="B223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>5</v>
+      </c>
+      <c r="B224">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>5</v>
+      </c>
+      <c r="B225">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>5</v>
+      </c>
+      <c r="B226">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>5</v>
+      </c>
+      <c r="B227">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>5</v>
+      </c>
+      <c r="B228">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>5</v>
+      </c>
+      <c r="B229">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>5</v>
+      </c>
+      <c r="B230">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>5</v>
+      </c>
+      <c r="B231">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>5</v>
+      </c>
+      <c r="B232">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>5</v>
+      </c>
+      <c r="B233">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>5</v>
+      </c>
+      <c r="B234">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>5</v>
+      </c>
+      <c r="B235">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>5</v>
+      </c>
+      <c r="B236">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>5</v>
+      </c>
+      <c r="B237">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>5</v>
+      </c>
+      <c r="B238">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>5</v>
+      </c>
+      <c r="B239">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>5</v>
+      </c>
+      <c r="B240">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>5</v>
+      </c>
+      <c r="B241">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>6</v>
+      </c>
+      <c r="B242">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>6</v>
+      </c>
+      <c r="B243">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>6</v>
+      </c>
+      <c r="B244">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>6</v>
+      </c>
+      <c r="B245">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>6</v>
+      </c>
+      <c r="B246">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>6</v>
+      </c>
+      <c r="B247">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>6</v>
+      </c>
+      <c r="B248">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>6</v>
+      </c>
+      <c r="B249">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>6</v>
+      </c>
+      <c r="B250">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>6</v>
+      </c>
+      <c r="B251">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>6</v>
+      </c>
+      <c r="B252">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>6</v>
+      </c>
+      <c r="B253">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>6</v>
+      </c>
+      <c r="B254">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>6</v>
+      </c>
+      <c r="B255">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>6</v>
+      </c>
+      <c r="B256">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>6</v>
+      </c>
+      <c r="B257">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>6</v>
+      </c>
+      <c r="B258">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>6</v>
+      </c>
+      <c r="B259">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>6</v>
+      </c>
+      <c r="B260">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>6</v>
+      </c>
+      <c r="B261">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>6</v>
+      </c>
+      <c r="B262">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>6</v>
+      </c>
+      <c r="B263">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>6</v>
+      </c>
+      <c r="B264">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>6</v>
+      </c>
+      <c r="B265">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>6</v>
+      </c>
+      <c r="B266">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3030,10 +5178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3056,47 +5204,74 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4.3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4.7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6">
         <v>5</v>
+      </c>
+      <c r="C6">
+        <v>3.8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f>D31</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3106,10 +5281,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3130,17 +5305,205 @@
         <v>28</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>42007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>42009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>42010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>42011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>42012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>42013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>42014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>42016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>42017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>42019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>42020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>42021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3161,6 +5524,160 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3171,7 +5688,7 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3355,10 +5872,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3455,6 +5972,40 @@
         <v>213</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3463,10 +6014,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3504,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3517,6 +6068,106 @@
       </c>
       <c r="F2" s="1">
         <v>42005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>42007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="F5" s="1">
+        <v>42008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>600</v>
+      </c>
+      <c r="F6" s="1">
+        <v>42009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+      <c r="F7" s="1">
+        <v>42010</v>
       </c>
     </row>
   </sheetData>
@@ -3526,16 +6177,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" customWidth="1"/>
     <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3550,6 +6201,112 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/data/seed.xlsx
+++ b/src/data/seed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17088" windowHeight="5928" tabRatio="833" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17088" windowHeight="5928" tabRatio="833" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="274">
   <si>
     <t>customerId</t>
   </si>
@@ -857,6 +857,33 @@
   </si>
   <si>
     <t>public/images/parts/part6.jpg</t>
+  </si>
+  <si>
+    <t>USPS</t>
+  </si>
+  <si>
+    <t>FedEx</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>CanadaPost</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Deliver between 08:00 and 20:00</t>
+  </si>
+  <si>
+    <t>If noone is home, leave out back</t>
   </si>
 </sst>
 </file>
@@ -5181,7 +5208,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5284,7 +5311,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5685,10 +5712,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5765,6 +5792,348 @@
         <v>27</v>
       </c>
     </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000457</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>A2*2</f>
+        <v>2000914</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3">
+        <v>123.45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3*2</f>
+        <v>4001828</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4">
+        <v>456.3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>405002</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>253525</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6">
+        <v>255.17500000000001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4653534</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7">
+        <v>295.07499999999999</v>
+      </c>
+      <c r="G7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>432442</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8">
+        <v>334.97500000000002</v>
+      </c>
+      <c r="G8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>432423</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9">
+        <v>374.875</v>
+      </c>
+      <c r="G9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>35435356</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10">
+        <v>414.77499999999998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>432465</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11">
+        <v>454.67500000000001</v>
+      </c>
+      <c r="G11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>353656</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12">
+        <v>494.57499999999999</v>
+      </c>
+      <c r="G12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>854</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13">
+        <v>534.47500000000002</v>
+      </c>
+      <c r="G13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12325</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14">
+        <v>574.375</v>
+      </c>
+      <c r="G14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>533</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E15">
+        <v>614.27499999999998</v>
+      </c>
+      <c r="G15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16">
+        <v>654.17499999999995</v>
+      </c>
+      <c r="G16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>525</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17">
+        <v>694.07500000000005</v>
+      </c>
+      <c r="G17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>25252</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18">
+        <v>733.97500000000002</v>
+      </c>
+      <c r="G18" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5874,8 +6243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6180,7 +6549,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6208,6 +6577,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -6216,6 +6588,9 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -6224,6 +6599,9 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -6231,6 +6609,9 @@
       </c>
       <c r="B5">
         <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6240,6 +6621,9 @@
       <c r="B6">
         <v>3</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -6248,6 +6632,9 @@
       <c r="B7">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -6256,55 +6643,118 @@
       <c r="B8">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/seed.xlsx
+++ b/src/data/seed.xlsx
@@ -1,29 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett\Documents\GitHub\everything-roadster\src\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Account" sheetId="1" r:id="rId4"/>
-    <sheet name="RatesVendor" sheetId="2" r:id="rId5"/>
-    <sheet name="PartOrder" sheetId="3" r:id="rId6"/>
-    <sheet name="Shipment" sheetId="4" r:id="rId7"/>
-    <sheet name="Payment" sheetId="5" r:id="rId8"/>
-    <sheet name="PartCategory" sheetId="6" r:id="rId9"/>
-    <sheet name="Part" sheetId="7" r:id="rId10"/>
-    <sheet name="ListedPart" sheetId="8" r:id="rId11"/>
-    <sheet name="ContainsPart" sheetId="9" r:id="rId12"/>
-    <sheet name="Make" sheetId="10" r:id="rId13"/>
-    <sheet name="Model" sheetId="11" r:id="rId14"/>
-    <sheet name="Vehicle" sheetId="12" r:id="rId15"/>
-    <sheet name="FitsIn" sheetId="13" r:id="rId16"/>
+    <sheet name="Account" sheetId="1" r:id="rId1"/>
+    <sheet name="RatesVendor" sheetId="2" r:id="rId2"/>
+    <sheet name="PartOrder" sheetId="3" r:id="rId3"/>
+    <sheet name="Shipment" sheetId="4" r:id="rId4"/>
+    <sheet name="Payment" sheetId="5" r:id="rId5"/>
+    <sheet name="PartCategory" sheetId="6" r:id="rId6"/>
+    <sheet name="Part" sheetId="7" r:id="rId7"/>
+    <sheet name="ListedPart" sheetId="8" r:id="rId8"/>
+    <sheet name="ContainsPart" sheetId="9" r:id="rId9"/>
+    <sheet name="Make" sheetId="10" r:id="rId10"/>
+    <sheet name="Model" sheetId="11" r:id="rId11"/>
+    <sheet name="Vehicle" sheetId="12" r:id="rId12"/>
+    <sheet name="FitsIn" sheetId="13" r:id="rId13"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="359">
   <si>
     <t>accountId</t>
   </si>
@@ -943,18 +951,12 @@
     <t>public/images/parts/part4.jpg</t>
   </si>
   <si>
-    <t>dodge engine</t>
-  </si>
-  <si>
     <t>Internal combustion engine made for Dodge vehicles</t>
   </si>
   <si>
     <t>public/images/parts/part5.jpg</t>
   </si>
   <si>
-    <t>every other engine</t>
-  </si>
-  <si>
     <t>Internal combustion engine made for non-Dodge vehicles</t>
   </si>
   <si>
@@ -1058,30 +1060,77 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>public/images/parts/part7.jpg</t>
+  </si>
+  <si>
+    <t>An engine specified for a Dodge made vehicle</t>
+  </si>
+  <si>
+    <t>An engine specified for a non-Dodge made vehicle</t>
+  </si>
+  <si>
+    <t>A tire consisting of a rubber ring around the rim of an automobile wheel</t>
+  </si>
+  <si>
+    <t>Car Tire</t>
+  </si>
+  <si>
+    <t>A wheel rim</t>
+  </si>
+  <si>
+    <t>public/images/parts/part8.jpg</t>
+  </si>
+  <si>
+    <t>public/images/parts/part9.jpg</t>
+  </si>
+  <si>
+    <t>A steering wheel</t>
+  </si>
+  <si>
+    <t>A car battery</t>
+  </si>
+  <si>
+    <t>public/images/parts/part10.jpg</t>
+  </si>
+  <si>
+    <t>Windshield wipers</t>
+  </si>
+  <si>
+    <t>public/images/parts/part11.jpg</t>
+  </si>
+  <si>
+    <t>public/images/parts/part12.jpg</t>
+  </si>
+  <si>
+    <t>A motor-driven device for keeping a windshield clear of rain, typically one with a rubber blade on an arm that moves in an arc.</t>
+  </si>
+  <si>
+    <t>Protective glass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
+      <sz val="8"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1098,7 +1147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1121,73 +1170,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1196,24 +1219,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1415,7 +1499,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1434,7 +1518,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1464,7 +1548,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1490,7 +1574,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1516,7 +1600,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1542,7 +1626,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1568,7 +1652,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1594,7 +1678,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1620,7 +1704,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1646,7 +1730,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1672,7 +1756,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1685,9 +1769,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1704,7 +1794,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1723,7 +1813,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1749,7 +1839,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1775,7 +1865,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1801,7 +1891,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1827,7 +1917,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1853,7 +1943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1879,7 +1969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1905,7 +1995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1931,7 +2021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1957,7 +2047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1970,9 +2060,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1986,7 +2082,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2005,7 +2101,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2035,7 +2131,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2061,7 +2157,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2087,7 +2183,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2113,7 +2209,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2139,7 +2235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2165,7 +2261,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2191,7 +2287,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2217,7 +2313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2243,7 +2339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2256,831 +2352,838 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.67188" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1719" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1719" style="1" customWidth="1"/>
-    <col min="13" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="1" customWidth="1"/>
+    <col min="13" max="256" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="3">
         <v>20057</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s" s="2">
+      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="3">
         <v>12255</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s" s="2">
+      <c r="H4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s" s="2">
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s" s="2">
+      <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="3">
         <v>12237</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J5" t="s" s="2">
+      <c r="J5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="K5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="3">
         <v>33185</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F6" t="s" s="2">
+      <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G6" t="s" s="2">
+      <c r="G6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H6" t="s" s="2">
+      <c r="H6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I6" t="s" s="2">
+      <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J6" t="s" s="2">
+      <c r="J6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="K6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="3">
         <v>20022</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s" s="2">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s" s="2">
+      <c r="F7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G7" t="s" s="2">
+      <c r="G7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H7" t="s" s="2">
+      <c r="H7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I7" t="s" s="2">
+      <c r="I7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="J7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="3">
         <v>33467</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E8" t="s" s="2">
+      <c r="E8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F8" t="s" s="2">
+      <c r="F8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G8" t="s" s="2">
+      <c r="G8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H8" t="s" s="2">
+      <c r="H8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I8" t="s" s="2">
+      <c r="I8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J8" t="s" s="2">
+      <c r="J8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="K8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="3">
         <v>75049</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="D9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I9" t="s" s="2">
+      <c r="I9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J9" t="s" s="2">
+      <c r="J9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="K9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="3">
         <v>36622</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I10" t="s" s="2">
+      <c r="I10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J10" t="s" s="2">
+      <c r="J10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="K10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="3">
         <v>58122</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J11" t="s" s="2">
+      <c r="J11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="K11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="3">
         <v>53779</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J12" t="s" s="2">
+      <c r="J12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="K12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="3">
         <v>85715</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J13" t="s" s="2">
+      <c r="J13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="K13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L13" s="3">
         <v>38308</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J14" t="s" s="2">
+      <c r="J14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="K14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="3">
         <v>45271</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J15" t="s" s="2">
+      <c r="J15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="K15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L15" s="3">
         <v>53710</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J16" t="s" s="2">
+      <c r="J16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="K16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="3">
         <v>17622</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J17" t="s" s="2">
+      <c r="J17" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="K17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="3">
         <v>25775</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J18" t="s" s="2">
+      <c r="J18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="K18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="3">
         <v>23514</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J19" t="s" s="2">
+      <c r="J19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="K19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L19" s="3">
         <v>94064</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J20" t="s" s="2">
+      <c r="J20" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="K20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="3">
         <v>92878</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J21" t="s" s="2">
+      <c r="J21" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="K21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L21" s="3">
@@ -3089,7 +3192,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3097,55 +3200,54 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="16" customWidth="1"/>
-    <col min="2" max="256" width="8.85156" style="16" customWidth="1"/>
+    <col min="1" max="256" width="8.88671875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>322</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3153,115 +3255,115 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.67188" style="17" customWidth="1"/>
-    <col min="2" max="256" width="8.85156" style="17" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="17" customWidth="1"/>
+    <col min="2" max="256" width="8.88671875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="2">
+    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="2">
+    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="2">
+    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="2">
+    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="2">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="2">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="2">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="2">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="2">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3269,855 +3371,855 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV56"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="18" customWidth="1"/>
-    <col min="2" max="2" width="11.8516" style="18" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="18" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="18" customWidth="1"/>
     <col min="4" max="4" width="5" style="18" customWidth="1"/>
-    <col min="5" max="256" width="8.85156" style="18" customWidth="1"/>
+    <col min="5" max="256" width="8.88671875" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C1" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>323</v>
+      <c r="B2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="D2" s="3">
         <v>2008</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>323</v>
+      <c r="B3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="D3" s="3">
         <v>2009</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>323</v>
+      <c r="B4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="D4" s="3">
         <v>2010</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>324</v>
+      <c r="B5" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="D5" s="3">
-        <f>D2</f>
+        <f t="shared" ref="D5:D25" si="0">D2</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>324</v>
+      <c r="B6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="D6" s="3">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>324</v>
+      <c r="B7" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="D7" s="3">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>325</v>
+      <c r="B8" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="D8" s="3">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>325</v>
+      <c r="B9" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="D9" s="3">
-        <f>D6</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>325</v>
+      <c r="B10" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="D10" s="3">
-        <f>D7</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>326</v>
+      <c r="B11" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="D11" s="3">
-        <f>D8</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>326</v>
+      <c r="B12" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="D12" s="3">
-        <f>D9</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>326</v>
+      <c r="B13" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="D13" s="3">
-        <f>D10</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>328</v>
+      <c r="B14" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="D14" s="3">
-        <f>D11</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>328</v>
+      <c r="B15" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="D15" s="3">
-        <f>D12</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>328</v>
+      <c r="B16" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="D16" s="3">
-        <f>D13</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>327</v>
+      <c r="B17" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="D17" s="3">
-        <f>D14</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>327</v>
+      <c r="B18" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="D18" s="3">
-        <f>D15</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>327</v>
+      <c r="B19" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="D19" s="3">
-        <f>D16</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>329</v>
+      <c r="B20" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="D20" s="3">
-        <f>D17</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>329</v>
+      <c r="B21" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="D21" s="3">
-        <f>D18</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>329</v>
+      <c r="B22" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="D22" s="3">
-        <f>D19</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>330</v>
+      <c r="B23" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="D23" s="3">
-        <f>D20</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>330</v>
+      <c r="B24" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="D24" s="3">
-        <f>D21</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>330</v>
+      <c r="B25" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="D25" s="3">
-        <f>D22</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" t="s" s="8">
-        <v>320</v>
-      </c>
-      <c r="C26" t="s" s="8">
-        <v>330</v>
+      <c r="B26" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="D26" s="9">
         <v>2011</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>331</v>
+      <c r="B27" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="D27" s="3">
         <f>D23</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>331</v>
+      <c r="B28" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="D28" s="3">
         <f>D24</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>331</v>
+      <c r="B29" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="D29" s="3">
         <f>D25</f>
         <v>2010</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>332</v>
+      <c r="B30" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="D30" s="3">
-        <f>D27</f>
+        <f t="shared" ref="D30:D38" si="1">D27</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>332</v>
+      <c r="B31" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="D31" s="3">
-        <f>D28</f>
+        <f t="shared" si="1"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>332</v>
+      <c r="B32" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="D32" s="3">
-        <f>D29</f>
+        <f t="shared" si="1"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>333</v>
+      <c r="B33" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="D33" s="3">
-        <f>D30</f>
+        <f t="shared" si="1"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>333</v>
+      <c r="B34" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="D34" s="3">
-        <f>D31</f>
+        <f t="shared" si="1"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>333</v>
+      <c r="B35" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="D35" s="3">
-        <f>D32</f>
+        <f t="shared" si="1"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>334</v>
+      <c r="B36" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="D36" s="3">
-        <f>D33</f>
+        <f t="shared" si="1"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>334</v>
+      <c r="B37" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="D37" s="3">
-        <f>D34</f>
+        <f t="shared" si="1"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>334</v>
+      <c r="B38" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="D38" s="3">
-        <f>D35</f>
+        <f t="shared" si="1"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>335</v>
+      <c r="B39" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="D39" s="3">
         <v>2011</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>335</v>
+      <c r="B40" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="D40" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>335</v>
+      <c r="B41" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="D41" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>336</v>
+      <c r="B42" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="D42" s="3">
-        <f>D39</f>
+        <f t="shared" ref="D42:D56" si="2">D39</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>336</v>
+      <c r="B43" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="D43" s="3">
-        <f>D40</f>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>336</v>
+      <c r="B44" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="D44" s="3">
-        <f>D41</f>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>337</v>
+      <c r="B45" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="D45" s="3">
-        <f>D42</f>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>337</v>
+      <c r="B46" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="D46" s="3">
-        <f>D43</f>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>337</v>
+      <c r="B47" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="D47" s="3">
-        <f>D44</f>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>338</v>
+      <c r="B48" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="D48" s="3">
-        <f>D45</f>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>338</v>
+      <c r="B49" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="D49" s="3">
-        <f>D46</f>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>338</v>
+      <c r="B50" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="D50" s="3">
-        <f>D47</f>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>339</v>
+      <c r="B51" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="D51" s="3">
-        <f>D48</f>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>339</v>
+      <c r="B52" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="D52" s="3">
-        <f>D49</f>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>339</v>
+      <c r="B53" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="D53" s="3">
-        <f>D50</f>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>340</v>
+      <c r="B54" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="D54" s="3">
-        <f>D51</f>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>340</v>
+      <c r="B55" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="D55" s="3">
-        <f>D52</f>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>340</v>
+      <c r="B56" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="D56" s="3">
-        <f>D53</f>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4125,27 +4227,27 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B266"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV266"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85156" style="19" customWidth="1"/>
-    <col min="2" max="2" width="8.17188" style="19" customWidth="1"/>
-    <col min="3" max="256" width="8.85156" style="19" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" style="19" customWidth="1"/>
+    <col min="3" max="256" width="8.88671875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B1" t="s" s="2">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
+      <c r="B1" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4153,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4161,7 +4263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4169,7 +4271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -4177,7 +4279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -4185,7 +4287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -4193,7 +4295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -4201,7 +4303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -4209,7 +4311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -4217,7 +4319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -4225,7 +4327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -4233,7 +4335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -4241,7 +4343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -4249,7 +4351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -4257,7 +4359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -4265,7 +4367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -4273,7 +4375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -4281,7 +4383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -4289,7 +4391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -4297,7 +4399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -4305,7 +4407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -4313,7 +4415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -4321,7 +4423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -4329,7 +4431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -4337,7 +4439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -4345,7 +4447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -4353,7 +4455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -4361,7 +4463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -4369,7 +4471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -4377,7 +4479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -4385,7 +4487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -4393,7 +4495,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -4401,7 +4503,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -4409,7 +4511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -4417,7 +4519,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -4425,7 +4527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -4433,7 +4535,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -4441,7 +4543,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -4449,7 +4551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -4457,7 +4559,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>1</v>
       </c>
@@ -4465,7 +4567,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -4473,7 +4575,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -4481,7 +4583,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>1</v>
       </c>
@@ -4489,7 +4591,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -4497,7 +4599,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
+    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -4505,7 +4607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
+    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -4513,7 +4615,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -4521,7 +4623,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1">
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -4529,7 +4631,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1">
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -4537,7 +4639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1">
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>1</v>
       </c>
@@ -4545,7 +4647,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1">
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -4553,7 +4655,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1">
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>1</v>
       </c>
@@ -4561,7 +4663,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1">
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -4569,7 +4671,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1">
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -4577,7 +4679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1">
+    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>2</v>
       </c>
@@ -4585,7 +4687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1">
+    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>2</v>
       </c>
@@ -4593,7 +4695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1">
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>2</v>
       </c>
@@ -4601,7 +4703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1">
+    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>2</v>
       </c>
@@ -4609,7 +4711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1">
+    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>2</v>
       </c>
@@ -4617,7 +4719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1">
+    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>2</v>
       </c>
@@ -4625,7 +4727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1">
+    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>2</v>
       </c>
@@ -4633,7 +4735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1">
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>2</v>
       </c>
@@ -4641,7 +4743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1">
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>2</v>
       </c>
@@ -4649,7 +4751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1">
+    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>2</v>
       </c>
@@ -4657,7 +4759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1">
+    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>2</v>
       </c>
@@ -4665,7 +4767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1">
+    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>2</v>
       </c>
@@ -4673,7 +4775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1">
+    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>2</v>
       </c>
@@ -4681,7 +4783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1">
+    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>2</v>
       </c>
@@ -4689,7 +4791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1">
+    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>2</v>
       </c>
@@ -4697,7 +4799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1">
+    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>2</v>
       </c>
@@ -4705,7 +4807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1">
+    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>2</v>
       </c>
@@ -4713,7 +4815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" ht="15" customHeight="1">
+    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>2</v>
       </c>
@@ -4721,7 +4823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1">
+    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>2</v>
       </c>
@@ -4729,7 +4831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1">
+    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>2</v>
       </c>
@@ -4737,7 +4839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1">
+    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>2</v>
       </c>
@@ -4745,7 +4847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1">
+    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>2</v>
       </c>
@@ -4753,7 +4855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1">
+    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>2</v>
       </c>
@@ -4761,7 +4863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" ht="15" customHeight="1">
+    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>2</v>
       </c>
@@ -4769,7 +4871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1">
+    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>2</v>
       </c>
@@ -4777,7 +4879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" ht="15" customHeight="1">
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>2</v>
       </c>
@@ -4785,7 +4887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" ht="15" customHeight="1">
+    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>2</v>
       </c>
@@ -4793,7 +4895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1">
+    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>2</v>
       </c>
@@ -4801,7 +4903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1">
+    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>2</v>
       </c>
@@ -4809,7 +4911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1">
+    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>2</v>
       </c>
@@ -4817,7 +4919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1">
+    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>2</v>
       </c>
@@ -4825,7 +4927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1">
+    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>2</v>
       </c>
@@ -4833,7 +4935,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" ht="15" customHeight="1">
+    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>2</v>
       </c>
@@ -4841,7 +4943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" ht="15" customHeight="1">
+    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>2</v>
       </c>
@@ -4849,7 +4951,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" ht="15" customHeight="1">
+    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>2</v>
       </c>
@@ -4857,7 +4959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" ht="15" customHeight="1">
+    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>2</v>
       </c>
@@ -4865,7 +4967,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" ht="15" customHeight="1">
+    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>2</v>
       </c>
@@ -4873,7 +4975,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" ht="15" customHeight="1">
+    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>2</v>
       </c>
@@ -4881,7 +4983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" ht="15" customHeight="1">
+    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>2</v>
       </c>
@@ -4889,7 +4991,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" ht="15" customHeight="1">
+    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>2</v>
       </c>
@@ -4897,7 +4999,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" ht="15" customHeight="1">
+    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>2</v>
       </c>
@@ -4905,7 +5007,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="1">
+    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>2</v>
       </c>
@@ -4913,7 +5015,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" ht="15" customHeight="1">
+    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>2</v>
       </c>
@@ -4921,7 +5023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" ht="15" customHeight="1">
+    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>2</v>
       </c>
@@ -4929,7 +5031,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" ht="15" customHeight="1">
+    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>2</v>
       </c>
@@ -4937,7 +5039,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" ht="15" customHeight="1">
+    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>2</v>
       </c>
@@ -4945,7 +5047,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" ht="15" customHeight="1">
+    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>2</v>
       </c>
@@ -4953,7 +5055,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="1">
+    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>2</v>
       </c>
@@ -4961,7 +5063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" ht="15" customHeight="1">
+    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>2</v>
       </c>
@@ -4969,7 +5071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" ht="15" customHeight="1">
+    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>2</v>
       </c>
@@ -4977,7 +5079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1">
+    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>2</v>
       </c>
@@ -4985,7 +5087,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" ht="15" customHeight="1">
+    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>2</v>
       </c>
@@ -4993,7 +5095,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" ht="15" customHeight="1">
+    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -5001,7 +5103,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" ht="15" customHeight="1">
+    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>2</v>
       </c>
@@ -5009,7 +5111,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" ht="15" customHeight="1">
+    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>3</v>
       </c>
@@ -5017,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" ht="15" customHeight="1">
+    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>3</v>
       </c>
@@ -5025,7 +5127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" ht="15" customHeight="1">
+    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>3</v>
       </c>
@@ -5033,7 +5135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" ht="15" customHeight="1">
+    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>3</v>
       </c>
@@ -5041,7 +5143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" ht="15" customHeight="1">
+    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>3</v>
       </c>
@@ -5049,7 +5151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" ht="15" customHeight="1">
+    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>3</v>
       </c>
@@ -5057,7 +5159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" ht="15" customHeight="1">
+    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>3</v>
       </c>
@@ -5065,7 +5167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" ht="15" customHeight="1">
+    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>3</v>
       </c>
@@ -5073,7 +5175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" ht="15" customHeight="1">
+    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>3</v>
       </c>
@@ -5081,7 +5183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" ht="15" customHeight="1">
+    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>3</v>
       </c>
@@ -5089,7 +5191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" ht="15" customHeight="1">
+    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>3</v>
       </c>
@@ -5097,7 +5199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" ht="15" customHeight="1">
+    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>3</v>
       </c>
@@ -5105,7 +5207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" ht="15" customHeight="1">
+    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>3</v>
       </c>
@@ -5113,7 +5215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" ht="15" customHeight="1">
+    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>3</v>
       </c>
@@ -5121,7 +5223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" ht="15" customHeight="1">
+    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>3</v>
       </c>
@@ -5129,7 +5231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" ht="15" customHeight="1">
+    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>3</v>
       </c>
@@ -5137,7 +5239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" ht="15" customHeight="1">
+    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>3</v>
       </c>
@@ -5145,7 +5247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" ht="15" customHeight="1">
+    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>3</v>
       </c>
@@ -5153,7 +5255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" ht="15" customHeight="1">
+    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>3</v>
       </c>
@@ -5161,7 +5263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" ht="15" customHeight="1">
+    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>3</v>
       </c>
@@ -5169,7 +5271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" ht="15" customHeight="1">
+    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>3</v>
       </c>
@@ -5177,7 +5279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" ht="15" customHeight="1">
+    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>3</v>
       </c>
@@ -5185,7 +5287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" ht="15" customHeight="1">
+    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>3</v>
       </c>
@@ -5193,7 +5295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" ht="15" customHeight="1">
+    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>3</v>
       </c>
@@ -5201,7 +5303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" ht="15" customHeight="1">
+    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>3</v>
       </c>
@@ -5209,7 +5311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" ht="15" customHeight="1">
+    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>3</v>
       </c>
@@ -5217,7 +5319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" ht="15" customHeight="1">
+    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>3</v>
       </c>
@@ -5225,7 +5327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" ht="15" customHeight="1">
+    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>3</v>
       </c>
@@ -5233,7 +5335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" ht="15" customHeight="1">
+    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>3</v>
       </c>
@@ -5241,7 +5343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" ht="15" customHeight="1">
+    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>3</v>
       </c>
@@ -5249,7 +5351,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" ht="15" customHeight="1">
+    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>3</v>
       </c>
@@ -5257,7 +5359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" ht="15" customHeight="1">
+    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>3</v>
       </c>
@@ -5265,7 +5367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="142" ht="15" customHeight="1">
+    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>3</v>
       </c>
@@ -5273,7 +5375,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" ht="15" customHeight="1">
+    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>3</v>
       </c>
@@ -5281,7 +5383,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" ht="15" customHeight="1">
+    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>3</v>
       </c>
@@ -5289,7 +5391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" ht="15" customHeight="1">
+    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>3</v>
       </c>
@@ -5297,7 +5399,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" ht="15" customHeight="1">
+    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>3</v>
       </c>
@@ -5305,7 +5407,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="147" ht="15" customHeight="1">
+    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>3</v>
       </c>
@@ -5313,7 +5415,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" ht="15" customHeight="1">
+    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>3</v>
       </c>
@@ -5321,7 +5423,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" ht="15" customHeight="1">
+    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>3</v>
       </c>
@@ -5329,7 +5431,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" ht="15" customHeight="1">
+    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>3</v>
       </c>
@@ -5337,7 +5439,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" ht="15" customHeight="1">
+    <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>3</v>
       </c>
@@ -5345,7 +5447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" ht="15" customHeight="1">
+    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>3</v>
       </c>
@@ -5353,7 +5455,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="153" ht="15" customHeight="1">
+    <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>3</v>
       </c>
@@ -5361,7 +5463,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" ht="15" customHeight="1">
+    <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>3</v>
       </c>
@@ -5369,7 +5471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="155" ht="15" customHeight="1">
+    <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>3</v>
       </c>
@@ -5377,7 +5479,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="156" ht="15" customHeight="1">
+    <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>3</v>
       </c>
@@ -5385,7 +5487,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" ht="15" customHeight="1">
+    <row r="157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>3</v>
       </c>
@@ -5393,7 +5495,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="158" ht="15" customHeight="1">
+    <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>3</v>
       </c>
@@ -5401,7 +5503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="159" ht="15" customHeight="1">
+    <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>3</v>
       </c>
@@ -5409,7 +5511,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" ht="15" customHeight="1">
+    <row r="160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>3</v>
       </c>
@@ -5417,7 +5519,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" ht="15" customHeight="1">
+    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>3</v>
       </c>
@@ -5425,7 +5527,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="162" ht="15" customHeight="1">
+    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>3</v>
       </c>
@@ -5433,7 +5535,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" ht="15" customHeight="1">
+    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>3</v>
       </c>
@@ -5441,7 +5543,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" ht="15" customHeight="1">
+    <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>4</v>
       </c>
@@ -5449,7 +5551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" ht="15" customHeight="1">
+    <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>4</v>
       </c>
@@ -5457,7 +5559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" ht="15" customHeight="1">
+    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>4</v>
       </c>
@@ -5465,7 +5567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" ht="15" customHeight="1">
+    <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>4</v>
       </c>
@@ -5473,7 +5575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" ht="15" customHeight="1">
+    <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>4</v>
       </c>
@@ -5481,7 +5583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" ht="15" customHeight="1">
+    <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>4</v>
       </c>
@@ -5489,7 +5591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" ht="15" customHeight="1">
+    <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>4</v>
       </c>
@@ -5497,7 +5599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" ht="15" customHeight="1">
+    <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>4</v>
       </c>
@@ -5505,7 +5607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" ht="15" customHeight="1">
+    <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>4</v>
       </c>
@@ -5513,7 +5615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" ht="15" customHeight="1">
+    <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>4</v>
       </c>
@@ -5521,7 +5623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" ht="15" customHeight="1">
+    <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>4</v>
       </c>
@@ -5529,7 +5631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" ht="15" customHeight="1">
+    <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>4</v>
       </c>
@@ -5537,7 +5639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" ht="15" customHeight="1">
+    <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>4</v>
       </c>
@@ -5545,7 +5647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" ht="15" customHeight="1">
+    <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>4</v>
       </c>
@@ -5553,7 +5655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" ht="15" customHeight="1">
+    <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>4</v>
       </c>
@@ -5561,7 +5663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" ht="15" customHeight="1">
+    <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>4</v>
       </c>
@@ -5569,7 +5671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" ht="15" customHeight="1">
+    <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>4</v>
       </c>
@@ -5577,7 +5679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" ht="15" customHeight="1">
+    <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>4</v>
       </c>
@@ -5585,7 +5687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" ht="15" customHeight="1">
+    <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>4</v>
       </c>
@@ -5593,7 +5695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" ht="15" customHeight="1">
+    <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>4</v>
       </c>
@@ -5601,7 +5703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" ht="15" customHeight="1">
+    <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>4</v>
       </c>
@@ -5609,7 +5711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" ht="15" customHeight="1">
+    <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>4</v>
       </c>
@@ -5617,7 +5719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" ht="15" customHeight="1">
+    <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>4</v>
       </c>
@@ -5625,7 +5727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" ht="15" customHeight="1">
+    <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>4</v>
       </c>
@@ -5633,7 +5735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" ht="15" customHeight="1">
+    <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>4</v>
       </c>
@@ -5641,7 +5743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" ht="15" customHeight="1">
+    <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>4</v>
       </c>
@@ -5649,7 +5751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" ht="15" customHeight="1">
+    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>4</v>
       </c>
@@ -5657,7 +5759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" ht="15" customHeight="1">
+    <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>4</v>
       </c>
@@ -5665,7 +5767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" ht="15" customHeight="1">
+    <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>4</v>
       </c>
@@ -5673,7 +5775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" ht="15" customHeight="1">
+    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>4</v>
       </c>
@@ -5681,7 +5783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" ht="15" customHeight="1">
+    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>4</v>
       </c>
@@ -5689,7 +5791,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" ht="15" customHeight="1">
+    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>4</v>
       </c>
@@ -5697,7 +5799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" ht="15" customHeight="1">
+    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>4</v>
       </c>
@@ -5705,7 +5807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="197" ht="15" customHeight="1">
+    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>4</v>
       </c>
@@ -5713,7 +5815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" ht="15" customHeight="1">
+    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>4</v>
       </c>
@@ -5721,7 +5823,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" ht="15" customHeight="1">
+    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>4</v>
       </c>
@@ -5729,7 +5831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="200" ht="15" customHeight="1">
+    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>4</v>
       </c>
@@ -5737,7 +5839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="201" ht="15" customHeight="1">
+    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>4</v>
       </c>
@@ -5745,7 +5847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" ht="15" customHeight="1">
+    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>4</v>
       </c>
@@ -5753,7 +5855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="203" ht="15" customHeight="1">
+    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>4</v>
       </c>
@@ -5761,7 +5863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" ht="15" customHeight="1">
+    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>4</v>
       </c>
@@ -5769,7 +5871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="205" ht="15" customHeight="1">
+    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>4</v>
       </c>
@@ -5777,7 +5879,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="206" ht="15" customHeight="1">
+    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>4</v>
       </c>
@@ -5785,7 +5887,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="207" ht="15" customHeight="1">
+    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>4</v>
       </c>
@@ -5793,7 +5895,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="208" ht="15" customHeight="1">
+    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>4</v>
       </c>
@@ -5801,7 +5903,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="209" ht="15" customHeight="1">
+    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>4</v>
       </c>
@@ -5809,7 +5911,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="210" ht="15" customHeight="1">
+    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>4</v>
       </c>
@@ -5817,7 +5919,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="211" ht="15" customHeight="1">
+    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>4</v>
       </c>
@@ -5825,7 +5927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="212" ht="15" customHeight="1">
+    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>4</v>
       </c>
@@ -5833,7 +5935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" ht="15" customHeight="1">
+    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>4</v>
       </c>
@@ -5841,7 +5943,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="214" ht="15" customHeight="1">
+    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>4</v>
       </c>
@@ -5849,7 +5951,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="215" ht="15" customHeight="1">
+    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>4</v>
       </c>
@@ -5857,7 +5959,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="216" ht="15" customHeight="1">
+    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>4</v>
       </c>
@@ -5865,7 +5967,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" ht="15" customHeight="1">
+    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>4</v>
       </c>
@@ -5873,7 +5975,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="218" ht="15" customHeight="1">
+    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>5</v>
       </c>
@@ -5881,7 +5983,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="219" ht="15" customHeight="1">
+    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>5</v>
       </c>
@@ -5889,7 +5991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" ht="15" customHeight="1">
+    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>5</v>
       </c>
@@ -5897,7 +5999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="221" ht="15" customHeight="1">
+    <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>5</v>
       </c>
@@ -5905,7 +6007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" ht="15" customHeight="1">
+    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>5</v>
       </c>
@@ -5913,7 +6015,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="223" ht="15" customHeight="1">
+    <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>5</v>
       </c>
@@ -5921,7 +6023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="224" ht="15" customHeight="1">
+    <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>5</v>
       </c>
@@ -5929,7 +6031,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="225" ht="15" customHeight="1">
+    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>5</v>
       </c>
@@ -5937,7 +6039,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" ht="15" customHeight="1">
+    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>5</v>
       </c>
@@ -5945,7 +6047,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="227" ht="15" customHeight="1">
+    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>5</v>
       </c>
@@ -5953,7 +6055,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="228" ht="15" customHeight="1">
+    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>5</v>
       </c>
@@ -5961,7 +6063,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="229" ht="15" customHeight="1">
+    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>5</v>
       </c>
@@ -5969,7 +6071,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="230" ht="15" customHeight="1">
+    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>5</v>
       </c>
@@ -5977,7 +6079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="231" ht="15" customHeight="1">
+    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>5</v>
       </c>
@@ -5985,7 +6087,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="232" ht="15" customHeight="1">
+    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>5</v>
       </c>
@@ -5993,7 +6095,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="233" ht="15" customHeight="1">
+    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>5</v>
       </c>
@@ -6001,7 +6103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="234" ht="15" customHeight="1">
+    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>5</v>
       </c>
@@ -6009,7 +6111,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="235" ht="15" customHeight="1">
+    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>5</v>
       </c>
@@ -6017,7 +6119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="236" ht="15" customHeight="1">
+    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>5</v>
       </c>
@@ -6025,7 +6127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" ht="15" customHeight="1">
+    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>5</v>
       </c>
@@ -6033,7 +6135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" ht="15" customHeight="1">
+    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>5</v>
       </c>
@@ -6041,7 +6143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" ht="15" customHeight="1">
+    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>5</v>
       </c>
@@ -6049,7 +6151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" ht="15" customHeight="1">
+    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>5</v>
       </c>
@@ -6057,7 +6159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" ht="15" customHeight="1">
+    <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>5</v>
       </c>
@@ -6065,7 +6167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" ht="15" customHeight="1">
+    <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>6</v>
       </c>
@@ -6073,7 +6175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" ht="15" customHeight="1">
+    <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>6</v>
       </c>
@@ -6081,7 +6183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" ht="15" customHeight="1">
+    <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>6</v>
       </c>
@@ -6089,7 +6191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" ht="15" customHeight="1">
+    <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>6</v>
       </c>
@@ -6097,7 +6199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" ht="15" customHeight="1">
+    <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>6</v>
       </c>
@@ -6105,7 +6207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" ht="15" customHeight="1">
+    <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>6</v>
       </c>
@@ -6113,7 +6215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" ht="15" customHeight="1">
+    <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>6</v>
       </c>
@@ -6121,7 +6223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" ht="15" customHeight="1">
+    <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>6</v>
       </c>
@@ -6129,7 +6231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" ht="15" customHeight="1">
+    <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>6</v>
       </c>
@@ -6137,7 +6239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" ht="15" customHeight="1">
+    <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>6</v>
       </c>
@@ -6145,7 +6247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" ht="15" customHeight="1">
+    <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>6</v>
       </c>
@@ -6153,7 +6255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" ht="15" customHeight="1">
+    <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>6</v>
       </c>
@@ -6161,7 +6263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" ht="15" customHeight="1">
+    <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>6</v>
       </c>
@@ -6169,7 +6271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" ht="15" customHeight="1">
+    <row r="255" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>6</v>
       </c>
@@ -6177,7 +6279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" ht="15" customHeight="1">
+    <row r="256" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>6</v>
       </c>
@@ -6185,7 +6287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" ht="15" customHeight="1">
+    <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>6</v>
       </c>
@@ -6193,7 +6295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" ht="15" customHeight="1">
+    <row r="258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>6</v>
       </c>
@@ -6201,7 +6303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" ht="15" customHeight="1">
+    <row r="259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>6</v>
       </c>
@@ -6209,7 +6311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" ht="15" customHeight="1">
+    <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>6</v>
       </c>
@@ -6217,7 +6319,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" ht="15" customHeight="1">
+    <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>6</v>
       </c>
@@ -6225,7 +6327,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="262" ht="15" customHeight="1">
+    <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>6</v>
       </c>
@@ -6233,7 +6335,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="263" ht="15" customHeight="1">
+    <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>6</v>
       </c>
@@ -6241,7 +6343,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="264" ht="15" customHeight="1">
+    <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>6</v>
       </c>
@@ -6249,7 +6351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" ht="15" customHeight="1">
+    <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>6</v>
       </c>
@@ -6257,7 +6359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="266" ht="15" customHeight="1">
+    <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>6</v>
       </c>
@@ -6267,7 +6369,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6275,31 +6377,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1719" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.35156" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.67188" style="4" customWidth="1"/>
-    <col min="4" max="256" width="8.85156" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" customWidth="1"/>
+    <col min="4" max="256" width="8.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>3</v>
       </c>
@@ -6307,10 +6409,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>5</v>
       </c>
@@ -6321,7 +6423,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>10</v>
       </c>
@@ -6332,7 +6434,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>12</v>
       </c>
@@ -6343,7 +6445,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>13</v>
       </c>
@@ -6354,7 +6456,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>17</v>
       </c>
@@ -6367,7 +6469,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6375,31 +6477,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.17188" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.1719" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.35156" style="5" customWidth="1"/>
-    <col min="4" max="256" width="8.85156" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="5" customWidth="1"/>
+    <col min="4" max="256" width="8.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6410,7 +6512,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6421,7 +6523,7 @@
         <v>42006</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6432,7 +6534,7 @@
         <v>42007</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -6443,7 +6545,7 @@
         <v>42008</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -6454,7 +6556,7 @@
         <v>42009</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6465,7 +6567,7 @@
         <v>42010</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -6476,7 +6578,7 @@
         <v>42011</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -6487,7 +6589,7 @@
         <v>42012</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6498,7 +6600,7 @@
         <v>42013</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6509,7 +6611,7 @@
         <v>42014</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -6520,7 +6622,7 @@
         <v>42015</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -6531,7 +6633,7 @@
         <v>42016</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -6542,7 +6644,7 @@
         <v>42017</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -6553,7 +6655,7 @@
         <v>42018</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6564,7 +6666,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -6575,7 +6677,7 @@
         <v>42020</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -6588,7 +6690,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6596,91 +6698,90 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1719" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.1719" style="7" customWidth="1"/>
-    <col min="3" max="3" width="7.17188" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.17188" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.85156" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.85156" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.3984" style="7" customWidth="1"/>
+    <col min="1" max="2" width="14.21875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="7" customWidth="1"/>
     <col min="8" max="8" width="10" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.17188" style="7" customWidth="1"/>
-    <col min="10" max="10" width="5.67188" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.8516" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.17188" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11.8516" style="7" customWidth="1"/>
-    <col min="14" max="14" width="11.6719" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="7" customWidth="1"/>
     <col min="15" max="15" width="8" style="7" customWidth="1"/>
-    <col min="16" max="16" width="16.1719" style="7" customWidth="1"/>
-    <col min="17" max="17" width="11.5" style="7" customWidth="1"/>
-    <col min="18" max="18" width="14.1719" style="7" customWidth="1"/>
-    <col min="19" max="256" width="8.85156" style="7" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="14.21875" style="7" customWidth="1"/>
+    <col min="19" max="256" width="8.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6690,53 +6791,53 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F2" s="3">
-        <v>9.949999999999999</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="G2" s="6">
         <v>42005</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I2" t="s" s="8">
+      <c r="I2" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="J2" t="s" s="8">
+      <c r="J2" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="K2" t="s" s="8">
+      <c r="K2" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="L2" t="s" s="8">
+      <c r="L2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="9">
         <v>48335</v>
       </c>
-      <c r="N2" t="s" s="8">
+      <c r="N2" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="O2" t="s" s="8">
+      <c r="O2" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="P2" t="s" s="8">
+      <c r="P2" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="Q2" t="s" s="8">
+      <c r="Q2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R2" s="9">
         <v>27116</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6747,10 +6848,10 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F3" s="3">
@@ -6759,41 +6860,41 @@
       <c r="G3" s="6">
         <v>42006</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I3" t="s" s="8">
+      <c r="I3" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="J3" t="s" s="8">
+      <c r="J3" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="K3" t="s" s="8">
+      <c r="K3" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="L3" t="s" s="8">
+      <c r="L3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="9">
         <v>74133</v>
       </c>
-      <c r="N3" t="s" s="8">
+      <c r="N3" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="O3" t="s" s="8">
+      <c r="O3" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="P3" t="s" s="8">
+      <c r="P3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="Q3" t="s" s="8">
+      <c r="Q3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R3" s="9">
         <v>45440</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6804,10 +6905,10 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F4" s="3">
@@ -6816,41 +6917,41 @@
       <c r="G4" s="6">
         <v>42007</v>
       </c>
-      <c r="H4" t="s" s="2">
+      <c r="H4" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I4" t="s" s="8">
+      <c r="I4" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="J4" t="s" s="8">
+      <c r="J4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="K4" t="s" s="8">
+      <c r="K4" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="L4" t="s" s="8">
+      <c r="L4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="9">
         <v>85754</v>
       </c>
-      <c r="N4" t="s" s="8">
+      <c r="N4" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="O4" t="s" s="8">
+      <c r="O4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s" s="8">
+      <c r="P4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" t="s" s="8">
+      <c r="Q4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R4" s="9">
         <v>20337</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -6860,10 +6961,10 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F5" s="3">
@@ -6872,41 +6973,41 @@
       <c r="G5" s="6">
         <v>42008</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I5" t="s" s="8">
+      <c r="I5" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="J5" t="s" s="8">
+      <c r="J5" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="K5" t="s" s="8">
+      <c r="K5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L5" t="s" s="8">
+      <c r="L5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="9">
         <v>14652</v>
       </c>
-      <c r="N5" t="s" s="8">
+      <c r="N5" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="O5" t="s" s="8">
+      <c r="O5" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="P5" t="s" s="8">
+      <c r="P5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" t="s" s="8">
+      <c r="Q5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R5" s="9">
         <v>75236</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -6916,53 +7017,53 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E6" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F6" s="3">
-        <v>255.175</v>
+        <v>255.17500000000001</v>
       </c>
       <c r="G6" s="6">
         <v>42009</v>
       </c>
-      <c r="H6" t="s" s="2">
+      <c r="H6" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I6" t="s" s="8">
+      <c r="I6" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="J6" t="s" s="8">
+      <c r="J6" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="K6" t="s" s="8">
+      <c r="K6" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="L6" t="s" s="8">
+      <c r="L6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="9">
         <v>50320</v>
       </c>
-      <c r="N6" t="s" s="8">
+      <c r="N6" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="O6" t="s" s="8">
+      <c r="O6" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="P6" t="s" s="8">
+      <c r="P6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" t="s" s="8">
+      <c r="Q6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R6" s="9">
         <v>98498</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6972,53 +7073,53 @@
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E7" t="s" s="2">
+      <c r="E7" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F7" s="3">
-        <v>295.075</v>
+        <v>295.07499999999999</v>
       </c>
       <c r="G7" s="6">
         <v>42010</v>
       </c>
-      <c r="H7" t="s" s="2">
+      <c r="H7" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I7" t="s" s="8">
+      <c r="I7" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="J7" t="s" s="8">
+      <c r="J7" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="K7" t="s" s="8">
+      <c r="K7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="L7" t="s" s="8">
+      <c r="L7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="9">
         <v>53215</v>
       </c>
-      <c r="N7" t="s" s="8">
+      <c r="N7" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="O7" t="s" s="8">
+      <c r="O7" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="P7" t="s" s="8">
+      <c r="P7" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="Q7" t="s" s="8">
+      <c r="Q7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R7" s="9">
         <v>95852</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -7028,53 +7129,53 @@
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E8" t="s" s="2">
+      <c r="E8" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F8" s="3">
-        <v>334.975</v>
+        <v>334.97500000000002</v>
       </c>
       <c r="G8" s="6">
         <v>42011</v>
       </c>
-      <c r="H8" t="s" s="2">
+      <c r="H8" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I8" t="s" s="8">
+      <c r="I8" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="J8" t="s" s="8">
+      <c r="J8" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K8" t="s" s="8">
+      <c r="K8" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="L8" t="s" s="8">
+      <c r="L8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="9">
         <v>37605</v>
       </c>
-      <c r="N8" t="s" s="8">
+      <c r="N8" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="O8" t="s" s="8">
+      <c r="O8" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="P8" t="s" s="8">
+      <c r="P8" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="Q8" t="s" s="8">
+      <c r="Q8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R8" s="9">
         <v>80045</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -7084,10 +7185,10 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="D9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F9" s="3">
@@ -7096,41 +7197,41 @@
       <c r="G9" s="6">
         <v>42012</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I9" t="s" s="8">
+      <c r="I9" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="J9" t="s" s="8">
+      <c r="J9" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K9" t="s" s="8">
+      <c r="K9" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="L9" t="s" s="8">
+      <c r="L9" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="9">
         <v>8104</v>
       </c>
-      <c r="N9" t="s" s="8">
+      <c r="N9" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="O9" t="s" s="8">
+      <c r="O9" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="P9" t="s" s="8">
+      <c r="P9" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="Q9" t="s" s="8">
+      <c r="Q9" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R9" s="9">
         <v>19093</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -7140,53 +7241,53 @@
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F10" s="3">
-        <v>414.775</v>
+        <v>414.77499999999998</v>
       </c>
       <c r="G10" s="6">
         <v>42013</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I10" t="s" s="8">
+      <c r="I10" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="J10" t="s" s="8">
+      <c r="J10" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="K10" t="s" s="8">
+      <c r="K10" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="L10" t="s" s="8">
+      <c r="L10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="9">
         <v>19172</v>
       </c>
-      <c r="N10" t="s" s="8">
+      <c r="N10" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="O10" t="s" s="8">
+      <c r="O10" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="P10" t="s" s="8">
+      <c r="P10" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="Q10" t="s" s="8">
+      <c r="Q10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R10" s="9">
         <v>30311</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -7196,53 +7297,53 @@
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F11" s="3">
-        <v>454.675</v>
+        <v>454.67500000000001</v>
       </c>
       <c r="G11" s="6">
         <v>42014</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I11" t="s" s="8">
+      <c r="I11" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="J11" t="s" s="8">
+      <c r="J11" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="K11" t="s" s="8">
+      <c r="K11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L11" t="s" s="8">
+      <c r="L11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="9">
         <v>34282</v>
       </c>
-      <c r="N11" t="s" s="8">
+      <c r="N11" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="O11" t="s" s="8">
+      <c r="O11" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="P11" t="s" s="8">
+      <c r="P11" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="Q11" t="s" s="8">
+      <c r="Q11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R11" s="9">
         <v>23213</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -7252,53 +7353,53 @@
       <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F12" s="3">
-        <v>494.575</v>
+        <v>494.57499999999999</v>
       </c>
       <c r="G12" s="6">
         <v>42015</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I12" t="s" s="8">
+      <c r="I12" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="J12" t="s" s="8">
+      <c r="J12" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="K12" t="s" s="8">
+      <c r="K12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L12" t="s" s="8">
+      <c r="L12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="9">
         <v>88563</v>
       </c>
-      <c r="N12" t="s" s="8">
+      <c r="N12" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="O12" t="s" s="8">
+      <c r="O12" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="P12" t="s" s="8">
+      <c r="P12" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="Q12" t="s" s="8">
+      <c r="Q12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R12" s="9">
         <v>22244</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -7308,53 +7409,53 @@
       <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F13" s="3">
-        <v>534.475</v>
+        <v>534.47500000000002</v>
       </c>
       <c r="G13" s="6">
         <v>42016</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I13" t="s" s="8">
+      <c r="I13" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="J13" t="s" s="8">
+      <c r="J13" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="K13" t="s" s="8">
+      <c r="K13" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="L13" t="s" s="8">
+      <c r="L13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M13" s="9">
         <v>16565</v>
       </c>
-      <c r="N13" t="s" s="8">
+      <c r="N13" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="O13" t="s" s="8">
+      <c r="O13" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="P13" t="s" s="8">
+      <c r="P13" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="Q13" t="s" s="8">
+      <c r="Q13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R13" s="9">
         <v>70616</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -7364,10 +7465,10 @@
       <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F14" s="3">
@@ -7376,41 +7477,41 @@
       <c r="G14" s="6">
         <v>42017</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I14" t="s" s="8">
+      <c r="I14" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="J14" t="s" s="8">
+      <c r="J14" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="K14" t="s" s="8">
+      <c r="K14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L14" t="s" s="8">
+      <c r="L14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="9">
         <v>77010</v>
       </c>
-      <c r="N14" t="s" s="8">
+      <c r="N14" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="O14" t="s" s="8">
+      <c r="O14" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="P14" t="s" s="8">
+      <c r="P14" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="Q14" t="s" s="8">
+      <c r="Q14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R14" s="9">
         <v>66112</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -7420,53 +7521,53 @@
       <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F15" s="3">
-        <v>614.275</v>
+        <v>614.27499999999998</v>
       </c>
       <c r="G15" s="6">
         <v>42018</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I15" t="s" s="8">
+      <c r="I15" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="J15" t="s" s="8">
+      <c r="J15" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="K15" t="s" s="8">
+      <c r="K15" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="L15" t="s" s="8">
+      <c r="L15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M15" s="9">
         <v>24040</v>
       </c>
-      <c r="N15" t="s" s="8">
+      <c r="N15" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="O15" t="s" s="8">
+      <c r="O15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P15" t="s" s="8">
+      <c r="P15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" t="s" s="8">
+      <c r="Q15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R15" s="9">
         <v>56944</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -7476,53 +7577,53 @@
       <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F16" s="3">
-        <v>654.175</v>
+        <v>654.17499999999995</v>
       </c>
       <c r="G16" s="6">
         <v>42019</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I16" t="s" s="8">
+      <c r="I16" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="J16" t="s" s="8">
+      <c r="J16" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="K16" t="s" s="8">
+      <c r="K16" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="L16" t="s" s="8">
+      <c r="L16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M16" s="9">
         <v>31416</v>
       </c>
-      <c r="N16" t="s" s="8">
+      <c r="N16" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="O16" t="s" s="8">
+      <c r="O16" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="P16" t="s" s="8">
+      <c r="P16" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="Q16" t="s" s="8">
+      <c r="Q16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R16" s="9">
         <v>81005</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -7532,53 +7633,53 @@
       <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F17" s="3">
-        <v>694.075</v>
+        <v>694.07500000000005</v>
       </c>
       <c r="G17" s="6">
         <v>42020</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I17" t="s" s="8">
+      <c r="I17" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="J17" t="s" s="8">
+      <c r="J17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K17" t="s" s="8">
+      <c r="K17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L17" t="s" s="8">
+      <c r="L17" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="9">
         <v>20520</v>
       </c>
-      <c r="N17" t="s" s="8">
+      <c r="N17" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="O17" t="s" s="8">
+      <c r="O17" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="P17" t="s" s="8">
+      <c r="P17" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="Q17" t="s" s="8">
+      <c r="Q17" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R17" s="9">
         <v>6726</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -7588,46 +7689,46 @@
       <c r="C18" s="3">
         <v>17</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F18" s="3">
-        <v>733.975</v>
+        <v>733.97500000000002</v>
       </c>
       <c r="G18" s="6">
         <v>42021</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I18" t="s" s="8">
+      <c r="I18" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="J18" t="s" s="8">
+      <c r="J18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K18" t="s" s="8">
+      <c r="K18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L18" t="s" s="8">
+      <c r="L18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M18" s="9">
         <v>20540</v>
       </c>
-      <c r="N18" t="s" s="8">
+      <c r="N18" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="O18" t="s" s="8">
+      <c r="O18" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="P18" t="s" s="8">
+      <c r="P18" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="Q18" t="s" s="8">
+      <c r="Q18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R18" s="9">
@@ -7636,7 +7737,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7644,187 +7745,187 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1719" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.1719" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.1719" style="10" customWidth="1"/>
-    <col min="4" max="256" width="8.85156" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="10" customWidth="1"/>
+    <col min="4" max="256" width="8.88671875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>14</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>16</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>18</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>20</v>
       </c>
       <c r="B15" s="3">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" s="2" t="s">
         <v>270</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7832,101 +7933,103 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8516" style="11" customWidth="1"/>
-    <col min="2" max="2" width="105.172" style="11" customWidth="1"/>
-    <col min="3" max="256" width="8.85156" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="105.21875" style="11" customWidth="1"/>
+    <col min="3" max="256" width="8.88671875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>290</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7934,143 +8037,262 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85156" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.8516" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="93.3516" style="12" customWidth="1"/>
-    <col min="5" max="5" width="26.3516" style="12" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="93.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="12" customWidth="1"/>
+    <col min="6" max="256" width="8.88671875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="E6" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E6" t="s" s="2">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D7" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>311</v>
-      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8078,43 +8300,43 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85156" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.35156" style="13" customWidth="1"/>
-    <col min="3" max="3" width="5.85156" style="13" customWidth="1"/>
-    <col min="4" max="4" width="7.85156" style="13" customWidth="1"/>
-    <col min="5" max="5" width="4.85156" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9.35156" style="13" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="13" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="13" customWidth="1"/>
+    <col min="7" max="256" width="8.88671875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B1" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="D1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E1" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -8134,7 +8356,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -8154,7 +8376,7 @@
         <v>42006</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -8174,7 +8396,7 @@
         <v>42007</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -8194,7 +8416,7 @@
         <v>42008</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -8214,7 +8436,7 @@
         <v>42009</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -8236,7 +8458,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8244,31 +8466,31 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.17188" style="15" customWidth="1"/>
-    <col min="2" max="2" width="4.85156" style="15" customWidth="1"/>
-    <col min="3" max="3" width="7.85156" style="15" customWidth="1"/>
-    <col min="4" max="256" width="8.85156" style="15" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="15" customWidth="1"/>
+    <col min="4" max="256" width="8.88671875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B1" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
+      <c r="B1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -8279,7 +8501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -8290,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -8301,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -8312,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -8323,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -8334,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -8345,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -8356,7 +8578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -8367,7 +8589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -8378,7 +8600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -8389,7 +8611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -8400,7 +8622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -8411,7 +8633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -8422,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -8433,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -8444,7 +8666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -8457,7 +8679,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/data/seed.xlsx
+++ b/src/data/seed.xlsx
@@ -1,37 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett\Documents\GitHub\everything-roadster\src\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Account" sheetId="1" r:id="rId1"/>
-    <sheet name="RatesVendor" sheetId="2" r:id="rId2"/>
-    <sheet name="PartOrder" sheetId="3" r:id="rId3"/>
-    <sheet name="Shipment" sheetId="4" r:id="rId4"/>
-    <sheet name="Payment" sheetId="5" r:id="rId5"/>
-    <sheet name="PartCategory" sheetId="6" r:id="rId6"/>
-    <sheet name="Part" sheetId="7" r:id="rId7"/>
-    <sheet name="ListedPart" sheetId="8" r:id="rId8"/>
-    <sheet name="ContainsPart" sheetId="9" r:id="rId9"/>
-    <sheet name="Make" sheetId="10" r:id="rId10"/>
-    <sheet name="Model" sheetId="11" r:id="rId11"/>
-    <sheet name="Vehicle" sheetId="12" r:id="rId12"/>
-    <sheet name="FitsIn" sheetId="13" r:id="rId13"/>
+    <sheet name="Account" sheetId="1" r:id="rId4"/>
+    <sheet name="RatesVendor" sheetId="2" r:id="rId5"/>
+    <sheet name="PartOrder" sheetId="3" r:id="rId6"/>
+    <sheet name="Shipment" sheetId="4" r:id="rId7"/>
+    <sheet name="Payment" sheetId="5" r:id="rId8"/>
+    <sheet name="PartCategory" sheetId="6" r:id="rId9"/>
+    <sheet name="Part" sheetId="7" r:id="rId10"/>
+    <sheet name="ListedPart" sheetId="8" r:id="rId11"/>
+    <sheet name="ContainsPart" sheetId="9" r:id="rId12"/>
+    <sheet name="Make" sheetId="10" r:id="rId13"/>
+    <sheet name="Model" sheetId="11" r:id="rId14"/>
+    <sheet name="Vehicle" sheetId="12" r:id="rId15"/>
+    <sheet name="FitsIn" sheetId="13" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="359">
   <si>
     <t>accountId</t>
   </si>
@@ -951,18 +943,66 @@
     <t>public/images/parts/part4.jpg</t>
   </si>
   <si>
+    <t>An engine specified for a Dodge made vehicle</t>
+  </si>
+  <si>
     <t>Internal combustion engine made for Dodge vehicles</t>
   </si>
   <si>
     <t>public/images/parts/part5.jpg</t>
   </si>
   <si>
+    <t>An engine specified for a non-Dodge made vehicle</t>
+  </si>
+  <si>
     <t>Internal combustion engine made for non-Dodge vehicles</t>
   </si>
   <si>
     <t>public/images/parts/part6.jpg</t>
   </si>
   <si>
+    <t>Car Tire</t>
+  </si>
+  <si>
+    <t>A tire consisting of a rubber ring around the rim of an automobile wheel</t>
+  </si>
+  <si>
+    <t>public/images/parts/part7.jpg</t>
+  </si>
+  <si>
+    <t>A wheel rim</t>
+  </si>
+  <si>
+    <t>public/images/parts/part8.jpg</t>
+  </si>
+  <si>
+    <t>A steering wheel</t>
+  </si>
+  <si>
+    <t>public/images/parts/part9.jpg</t>
+  </si>
+  <si>
+    <t>A car battery</t>
+  </si>
+  <si>
+    <t>public/images/parts/part10.jpg</t>
+  </si>
+  <si>
+    <t>Windshield wipers</t>
+  </si>
+  <si>
+    <t>A motor-driven device for keeping a windshield clear of rain, typically one with a rubber blade on an arm that moves in an arc.</t>
+  </si>
+  <si>
+    <t>public/images/parts/part11.jpg</t>
+  </si>
+  <si>
+    <t>Protective glass</t>
+  </si>
+  <si>
+    <t>public/images/parts/part12.jpg</t>
+  </si>
+  <si>
     <t>listId</t>
   </si>
   <si>
@@ -1060,77 +1100,35 @@
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>public/images/parts/part7.jpg</t>
-  </si>
-  <si>
-    <t>An engine specified for a Dodge made vehicle</t>
-  </si>
-  <si>
-    <t>An engine specified for a non-Dodge made vehicle</t>
-  </si>
-  <si>
-    <t>A tire consisting of a rubber ring around the rim of an automobile wheel</t>
-  </si>
-  <si>
-    <t>Car Tire</t>
-  </si>
-  <si>
-    <t>A wheel rim</t>
-  </si>
-  <si>
-    <t>public/images/parts/part8.jpg</t>
-  </si>
-  <si>
-    <t>public/images/parts/part9.jpg</t>
-  </si>
-  <si>
-    <t>A steering wheel</t>
-  </si>
-  <si>
-    <t>A car battery</t>
-  </si>
-  <si>
-    <t>public/images/parts/part10.jpg</t>
-  </si>
-  <si>
-    <t>Windshield wipers</t>
-  </si>
-  <si>
-    <t>public/images/parts/part11.jpg</t>
-  </si>
-  <si>
-    <t>public/images/parts/part12.jpg</t>
-  </si>
-  <si>
-    <t>A motor-driven device for keeping a windshield clear of rain, typically one with a rubber blade on an arm that moves in an arc.</t>
-  </si>
-  <si>
-    <t>Protective glass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF404040"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1147,7 +1145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1177,40 +1175,118 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1219,85 +1295,25 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff404040"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1489,17 +1505,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1518,7 +1534,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1527,10 +1543,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1548,7 +1564,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1574,7 +1590,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1600,7 +1616,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1626,7 +1642,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1652,7 +1668,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1678,7 +1694,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1704,7 +1720,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1730,7 +1746,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1756,7 +1772,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1769,32 +1785,26 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1813,7 +1823,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1839,7 +1849,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1865,7 +1875,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1891,7 +1901,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1917,7 +1927,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1943,7 +1953,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1969,7 +1979,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1995,7 +2005,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2021,7 +2031,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2047,7 +2057,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2060,15 +2070,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2082,7 +2086,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2101,7 +2105,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2110,10 +2114,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2131,7 +2135,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2157,7 +2161,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2183,7 +2187,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2209,7 +2213,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2235,7 +2239,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2261,7 +2265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2287,7 +2291,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2313,7 +2317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2339,7 +2343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2352,838 +2356,831 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV21"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.67188" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="1" customWidth="1"/>
-    <col min="13" max="256" width="8.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1719" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3516" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8516" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1719" style="1" customWidth="1"/>
+    <col min="13" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L2" s="3">
         <v>20057</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L3" s="3">
         <v>12255</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L4" s="3">
         <v>12237</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L5" s="3">
         <v>33185</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L6" s="3">
         <v>20022</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L7" s="3">
         <v>33467</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L8" s="3">
         <v>75049</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L9" s="3">
         <v>36622</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L10" s="3">
         <v>58122</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L11" s="3">
         <v>53779</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L12" s="3">
         <v>85715</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L13" s="3">
         <v>38308</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L14" s="3">
         <v>45271</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L15" s="3">
         <v>53710</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L16" s="3">
         <v>17622</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L17" s="3">
         <v>25775</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L18" s="3">
         <v>23514</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="15" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L19" s="3">
         <v>94064</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="15" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L20" s="3">
         <v>92878</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="15" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L21" s="3">
@@ -3192,7 +3189,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3200,54 +3197,55 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV7"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="8.88671875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="21" customWidth="1"/>
+    <col min="2" max="256" width="8.85156" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>320</v>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="2">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3255,115 +3253,115 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV19"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="17" customWidth="1"/>
-    <col min="2" max="256" width="8.88671875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="9.67188" style="22" customWidth="1"/>
+    <col min="2" max="256" width="8.85156" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>338</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="s" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="s" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="s" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="s" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="s" s="2">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3371,855 +3369,855 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV56"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="5" style="18" customWidth="1"/>
-    <col min="5" max="256" width="8.88671875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="23" customWidth="1"/>
+    <col min="2" max="2" width="11.8516" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="23" customWidth="1"/>
+    <col min="4" max="4" width="5" style="23" customWidth="1"/>
+    <col min="5" max="256" width="8.85156" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>321</v>
+      <c r="B2" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>337</v>
       </c>
       <c r="D2" s="3">
         <v>2008</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>321</v>
+      <c r="B3" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>337</v>
       </c>
       <c r="D3" s="3">
         <v>2009</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>321</v>
+      <c r="B4" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>337</v>
       </c>
       <c r="D4" s="3">
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>322</v>
+      <c r="B5" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>338</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D25" si="0">D2</f>
+        <f>D2</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>322</v>
+      <c r="B6" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>338</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>322</v>
+      <c r="B7" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>338</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
+        <f>D4</f>
         <v>2010</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>323</v>
+      <c r="B8" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>339</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
+        <f>D5</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>323</v>
+      <c r="B9" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>339</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
+        <f>D6</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>323</v>
+      <c r="B10" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>339</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
+        <f>D7</f>
         <v>2010</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>324</v>
+      <c r="B11" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>340</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
+        <f>D8</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>324</v>
+      <c r="B12" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>340</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
+        <f>D9</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>324</v>
+      <c r="B13" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>340</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
+        <f>D10</f>
         <v>2010</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>326</v>
+      <c r="B14" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>342</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="0"/>
+        <f>D11</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>326</v>
+      <c r="B15" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>342</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="0"/>
+        <f>D12</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>326</v>
+      <c r="B16" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>342</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="0"/>
+        <f>D13</f>
         <v>2010</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>325</v>
+      <c r="B17" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>341</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="0"/>
+        <f>D14</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>325</v>
+      <c r="B18" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>341</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="0"/>
+        <f>D15</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="15" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>325</v>
+      <c r="B19" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>341</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="0"/>
+        <f>D16</f>
         <v>2010</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="15" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>327</v>
+      <c r="B20" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>343</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="0"/>
+        <f>D17</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="15" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>327</v>
+      <c r="B21" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>343</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="0"/>
+        <f>D18</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" ht="15" customHeight="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>327</v>
+      <c r="B22" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>343</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="0"/>
+        <f>D19</f>
         <v>2010</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" ht="15" customHeight="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>328</v>
+      <c r="B23" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>344</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="0"/>
+        <f>D20</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" ht="15" customHeight="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>328</v>
+      <c r="B24" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>344</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="0"/>
+        <f>D21</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="15" customHeight="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>328</v>
+      <c r="B25" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>344</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="0"/>
+        <f>D22</f>
         <v>2010</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="B26" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="D26" s="3">
         <v>2011</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" ht="15" customHeight="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>329</v>
+      <c r="B27" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>345</v>
       </c>
       <c r="D27" s="3">
         <f>D23</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" ht="15" customHeight="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>329</v>
+      <c r="B28" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>345</v>
       </c>
       <c r="D28" s="3">
         <f>D24</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" ht="15" customHeight="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>329</v>
+      <c r="B29" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>345</v>
       </c>
       <c r="D29" s="3">
         <f>D25</f>
         <v>2010</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>330</v>
+      <c r="B30" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>346</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" ref="D30:D38" si="1">D27</f>
+        <f>D27</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="15" customHeight="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>330</v>
+      <c r="B31" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>346</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="1"/>
+        <f>D28</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="15" customHeight="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>330</v>
+      <c r="B32" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>346</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="1"/>
+        <f>D29</f>
         <v>2010</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="15" customHeight="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>331</v>
+      <c r="B33" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>347</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="1"/>
+        <f>D30</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="15" customHeight="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>331</v>
+      <c r="B34" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>347</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="1"/>
+        <f>D31</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="15" customHeight="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>331</v>
+      <c r="B35" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>347</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="1"/>
+        <f>D32</f>
         <v>2010</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="15" customHeight="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>332</v>
+      <c r="B36" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>348</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="1"/>
+        <f>D33</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="15" customHeight="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>332</v>
+      <c r="B37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>348</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="1"/>
+        <f>D34</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="15" customHeight="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>332</v>
+      <c r="B38" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>348</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="1"/>
+        <f>D35</f>
         <v>2010</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" ht="15" customHeight="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" t="s" s="2">
         <v>333</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>349</v>
       </c>
       <c r="D39" s="3">
         <v>2011</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="15" customHeight="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" t="s" s="2">
         <v>333</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>349</v>
       </c>
       <c r="D40" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="15" customHeight="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" t="s" s="2">
         <v>333</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>349</v>
       </c>
       <c r="D41" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="15" customHeight="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>334</v>
+      <c r="B42" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>350</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" ref="D42:D56" si="2">D39</f>
+        <f>D39</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" ht="15" customHeight="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>334</v>
+      <c r="B43" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>350</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="2"/>
+        <f>D40</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="15" customHeight="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>334</v>
+      <c r="B44" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>350</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="2"/>
+        <f>D41</f>
         <v>2013</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="15" customHeight="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>335</v>
+      <c r="B45" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>351</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="2"/>
+        <f>D42</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="15" customHeight="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>335</v>
+      <c r="B46" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>351</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="2"/>
+        <f>D43</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" ht="15" customHeight="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>335</v>
+      <c r="B47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>351</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="2"/>
+        <f>D44</f>
         <v>2013</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="15" customHeight="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>336</v>
+      <c r="B48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>352</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="2"/>
+        <f>D45</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="15" customHeight="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>336</v>
+      <c r="B49" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>352</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="2"/>
+        <f>D46</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="15" customHeight="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>336</v>
+      <c r="B50" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>352</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="2"/>
+        <f>D47</f>
         <v>2013</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="15" customHeight="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>337</v>
+      <c r="B51" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>353</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" si="2"/>
+        <f>D48</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="15" customHeight="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>337</v>
+      <c r="B52" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>353</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="2"/>
+        <f>D49</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="15" customHeight="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>337</v>
+      <c r="B53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>353</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" si="2"/>
+        <f>D50</f>
         <v>2013</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="15" customHeight="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>338</v>
+      <c r="B54" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>354</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" si="2"/>
+        <f>D51</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="15" customHeight="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>338</v>
+      <c r="B55" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>354</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="2"/>
+        <f>D52</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="15" customHeight="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>338</v>
+      <c r="B56" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>354</v>
       </c>
       <c r="D56" s="3">
-        <f t="shared" si="2"/>
+        <f>D53</f>
         <v>2013</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4227,27 +4225,27 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV266"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B266"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" style="19" customWidth="1"/>
-    <col min="3" max="256" width="8.88671875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="5.85156" style="24" customWidth="1"/>
+    <col min="2" max="2" width="8.17188" style="24" customWidth="1"/>
+    <col min="3" max="256" width="8.85156" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4255,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4263,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4271,7 +4269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -4279,7 +4277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -4287,7 +4285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -4295,7 +4293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -4303,7 +4301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -4311,7 +4309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -4319,7 +4317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -4327,7 +4325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -4335,7 +4333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -4343,7 +4341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -4351,7 +4349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -4359,7 +4357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -4367,7 +4365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -4375,7 +4373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -4383,7 +4381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="15" customHeight="1">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -4391,7 +4389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="15" customHeight="1">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -4399,7 +4397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="15" customHeight="1">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -4407,7 +4405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" ht="15" customHeight="1">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -4415,7 +4413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" ht="15" customHeight="1">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -4423,7 +4421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" ht="15" customHeight="1">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -4431,7 +4429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="15" customHeight="1">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -4439,7 +4437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="15" customHeight="1">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -4447,7 +4445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" ht="15" customHeight="1">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -4455,7 +4453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" ht="15" customHeight="1">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -4463,7 +4461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" ht="15" customHeight="1">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -4471,7 +4469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -4479,7 +4477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="15" customHeight="1">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -4487,7 +4485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="15" customHeight="1">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -4495,7 +4493,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="15" customHeight="1">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -4503,7 +4501,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="15" customHeight="1">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -4511,7 +4509,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="15" customHeight="1">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -4519,7 +4517,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="15" customHeight="1">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -4527,7 +4525,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="15" customHeight="1">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -4535,7 +4533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="15" customHeight="1">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -4543,7 +4541,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" ht="15" customHeight="1">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -4551,7 +4549,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="15" customHeight="1">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -4559,7 +4557,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="15" customHeight="1">
       <c r="A41" s="3">
         <v>1</v>
       </c>
@@ -4567,7 +4565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="15" customHeight="1">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -4575,7 +4573,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" ht="15" customHeight="1">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -4583,7 +4581,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="15" customHeight="1">
       <c r="A44" s="3">
         <v>1</v>
       </c>
@@ -4591,7 +4589,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="15" customHeight="1">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -4599,7 +4597,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="15" customHeight="1">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -4607,7 +4605,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" ht="15" customHeight="1">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -4615,7 +4613,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="15" customHeight="1">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -4623,7 +4621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="15" customHeight="1">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -4631,7 +4629,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="15" customHeight="1">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -4639,7 +4637,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="15" customHeight="1">
       <c r="A51" s="3">
         <v>1</v>
       </c>
@@ -4647,7 +4645,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="15" customHeight="1">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -4655,7 +4653,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="15" customHeight="1">
       <c r="A53" s="3">
         <v>1</v>
       </c>
@@ -4663,7 +4661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="15" customHeight="1">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -4671,7 +4669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="15" customHeight="1">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -4679,7 +4677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="15" customHeight="1">
       <c r="A56" s="3">
         <v>2</v>
       </c>
@@ -4687,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="15" customHeight="1">
       <c r="A57" s="3">
         <v>2</v>
       </c>
@@ -4695,7 +4693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" ht="15" customHeight="1">
       <c r="A58" s="3">
         <v>2</v>
       </c>
@@ -4703,7 +4701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" ht="15" customHeight="1">
       <c r="A59" s="3">
         <v>2</v>
       </c>
@@ -4711,7 +4709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="15" customHeight="1">
       <c r="A60" s="3">
         <v>2</v>
       </c>
@@ -4719,7 +4717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" ht="15" customHeight="1">
       <c r="A61" s="3">
         <v>2</v>
       </c>
@@ -4727,7 +4725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="15" customHeight="1">
       <c r="A62" s="3">
         <v>2</v>
       </c>
@@ -4735,7 +4733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="15" customHeight="1">
       <c r="A63" s="3">
         <v>2</v>
       </c>
@@ -4743,7 +4741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="15" customHeight="1">
       <c r="A64" s="3">
         <v>2</v>
       </c>
@@ -4751,7 +4749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" ht="15" customHeight="1">
       <c r="A65" s="3">
         <v>2</v>
       </c>
@@ -4759,7 +4757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" ht="15" customHeight="1">
       <c r="A66" s="3">
         <v>2</v>
       </c>
@@ -4767,7 +4765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" ht="15" customHeight="1">
       <c r="A67" s="3">
         <v>2</v>
       </c>
@@ -4775,7 +4773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" ht="15" customHeight="1">
       <c r="A68" s="3">
         <v>2</v>
       </c>
@@ -4783,7 +4781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" ht="15" customHeight="1">
       <c r="A69" s="3">
         <v>2</v>
       </c>
@@ -4791,7 +4789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" ht="15" customHeight="1">
       <c r="A70" s="3">
         <v>2</v>
       </c>
@@ -4799,7 +4797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" ht="15" customHeight="1">
       <c r="A71" s="3">
         <v>2</v>
       </c>
@@ -4807,7 +4805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="15" customHeight="1">
       <c r="A72" s="3">
         <v>2</v>
       </c>
@@ -4815,7 +4813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="15" customHeight="1">
       <c r="A73" s="3">
         <v>2</v>
       </c>
@@ -4823,7 +4821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" ht="15" customHeight="1">
       <c r="A74" s="3">
         <v>2</v>
       </c>
@@ -4831,7 +4829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" ht="15" customHeight="1">
       <c r="A75" s="3">
         <v>2</v>
       </c>
@@ -4839,7 +4837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" ht="15" customHeight="1">
       <c r="A76" s="3">
         <v>2</v>
       </c>
@@ -4847,7 +4845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="15" customHeight="1">
       <c r="A77" s="3">
         <v>2</v>
       </c>
@@ -4855,7 +4853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" ht="15" customHeight="1">
       <c r="A78" s="3">
         <v>2</v>
       </c>
@@ -4863,7 +4861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" ht="15" customHeight="1">
       <c r="A79" s="3">
         <v>2</v>
       </c>
@@ -4871,7 +4869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" ht="15" customHeight="1">
       <c r="A80" s="3">
         <v>2</v>
       </c>
@@ -4879,7 +4877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" ht="15" customHeight="1">
       <c r="A81" s="3">
         <v>2</v>
       </c>
@@ -4887,7 +4885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" ht="15" customHeight="1">
       <c r="A82" s="3">
         <v>2</v>
       </c>
@@ -4895,7 +4893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" ht="15" customHeight="1">
       <c r="A83" s="3">
         <v>2</v>
       </c>
@@ -4903,7 +4901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" ht="15" customHeight="1">
       <c r="A84" s="3">
         <v>2</v>
       </c>
@@ -4911,7 +4909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" ht="15" customHeight="1">
       <c r="A85" s="3">
         <v>2</v>
       </c>
@@ -4919,7 +4917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" ht="15" customHeight="1">
       <c r="A86" s="3">
         <v>2</v>
       </c>
@@ -4927,7 +4925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" ht="15" customHeight="1">
       <c r="A87" s="3">
         <v>2</v>
       </c>
@@ -4935,7 +4933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" ht="15" customHeight="1">
       <c r="A88" s="3">
         <v>2</v>
       </c>
@@ -4943,7 +4941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" ht="15" customHeight="1">
       <c r="A89" s="3">
         <v>2</v>
       </c>
@@ -4951,7 +4949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" ht="15" customHeight="1">
       <c r="A90" s="3">
         <v>2</v>
       </c>
@@ -4959,7 +4957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" ht="15" customHeight="1">
       <c r="A91" s="3">
         <v>2</v>
       </c>
@@ -4967,7 +4965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" ht="15" customHeight="1">
       <c r="A92" s="3">
         <v>2</v>
       </c>
@@ -4975,7 +4973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" ht="15" customHeight="1">
       <c r="A93" s="3">
         <v>2</v>
       </c>
@@ -4983,7 +4981,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" ht="15" customHeight="1">
       <c r="A94" s="3">
         <v>2</v>
       </c>
@@ -4991,7 +4989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" ht="15" customHeight="1">
       <c r="A95" s="3">
         <v>2</v>
       </c>
@@ -4999,7 +4997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" ht="15" customHeight="1">
       <c r="A96" s="3">
         <v>2</v>
       </c>
@@ -5007,7 +5005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" ht="15" customHeight="1">
       <c r="A97" s="3">
         <v>2</v>
       </c>
@@ -5015,7 +5013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" ht="15" customHeight="1">
       <c r="A98" s="3">
         <v>2</v>
       </c>
@@ -5023,7 +5021,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" ht="15" customHeight="1">
       <c r="A99" s="3">
         <v>2</v>
       </c>
@@ -5031,7 +5029,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" ht="15" customHeight="1">
       <c r="A100" s="3">
         <v>2</v>
       </c>
@@ -5039,7 +5037,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" ht="15" customHeight="1">
       <c r="A101" s="3">
         <v>2</v>
       </c>
@@ -5047,7 +5045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" ht="15" customHeight="1">
       <c r="A102" s="3">
         <v>2</v>
       </c>
@@ -5055,7 +5053,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" ht="15" customHeight="1">
       <c r="A103" s="3">
         <v>2</v>
       </c>
@@ -5063,7 +5061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" ht="15" customHeight="1">
       <c r="A104" s="3">
         <v>2</v>
       </c>
@@ -5071,7 +5069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" ht="15" customHeight="1">
       <c r="A105" s="3">
         <v>2</v>
       </c>
@@ -5079,7 +5077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" ht="15" customHeight="1">
       <c r="A106" s="3">
         <v>2</v>
       </c>
@@ -5087,7 +5085,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" ht="15" customHeight="1">
       <c r="A107" s="3">
         <v>2</v>
       </c>
@@ -5095,7 +5093,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" ht="15" customHeight="1">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -5103,7 +5101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" ht="15" customHeight="1">
       <c r="A109" s="3">
         <v>2</v>
       </c>
@@ -5111,7 +5109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" ht="15" customHeight="1">
       <c r="A110" s="3">
         <v>3</v>
       </c>
@@ -5119,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" ht="15" customHeight="1">
       <c r="A111" s="3">
         <v>3</v>
       </c>
@@ -5127,7 +5125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" ht="15" customHeight="1">
       <c r="A112" s="3">
         <v>3</v>
       </c>
@@ -5135,7 +5133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" ht="15" customHeight="1">
       <c r="A113" s="3">
         <v>3</v>
       </c>
@@ -5143,7 +5141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" ht="15" customHeight="1">
       <c r="A114" s="3">
         <v>3</v>
       </c>
@@ -5151,7 +5149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" ht="15" customHeight="1">
       <c r="A115" s="3">
         <v>3</v>
       </c>
@@ -5159,7 +5157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" ht="15" customHeight="1">
       <c r="A116" s="3">
         <v>3</v>
       </c>
@@ -5167,7 +5165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" ht="15" customHeight="1">
       <c r="A117" s="3">
         <v>3</v>
       </c>
@@ -5175,7 +5173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" ht="15" customHeight="1">
       <c r="A118" s="3">
         <v>3</v>
       </c>
@@ -5183,7 +5181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" ht="15" customHeight="1">
       <c r="A119" s="3">
         <v>3</v>
       </c>
@@ -5191,7 +5189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" ht="15" customHeight="1">
       <c r="A120" s="3">
         <v>3</v>
       </c>
@@ -5199,7 +5197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" ht="15" customHeight="1">
       <c r="A121" s="3">
         <v>3</v>
       </c>
@@ -5207,7 +5205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" ht="15" customHeight="1">
       <c r="A122" s="3">
         <v>3</v>
       </c>
@@ -5215,7 +5213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" ht="15" customHeight="1">
       <c r="A123" s="3">
         <v>3</v>
       </c>
@@ -5223,7 +5221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" ht="15" customHeight="1">
       <c r="A124" s="3">
         <v>3</v>
       </c>
@@ -5231,7 +5229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" ht="15" customHeight="1">
       <c r="A125" s="3">
         <v>3</v>
       </c>
@@ -5239,7 +5237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" ht="15" customHeight="1">
       <c r="A126" s="3">
         <v>3</v>
       </c>
@@ -5247,7 +5245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" ht="15" customHeight="1">
       <c r="A127" s="3">
         <v>3</v>
       </c>
@@ -5255,7 +5253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" ht="15" customHeight="1">
       <c r="A128" s="3">
         <v>3</v>
       </c>
@@ -5263,7 +5261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" ht="15" customHeight="1">
       <c r="A129" s="3">
         <v>3</v>
       </c>
@@ -5271,7 +5269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" ht="15" customHeight="1">
       <c r="A130" s="3">
         <v>3</v>
       </c>
@@ -5279,7 +5277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" ht="15" customHeight="1">
       <c r="A131" s="3">
         <v>3</v>
       </c>
@@ -5287,7 +5285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" ht="15" customHeight="1">
       <c r="A132" s="3">
         <v>3</v>
       </c>
@@ -5295,7 +5293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" ht="15" customHeight="1">
       <c r="A133" s="3">
         <v>3</v>
       </c>
@@ -5303,7 +5301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" ht="15" customHeight="1">
       <c r="A134" s="3">
         <v>3</v>
       </c>
@@ -5311,7 +5309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" ht="15" customHeight="1">
       <c r="A135" s="3">
         <v>3</v>
       </c>
@@ -5319,7 +5317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" ht="15" customHeight="1">
       <c r="A136" s="3">
         <v>3</v>
       </c>
@@ -5327,7 +5325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" ht="15" customHeight="1">
       <c r="A137" s="3">
         <v>3</v>
       </c>
@@ -5335,7 +5333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" ht="15" customHeight="1">
       <c r="A138" s="3">
         <v>3</v>
       </c>
@@ -5343,7 +5341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" ht="15" customHeight="1">
       <c r="A139" s="3">
         <v>3</v>
       </c>
@@ -5351,7 +5349,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" ht="15" customHeight="1">
       <c r="A140" s="3">
         <v>3</v>
       </c>
@@ -5359,7 +5357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" ht="15" customHeight="1">
       <c r="A141" s="3">
         <v>3</v>
       </c>
@@ -5367,7 +5365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" ht="15" customHeight="1">
       <c r="A142" s="3">
         <v>3</v>
       </c>
@@ -5375,7 +5373,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" ht="15" customHeight="1">
       <c r="A143" s="3">
         <v>3</v>
       </c>
@@ -5383,7 +5381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" ht="15" customHeight="1">
       <c r="A144" s="3">
         <v>3</v>
       </c>
@@ -5391,7 +5389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" ht="15" customHeight="1">
       <c r="A145" s="3">
         <v>3</v>
       </c>
@@ -5399,7 +5397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" ht="15" customHeight="1">
       <c r="A146" s="3">
         <v>3</v>
       </c>
@@ -5407,7 +5405,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" ht="15" customHeight="1">
       <c r="A147" s="3">
         <v>3</v>
       </c>
@@ -5415,7 +5413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" ht="15" customHeight="1">
       <c r="A148" s="3">
         <v>3</v>
       </c>
@@ -5423,7 +5421,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" ht="15" customHeight="1">
       <c r="A149" s="3">
         <v>3</v>
       </c>
@@ -5431,7 +5429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" ht="15" customHeight="1">
       <c r="A150" s="3">
         <v>3</v>
       </c>
@@ -5439,7 +5437,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" ht="15" customHeight="1">
       <c r="A151" s="3">
         <v>3</v>
       </c>
@@ -5447,7 +5445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" ht="15" customHeight="1">
       <c r="A152" s="3">
         <v>3</v>
       </c>
@@ -5455,7 +5453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" ht="15" customHeight="1">
       <c r="A153" s="3">
         <v>3</v>
       </c>
@@ -5463,7 +5461,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" ht="15" customHeight="1">
       <c r="A154" s="3">
         <v>3</v>
       </c>
@@ -5471,7 +5469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" ht="15" customHeight="1">
       <c r="A155" s="3">
         <v>3</v>
       </c>
@@ -5479,7 +5477,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" ht="15" customHeight="1">
       <c r="A156" s="3">
         <v>3</v>
       </c>
@@ -5487,7 +5485,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" ht="15" customHeight="1">
       <c r="A157" s="3">
         <v>3</v>
       </c>
@@ -5495,7 +5493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" ht="15" customHeight="1">
       <c r="A158" s="3">
         <v>3</v>
       </c>
@@ -5503,7 +5501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" ht="15" customHeight="1">
       <c r="A159" s="3">
         <v>3</v>
       </c>
@@ -5511,7 +5509,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" ht="15" customHeight="1">
       <c r="A160" s="3">
         <v>3</v>
       </c>
@@ -5519,7 +5517,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" ht="15" customHeight="1">
       <c r="A161" s="3">
         <v>3</v>
       </c>
@@ -5527,7 +5525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" ht="15" customHeight="1">
       <c r="A162" s="3">
         <v>3</v>
       </c>
@@ -5535,7 +5533,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" ht="15" customHeight="1">
       <c r="A163" s="3">
         <v>3</v>
       </c>
@@ -5543,7 +5541,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" ht="15" customHeight="1">
       <c r="A164" s="3">
         <v>4</v>
       </c>
@@ -5551,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" ht="15" customHeight="1">
       <c r="A165" s="3">
         <v>4</v>
       </c>
@@ -5559,7 +5557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" ht="15" customHeight="1">
       <c r="A166" s="3">
         <v>4</v>
       </c>
@@ -5567,7 +5565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" ht="15" customHeight="1">
       <c r="A167" s="3">
         <v>4</v>
       </c>
@@ -5575,7 +5573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" ht="15" customHeight="1">
       <c r="A168" s="3">
         <v>4</v>
       </c>
@@ -5583,7 +5581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" ht="15" customHeight="1">
       <c r="A169" s="3">
         <v>4</v>
       </c>
@@ -5591,7 +5589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" ht="15" customHeight="1">
       <c r="A170" s="3">
         <v>4</v>
       </c>
@@ -5599,7 +5597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" ht="15" customHeight="1">
       <c r="A171" s="3">
         <v>4</v>
       </c>
@@ -5607,7 +5605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" ht="15" customHeight="1">
       <c r="A172" s="3">
         <v>4</v>
       </c>
@@ -5615,7 +5613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" ht="15" customHeight="1">
       <c r="A173" s="3">
         <v>4</v>
       </c>
@@ -5623,7 +5621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" ht="15" customHeight="1">
       <c r="A174" s="3">
         <v>4</v>
       </c>
@@ -5631,7 +5629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" ht="15" customHeight="1">
       <c r="A175" s="3">
         <v>4</v>
       </c>
@@ -5639,7 +5637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" ht="15" customHeight="1">
       <c r="A176" s="3">
         <v>4</v>
       </c>
@@ -5647,7 +5645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" ht="15" customHeight="1">
       <c r="A177" s="3">
         <v>4</v>
       </c>
@@ -5655,7 +5653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" ht="15" customHeight="1">
       <c r="A178" s="3">
         <v>4</v>
       </c>
@@ -5663,7 +5661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" ht="15" customHeight="1">
       <c r="A179" s="3">
         <v>4</v>
       </c>
@@ -5671,7 +5669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" ht="15" customHeight="1">
       <c r="A180" s="3">
         <v>4</v>
       </c>
@@ -5679,7 +5677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" ht="15" customHeight="1">
       <c r="A181" s="3">
         <v>4</v>
       </c>
@@ -5687,7 +5685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" ht="15" customHeight="1">
       <c r="A182" s="3">
         <v>4</v>
       </c>
@@ -5695,7 +5693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" ht="15" customHeight="1">
       <c r="A183" s="3">
         <v>4</v>
       </c>
@@ -5703,7 +5701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" ht="15" customHeight="1">
       <c r="A184" s="3">
         <v>4</v>
       </c>
@@ -5711,7 +5709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" ht="15" customHeight="1">
       <c r="A185" s="3">
         <v>4</v>
       </c>
@@ -5719,7 +5717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" ht="15" customHeight="1">
       <c r="A186" s="3">
         <v>4</v>
       </c>
@@ -5727,7 +5725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" ht="15" customHeight="1">
       <c r="A187" s="3">
         <v>4</v>
       </c>
@@ -5735,7 +5733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" ht="15" customHeight="1">
       <c r="A188" s="3">
         <v>4</v>
       </c>
@@ -5743,7 +5741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" ht="15" customHeight="1">
       <c r="A189" s="3">
         <v>4</v>
       </c>
@@ -5751,7 +5749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" ht="15" customHeight="1">
       <c r="A190" s="3">
         <v>4</v>
       </c>
@@ -5759,7 +5757,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" ht="15" customHeight="1">
       <c r="A191" s="3">
         <v>4</v>
       </c>
@@ -5767,7 +5765,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" ht="15" customHeight="1">
       <c r="A192" s="3">
         <v>4</v>
       </c>
@@ -5775,7 +5773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" ht="15" customHeight="1">
       <c r="A193" s="3">
         <v>4</v>
       </c>
@@ -5783,7 +5781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" ht="15" customHeight="1">
       <c r="A194" s="3">
         <v>4</v>
       </c>
@@ -5791,7 +5789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" ht="15" customHeight="1">
       <c r="A195" s="3">
         <v>4</v>
       </c>
@@ -5799,7 +5797,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" ht="15" customHeight="1">
       <c r="A196" s="3">
         <v>4</v>
       </c>
@@ -5807,7 +5805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" ht="15" customHeight="1">
       <c r="A197" s="3">
         <v>4</v>
       </c>
@@ -5815,7 +5813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" ht="15" customHeight="1">
       <c r="A198" s="3">
         <v>4</v>
       </c>
@@ -5823,7 +5821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" ht="15" customHeight="1">
       <c r="A199" s="3">
         <v>4</v>
       </c>
@@ -5831,7 +5829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" ht="15" customHeight="1">
       <c r="A200" s="3">
         <v>4</v>
       </c>
@@ -5839,7 +5837,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" ht="15" customHeight="1">
       <c r="A201" s="3">
         <v>4</v>
       </c>
@@ -5847,7 +5845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" ht="15" customHeight="1">
       <c r="A202" s="3">
         <v>4</v>
       </c>
@@ -5855,7 +5853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" ht="15" customHeight="1">
       <c r="A203" s="3">
         <v>4</v>
       </c>
@@ -5863,7 +5861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" ht="15" customHeight="1">
       <c r="A204" s="3">
         <v>4</v>
       </c>
@@ -5871,7 +5869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" ht="15" customHeight="1">
       <c r="A205" s="3">
         <v>4</v>
       </c>
@@ -5879,7 +5877,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" ht="15" customHeight="1">
       <c r="A206" s="3">
         <v>4</v>
       </c>
@@ -5887,7 +5885,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" ht="15" customHeight="1">
       <c r="A207" s="3">
         <v>4</v>
       </c>
@@ -5895,7 +5893,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" ht="15" customHeight="1">
       <c r="A208" s="3">
         <v>4</v>
       </c>
@@ -5903,7 +5901,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" ht="15" customHeight="1">
       <c r="A209" s="3">
         <v>4</v>
       </c>
@@ -5911,7 +5909,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" ht="15" customHeight="1">
       <c r="A210" s="3">
         <v>4</v>
       </c>
@@ -5919,7 +5917,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" ht="15" customHeight="1">
       <c r="A211" s="3">
         <v>4</v>
       </c>
@@ -5927,7 +5925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" ht="15" customHeight="1">
       <c r="A212" s="3">
         <v>4</v>
       </c>
@@ -5935,7 +5933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" ht="15" customHeight="1">
       <c r="A213" s="3">
         <v>4</v>
       </c>
@@ -5943,7 +5941,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" ht="15" customHeight="1">
       <c r="A214" s="3">
         <v>4</v>
       </c>
@@ -5951,7 +5949,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" ht="15" customHeight="1">
       <c r="A215" s="3">
         <v>4</v>
       </c>
@@ -5959,7 +5957,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" ht="15" customHeight="1">
       <c r="A216" s="3">
         <v>4</v>
       </c>
@@ -5967,7 +5965,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" ht="15" customHeight="1">
       <c r="A217" s="3">
         <v>4</v>
       </c>
@@ -5975,7 +5973,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" ht="15" customHeight="1">
       <c r="A218" s="3">
         <v>5</v>
       </c>
@@ -5983,7 +5981,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" ht="15" customHeight="1">
       <c r="A219" s="3">
         <v>5</v>
       </c>
@@ -5991,7 +5989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" ht="15" customHeight="1">
       <c r="A220" s="3">
         <v>5</v>
       </c>
@@ -5999,7 +5997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" ht="15" customHeight="1">
       <c r="A221" s="3">
         <v>5</v>
       </c>
@@ -6007,7 +6005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" ht="15" customHeight="1">
       <c r="A222" s="3">
         <v>5</v>
       </c>
@@ -6015,7 +6013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" ht="15" customHeight="1">
       <c r="A223" s="3">
         <v>5</v>
       </c>
@@ -6023,7 +6021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" ht="15" customHeight="1">
       <c r="A224" s="3">
         <v>5</v>
       </c>
@@ -6031,7 +6029,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" ht="15" customHeight="1">
       <c r="A225" s="3">
         <v>5</v>
       </c>
@@ -6039,7 +6037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" ht="15" customHeight="1">
       <c r="A226" s="3">
         <v>5</v>
       </c>
@@ -6047,7 +6045,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" ht="15" customHeight="1">
       <c r="A227" s="3">
         <v>5</v>
       </c>
@@ -6055,7 +6053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" ht="15" customHeight="1">
       <c r="A228" s="3">
         <v>5</v>
       </c>
@@ -6063,7 +6061,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" ht="15" customHeight="1">
       <c r="A229" s="3">
         <v>5</v>
       </c>
@@ -6071,7 +6069,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" ht="15" customHeight="1">
       <c r="A230" s="3">
         <v>5</v>
       </c>
@@ -6079,7 +6077,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" ht="15" customHeight="1">
       <c r="A231" s="3">
         <v>5</v>
       </c>
@@ -6087,7 +6085,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" ht="15" customHeight="1">
       <c r="A232" s="3">
         <v>5</v>
       </c>
@@ -6095,7 +6093,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" ht="15" customHeight="1">
       <c r="A233" s="3">
         <v>5</v>
       </c>
@@ -6103,7 +6101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" ht="15" customHeight="1">
       <c r="A234" s="3">
         <v>5</v>
       </c>
@@ -6111,7 +6109,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" ht="15" customHeight="1">
       <c r="A235" s="3">
         <v>5</v>
       </c>
@@ -6119,7 +6117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" ht="15" customHeight="1">
       <c r="A236" s="3">
         <v>5</v>
       </c>
@@ -6127,7 +6125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" ht="15" customHeight="1">
       <c r="A237" s="3">
         <v>5</v>
       </c>
@@ -6135,7 +6133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" ht="15" customHeight="1">
       <c r="A238" s="3">
         <v>5</v>
       </c>
@@ -6143,7 +6141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" ht="15" customHeight="1">
       <c r="A239" s="3">
         <v>5</v>
       </c>
@@ -6151,7 +6149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" ht="15" customHeight="1">
       <c r="A240" s="3">
         <v>5</v>
       </c>
@@ -6159,7 +6157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" ht="15" customHeight="1">
       <c r="A241" s="3">
         <v>5</v>
       </c>
@@ -6167,7 +6165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" ht="15" customHeight="1">
       <c r="A242" s="3">
         <v>6</v>
       </c>
@@ -6175,7 +6173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" ht="15" customHeight="1">
       <c r="A243" s="3">
         <v>6</v>
       </c>
@@ -6183,7 +6181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" ht="15" customHeight="1">
       <c r="A244" s="3">
         <v>6</v>
       </c>
@@ -6191,7 +6189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" ht="15" customHeight="1">
       <c r="A245" s="3">
         <v>6</v>
       </c>
@@ -6199,7 +6197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" ht="15" customHeight="1">
       <c r="A246" s="3">
         <v>6</v>
       </c>
@@ -6207,7 +6205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" ht="15" customHeight="1">
       <c r="A247" s="3">
         <v>6</v>
       </c>
@@ -6215,7 +6213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" ht="15" customHeight="1">
       <c r="A248" s="3">
         <v>6</v>
       </c>
@@ -6223,7 +6221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" ht="15" customHeight="1">
       <c r="A249" s="3">
         <v>6</v>
       </c>
@@ -6231,7 +6229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" ht="15" customHeight="1">
       <c r="A250" s="3">
         <v>6</v>
       </c>
@@ -6239,7 +6237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" ht="15" customHeight="1">
       <c r="A251" s="3">
         <v>6</v>
       </c>
@@ -6247,7 +6245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" ht="15" customHeight="1">
       <c r="A252" s="3">
         <v>6</v>
       </c>
@@ -6255,7 +6253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" ht="15" customHeight="1">
       <c r="A253" s="3">
         <v>6</v>
       </c>
@@ -6263,7 +6261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" ht="15" customHeight="1">
       <c r="A254" s="3">
         <v>6</v>
       </c>
@@ -6271,7 +6269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" ht="15" customHeight="1">
       <c r="A255" s="3">
         <v>6</v>
       </c>
@@ -6279,7 +6277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" ht="15" customHeight="1">
       <c r="A256" s="3">
         <v>6</v>
       </c>
@@ -6287,7 +6285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" ht="15" customHeight="1">
       <c r="A257" s="3">
         <v>6</v>
       </c>
@@ -6295,7 +6293,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" ht="15" customHeight="1">
       <c r="A258" s="3">
         <v>6</v>
       </c>
@@ -6303,7 +6301,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" ht="15" customHeight="1">
       <c r="A259" s="3">
         <v>6</v>
       </c>
@@ -6311,7 +6309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" ht="15" customHeight="1">
       <c r="A260" s="3">
         <v>6</v>
       </c>
@@ -6319,7 +6317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" ht="15" customHeight="1">
       <c r="A261" s="3">
         <v>6</v>
       </c>
@@ -6327,7 +6325,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" ht="15" customHeight="1">
       <c r="A262" s="3">
         <v>6</v>
       </c>
@@ -6335,7 +6333,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" ht="15" customHeight="1">
       <c r="A263" s="3">
         <v>6</v>
       </c>
@@ -6343,7 +6341,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" ht="15" customHeight="1">
       <c r="A264" s="3">
         <v>6</v>
       </c>
@@ -6351,7 +6349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" ht="15" customHeight="1">
       <c r="A265" s="3">
         <v>6</v>
       </c>
@@ -6359,7 +6357,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" ht="15" customHeight="1">
       <c r="A266" s="3">
         <v>6</v>
       </c>
@@ -6369,7 +6367,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6377,31 +6375,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV7"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" customWidth="1"/>
-    <col min="4" max="256" width="8.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.1719" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.35156" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.67188" style="4" customWidth="1"/>
+    <col min="4" max="256" width="8.85156" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="3">
         <v>3</v>
       </c>
@@ -6409,10 +6407,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="3">
         <v>5</v>
       </c>
@@ -6423,7 +6421,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3">
         <v>10</v>
       </c>
@@ -6434,7 +6432,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3">
         <v>12</v>
       </c>
@@ -6445,7 +6443,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="3">
         <v>13</v>
       </c>
@@ -6456,7 +6454,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3">
         <v>17</v>
       </c>
@@ -6469,7 +6467,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6477,31 +6475,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV18"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="5" customWidth="1"/>
-    <col min="4" max="256" width="8.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.17188" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.1719" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.35156" style="5" customWidth="1"/>
+    <col min="4" max="256" width="8.85156" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6512,7 +6510,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6523,7 +6521,7 @@
         <v>42006</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6534,7 +6532,7 @@
         <v>42007</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -6545,7 +6543,7 @@
         <v>42008</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -6556,7 +6554,7 @@
         <v>42009</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6567,7 +6565,7 @@
         <v>42010</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -6578,7 +6576,7 @@
         <v>42011</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -6589,7 +6587,7 @@
         <v>42012</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6600,7 +6598,7 @@
         <v>42013</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6611,7 +6609,7 @@
         <v>42014</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -6622,7 +6620,7 @@
         <v>42015</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -6633,7 +6631,7 @@
         <v>42016</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -6644,7 +6642,7 @@
         <v>42017</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -6655,7 +6653,7 @@
         <v>42018</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6666,7 +6664,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -6677,7 +6675,7 @@
         <v>42020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -6690,7 +6688,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6698,90 +6696,91 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV18"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="14.21875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14.1719" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.1719" style="7" customWidth="1"/>
+    <col min="3" max="3" width="7.17188" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.17188" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.85156" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.85156" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="7" customWidth="1"/>
     <col min="8" max="8" width="10" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.17188" style="7" customWidth="1"/>
+    <col min="10" max="10" width="5.67188" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.8516" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.17188" style="7" customWidth="1"/>
+    <col min="13" max="13" width="11.8516" style="7" customWidth="1"/>
+    <col min="14" max="14" width="11.6719" style="7" customWidth="1"/>
     <col min="15" max="15" width="8" style="7" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" style="7" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="14.21875" style="7" customWidth="1"/>
-    <col min="19" max="256" width="8.88671875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="16.1719" style="7" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="7" customWidth="1"/>
+    <col min="18" max="18" width="14.1719" style="7" customWidth="1"/>
+    <col min="19" max="256" width="8.85156" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s" s="2">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6791,53 +6790,53 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s" s="2">
         <v>187</v>
       </c>
       <c r="F2" s="3">
-        <v>9.9499999999999993</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="G2" s="6">
         <v>42005</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="3">
         <v>48335</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="3">
         <v>27116</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6848,10 +6847,10 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s" s="2">
         <v>196</v>
       </c>
       <c r="F3" s="3">
@@ -6860,41 +6859,41 @@
       <c r="G3" s="6">
         <v>42006</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="3">
         <v>74133</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="3">
         <v>45440</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6905,10 +6904,10 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s" s="2">
         <v>196</v>
       </c>
       <c r="F4" s="3">
@@ -6917,41 +6916,41 @@
       <c r="G4" s="6">
         <v>42007</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="3">
         <v>85754</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="3">
         <v>20337</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -6961,10 +6960,10 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s" s="2">
         <v>187</v>
       </c>
       <c r="F5" s="3">
@@ -6973,41 +6972,41 @@
       <c r="G5" s="6">
         <v>42008</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="3">
         <v>14652</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="3">
         <v>75236</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -7017,53 +7016,53 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s" s="2">
         <v>196</v>
       </c>
       <c r="F6" s="3">
-        <v>255.17500000000001</v>
+        <v>255.175</v>
       </c>
       <c r="G6" s="6">
         <v>42009</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="3">
         <v>50320</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="3">
         <v>98498</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -7073,53 +7072,53 @@
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s" s="2">
         <v>196</v>
       </c>
       <c r="F7" s="3">
-        <v>295.07499999999999</v>
+        <v>295.075</v>
       </c>
       <c r="G7" s="6">
         <v>42010</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="3">
         <v>53215</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="3">
         <v>95852</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -7129,53 +7128,53 @@
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s" s="2">
         <v>196</v>
       </c>
       <c r="F8" s="3">
-        <v>334.97500000000002</v>
+        <v>334.975</v>
       </c>
       <c r="G8" s="6">
         <v>42011</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="3">
         <v>37605</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="3">
         <v>80045</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -7185,10 +7184,10 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s" s="2">
         <v>196</v>
       </c>
       <c r="F9" s="3">
@@ -7197,41 +7196,41 @@
       <c r="G9" s="6">
         <v>42012</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="3">
         <v>8104</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="3">
         <v>19093</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -7241,53 +7240,53 @@
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s" s="2">
         <v>187</v>
       </c>
       <c r="F10" s="3">
-        <v>414.77499999999998</v>
+        <v>414.775</v>
       </c>
       <c r="G10" s="6">
         <v>42013</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="3">
         <v>19172</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="3">
         <v>30311</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -7297,53 +7296,53 @@
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s" s="2">
         <v>187</v>
       </c>
       <c r="F11" s="3">
-        <v>454.67500000000001</v>
+        <v>454.675</v>
       </c>
       <c r="G11" s="6">
         <v>42014</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="3">
         <v>34282</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="3">
         <v>23213</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -7353,53 +7352,53 @@
       <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s" s="2">
         <v>196</v>
       </c>
       <c r="F12" s="3">
-        <v>494.57499999999999</v>
+        <v>494.575</v>
       </c>
       <c r="G12" s="6">
         <v>42015</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="3">
         <v>88563</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="3">
         <v>22244</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -7409,53 +7408,53 @@
       <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s" s="2">
         <v>196</v>
       </c>
       <c r="F13" s="3">
-        <v>534.47500000000002</v>
+        <v>534.475</v>
       </c>
       <c r="G13" s="6">
         <v>42016</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="3">
         <v>16565</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="3">
         <v>70616</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -7465,10 +7464,10 @@
       <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s" s="2">
         <v>187</v>
       </c>
       <c r="F14" s="3">
@@ -7477,41 +7476,41 @@
       <c r="G14" s="6">
         <v>42017</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="3">
         <v>77010</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="3">
         <v>66112</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -7521,53 +7520,53 @@
       <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s" s="2">
         <v>196</v>
       </c>
       <c r="F15" s="3">
-        <v>614.27499999999998</v>
+        <v>614.275</v>
       </c>
       <c r="G15" s="6">
         <v>42018</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="3">
         <v>24040</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="3">
         <v>56944</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -7577,53 +7576,53 @@
       <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s" s="2">
         <v>187</v>
       </c>
       <c r="F16" s="3">
-        <v>654.17499999999995</v>
+        <v>654.175</v>
       </c>
       <c r="G16" s="6">
         <v>42019</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="3">
         <v>31416</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="Q16" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="3">
         <v>81005</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -7633,53 +7632,53 @@
       <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s" s="2">
         <v>187</v>
       </c>
       <c r="F17" s="3">
-        <v>694.07500000000005</v>
+        <v>694.075</v>
       </c>
       <c r="G17" s="6">
         <v>42020</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="3">
         <v>20520</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="3">
         <v>6726</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -7689,55 +7688,55 @@
       <c r="C18" s="3">
         <v>17</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s" s="2">
         <v>187</v>
       </c>
       <c r="F18" s="3">
-        <v>733.97500000000002</v>
+        <v>733.975</v>
       </c>
       <c r="G18" s="6">
         <v>42021</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="3">
         <v>20540</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="P18" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q18" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="3">
         <v>87115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7745,187 +7744,187 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV15"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="10" customWidth="1"/>
-    <col min="4" max="256" width="8.88671875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.1719" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.1719" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.1719" style="8" customWidth="1"/>
+    <col min="4" max="256" width="8.85156" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="2">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s" s="2">
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3">
         <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s" s="2">
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3">
         <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s" s="2">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="3">
         <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s" s="2">
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3">
         <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s" s="2">
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="3">
         <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s" s="2">
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="3">
         <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s" s="2">
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="3">
         <v>14</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s" s="2">
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="3">
         <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s" s="2">
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="3">
         <v>16</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s" s="2">
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="3">
         <v>18</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s" s="2">
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="3">
         <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s" s="2">
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="3">
         <v>20</v>
       </c>
       <c r="B15" s="3">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s" s="2">
         <v>270</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7933,103 +7932,101 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="105.21875" style="11" customWidth="1"/>
-    <col min="3" max="256" width="8.88671875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.8516" style="9" customWidth="1"/>
+    <col min="2" max="2" width="105.172" style="9" customWidth="1"/>
+    <col min="3" max="256" width="8.85156" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="2">
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s" s="2">
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s" s="2">
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s" s="2">
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s" s="2">
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s" s="2">
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s" s="2">
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s" s="2">
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s" s="2">
         <v>290</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8037,262 +8034,245 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV18"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="93.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" style="12" customWidth="1"/>
-    <col min="6" max="256" width="8.88671875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.85156" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.8516" style="10" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="93.3516" style="10" customWidth="1"/>
+    <col min="5" max="5" width="26.3516" style="10" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s" s="2">
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s" s="2">
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s" s="2">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s" s="2">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" t="s" s="2">
         <v>307</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" t="s" s="2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C7" t="s" s="2">
         <v>309</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="D7" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+      <c r="C8" t="s" s="12">
+        <v>312</v>
+      </c>
+      <c r="D8" t="s" s="13">
+        <v>313</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="C9" t="s" s="15">
+        <v>315</v>
+      </c>
+      <c r="D9" t="s" s="15">
         <v>280</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="E9" t="s" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" ht="14.4" customHeight="1">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="D10" s="23" t="s">
+      <c r="C10" t="s" s="15">
+        <v>317</v>
+      </c>
+      <c r="D10" t="s" s="15">
         <v>282</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" t="s" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" ht="14.4" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="D11" s="23" t="s">
+      <c r="C11" t="s" s="15">
+        <v>319</v>
+      </c>
+      <c r="D11" t="s" s="15">
         <v>284</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" t="s" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" ht="14.4" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" t="s" s="15">
+        <v>321</v>
+      </c>
+      <c r="D12" t="s" s="15">
+        <v>322</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" ht="14.4" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D13" s="23" t="s">
+      <c r="C13" t="s" s="17">
+        <v>324</v>
+      </c>
+      <c r="D13" t="s" s="17">
         <v>288</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>325</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8300,43 +8280,43 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV7"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="13" customWidth="1"/>
-    <col min="7" max="256" width="8.88671875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="4.85156" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.35156" style="18" customWidth="1"/>
+    <col min="3" max="3" width="5.85156" style="18" customWidth="1"/>
+    <col min="4" max="4" width="7.85156" style="18" customWidth="1"/>
+    <col min="5" max="5" width="4.85156" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9.35156" style="18" customWidth="1"/>
+    <col min="7" max="256" width="8.85156" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B1" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -8352,11 +8332,11 @@
       <c r="E2" s="3">
         <v>250</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="19">
         <v>42005</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -8372,11 +8352,11 @@
       <c r="E3" s="3">
         <v>100</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="19">
         <v>42006</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -8392,11 +8372,11 @@
       <c r="E4" s="3">
         <v>100</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="19">
         <v>42007</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -8412,11 +8392,11 @@
       <c r="E5" s="3">
         <v>120</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="19">
         <v>42008</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -8432,11 +8412,11 @@
       <c r="E6" s="3">
         <v>600</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="19">
         <v>42009</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -8452,13 +8432,13 @@
       <c r="E7" s="3">
         <v>500</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="19">
         <v>42010</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8466,31 +8446,31 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV18"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="15" customWidth="1"/>
-    <col min="4" max="256" width="8.88671875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="7.17188" style="20" customWidth="1"/>
+    <col min="2" max="2" width="4.85156" style="20" customWidth="1"/>
+    <col min="3" max="3" width="7.85156" style="20" customWidth="1"/>
+    <col min="4" max="256" width="8.85156" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -8501,7 +8481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -8512,7 +8492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -8523,7 +8503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -8534,7 +8514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -8545,7 +8525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -8556,7 +8536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -8567,7 +8547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -8578,7 +8558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -8589,7 +8569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -8600,7 +8580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -8611,7 +8591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -8622,7 +8602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -8633,7 +8613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -8644,7 +8624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -8655,7 +8635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -8666,7 +8646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -8679,7 +8659,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/data/seed.xlsx
+++ b/src/data/seed.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
   <si>
     <t>accountId</t>
   </si>
@@ -61,6 +61,44 @@
     <t>postalCode</t>
   </si>
   <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>test@test.com</t>
+    </r>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>1-(234)567-8900</t>
+  </si>
+  <si>
+    <t>1234 Fake St</t>
+  </si>
+  <si>
+    <t>Kelowna</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>A1A1A1</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
@@ -136,9 +174,6 @@
     <t>5 Lerdahl Road</t>
   </si>
   <si>
-    <t>customer</t>
-  </si>
-  <si>
     <t>mhawkins3@shinystat.com</t>
   </si>
   <si>
@@ -568,21 +603,6 @@
     <t>toPostalCode</t>
   </si>
   <si>
-    <t>fromAddress</t>
-  </si>
-  <si>
-    <t>fromCity</t>
-  </si>
-  <si>
-    <t>fromProvinceState</t>
-  </si>
-  <si>
-    <t>fromCountry</t>
-  </si>
-  <si>
-    <t>fromPostalCode</t>
-  </si>
-  <si>
     <t>USPS</t>
   </si>
   <si>
@@ -601,15 +621,6 @@
     <t>Michigan</t>
   </si>
   <si>
-    <t>73331 Jana Way</t>
-  </si>
-  <si>
-    <t>Winston Salem</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
     <t>CanadaPost</t>
   </si>
   <si>
@@ -628,69 +639,33 @@
     <t>Oklahoma</t>
   </si>
   <si>
-    <t>8888 Hoard Terrace</t>
-  </si>
-  <si>
-    <t>Dayton</t>
-  </si>
-  <si>
     <t>FedEx</t>
   </si>
   <si>
     <t>1 Shopko Court</t>
   </si>
   <si>
-    <t>51 Carioca Alley</t>
-  </si>
-  <si>
     <t>32 Autumn Leaf Court</t>
   </si>
   <si>
     <t>Rochester</t>
   </si>
   <si>
-    <t>00 1st Plaza</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
     <t>8343 Packers Hill</t>
   </si>
   <si>
-    <t>83 Browning Avenue</t>
-  </si>
-  <si>
-    <t>Lakewood</t>
-  </si>
-  <si>
     <t>85 Riverside Place</t>
   </si>
   <si>
     <t>Milwaukee</t>
   </si>
   <si>
-    <t>234 Hallows Alley</t>
-  </si>
-  <si>
-    <t>Sacramento</t>
-  </si>
-  <si>
     <t>92 Superior Avenue</t>
   </si>
   <si>
     <t>Johnson City</t>
   </si>
   <si>
-    <t>4 4th Plaza</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
     <t>Overnight</t>
   </si>
   <si>
@@ -703,124 +678,61 @@
     <t>New Jersey</t>
   </si>
   <si>
-    <t>24168 Nelson Drive</t>
+    <t>10 Hagan Place</t>
   </si>
   <si>
     <t>Philadelphia</t>
   </si>
   <si>
-    <t>10 Hagan Place</t>
-  </si>
-  <si>
-    <t>29461 Logan Center</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
+    <t>994 Fremont Road</t>
+  </si>
+  <si>
+    <t>Bradenton</t>
+  </si>
+  <si>
+    <t>33 Melody Center</t>
+  </si>
+  <si>
+    <t>El Paso</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>13133 Upham Way</t>
+  </si>
+  <si>
+    <t>Erie</t>
+  </si>
+  <si>
+    <t>194 Steensland Trail</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>26874 Bartelt Park</t>
+  </si>
+  <si>
+    <t>Roanoke</t>
+  </si>
+  <si>
+    <t>32 Buena Vista Park</t>
+  </si>
+  <si>
+    <t>Savannah</t>
   </si>
   <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>994 Fremont Road</t>
-  </si>
-  <si>
-    <t>Bradenton</t>
-  </si>
-  <si>
-    <t>90 Annamark Alley</t>
-  </si>
-  <si>
-    <t>Richmond</t>
-  </si>
-  <si>
-    <t>33 Melody Center</t>
-  </si>
-  <si>
-    <t>El Paso</t>
-  </si>
-  <si>
-    <t>74224 Jenna Trail</t>
-  </si>
-  <si>
-    <t>Arlington</t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>13133 Upham Way</t>
-  </si>
-  <si>
-    <t>Erie</t>
-  </si>
-  <si>
-    <t>848 Lien Hill</t>
-  </si>
-  <si>
-    <t>Lake Charles</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>194 Steensland Trail</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>06327 Clyde Gallagher Center</t>
-  </si>
-  <si>
-    <t>Kansas City</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>26874 Bartelt Park</t>
-  </si>
-  <si>
-    <t>Roanoke</t>
-  </si>
-  <si>
-    <t>49059 Dennis Terrace</t>
-  </si>
-  <si>
-    <t>32 Buena Vista Park</t>
-  </si>
-  <si>
-    <t>Savannah</t>
-  </si>
-  <si>
-    <t>0102 Hoepker Alley</t>
-  </si>
-  <si>
-    <t>Pueblo</t>
-  </si>
-  <si>
     <t>1 Debs Crossing</t>
   </si>
   <si>
-    <t>66075 Norway Maple Court</t>
-  </si>
-  <si>
-    <t>Waterbury</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
     <t>9 Jackson Trail</t>
   </si>
   <si>
-    <t>3846 Westend Way</t>
-  </si>
-  <si>
-    <t>Albuquerque</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
+    <t>paymentId</t>
   </si>
   <si>
     <t>accountNumber</t>
@@ -1109,7 +1021,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1126,8 +1038,14 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="8"/>
-      <color indexed="11"/>
+      <color indexed="12"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1145,7 +1063,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1157,6 +1075,43 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -1211,7 +1166,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1222,6 +1177,15 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1245,25 +1209,25 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1306,6 +1270,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff404040"/>
     </indexedColors>
   </colors>
@@ -2368,7 +2333,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2431,38 +2396,38 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="I2" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="J2" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="6">
         <v>21</v>
-      </c>
-      <c r="L2" s="3">
-        <v>20057</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -2470,37 +2435,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3">
-        <v>12255</v>
+        <v>20057</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -2508,37 +2473,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="D4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>21</v>
-      </c>
       <c r="L4" s="3">
-        <v>12237</v>
+        <v>12255</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -2546,37 +2511,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="J5" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="E5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="K5" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L5" s="3">
-        <v>33185</v>
+        <v>12237</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
@@ -2584,37 +2549,37 @@
         <v>5</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L6" s="3">
-        <v>20022</v>
+        <v>33185</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
@@ -2622,37 +2587,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L7" s="3">
-        <v>33467</v>
+        <v>20022</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
@@ -2660,37 +2625,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L8" s="3">
-        <v>75049</v>
+        <v>33467</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
@@ -2698,37 +2663,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L9" s="3">
-        <v>36622</v>
+        <v>75049</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
@@ -2739,34 +2704,34 @@
         <v>12</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L10" s="3">
-        <v>58122</v>
+        <v>36622</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -2774,37 +2739,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L11" s="3">
-        <v>53779</v>
+        <v>58122</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -2812,37 +2777,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L12" s="3">
-        <v>85715</v>
+        <v>53779</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
@@ -2850,37 +2815,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L13" s="3">
-        <v>38308</v>
+        <v>85715</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -2888,37 +2853,37 @@
         <v>13</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L14" s="3">
-        <v>45271</v>
+        <v>38308</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
@@ -2926,37 +2891,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L15" s="3">
-        <v>53710</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -2964,37 +2929,37 @@
         <v>15</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L16" s="3">
-        <v>17622</v>
+        <v>53710</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
@@ -3002,37 +2967,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L17" s="3">
-        <v>25775</v>
+        <v>17622</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
@@ -3040,37 +3005,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L18" s="3">
-        <v>23514</v>
+        <v>25775</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
@@ -3078,37 +3043,37 @@
         <v>18</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L19" s="3">
-        <v>94064</v>
+        <v>23514</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
@@ -3116,37 +3081,37 @@
         <v>19</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L20" s="3">
-        <v>92878</v>
+        <v>94064</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
@@ -3154,40 +3119,81 @@
         <v>20</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E21" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="L21" s="3">
+        <v>92878</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="L21" s="3">
+      <c r="B22" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="L22" s="3">
         <v>50936</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -3204,43 +3210,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="21" customWidth="1"/>
-    <col min="2" max="256" width="8.85156" style="21" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="24" customWidth="1"/>
+    <col min="2" max="256" width="8.85156" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>330</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>335</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -3260,103 +3266,103 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.67188" style="22" customWidth="1"/>
-    <col min="2" max="256" width="8.85156" style="22" customWidth="1"/>
+    <col min="1" max="1" width="9.67188" style="25" customWidth="1"/>
+    <col min="2" max="256" width="8.85156" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>330</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>337</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>338</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>339</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>340</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>341</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>342</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>343</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>344</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>345</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>346</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>347</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>348</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>349</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>352</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="s" s="2">
-        <v>353</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>354</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3376,25 +3382,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="23" customWidth="1"/>
-    <col min="2" max="2" width="11.8516" style="23" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="23" customWidth="1"/>
-    <col min="4" max="4" width="5" style="23" customWidth="1"/>
-    <col min="5" max="256" width="8.85156" style="23" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11.8516" style="26" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="26" customWidth="1"/>
+    <col min="4" max="4" width="5" style="26" customWidth="1"/>
+    <col min="5" max="256" width="8.85156" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>358</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
@@ -3402,10 +3408,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="D2" s="3">
         <v>2008</v>
@@ -3416,10 +3422,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="D3" s="3">
         <v>2009</v>
@@ -3430,10 +3436,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="D4" s="3">
         <v>2010</v>
@@ -3444,10 +3450,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="D5" s="3">
         <f>D2</f>
@@ -3459,10 +3465,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="D6" s="3">
         <f>D3</f>
@@ -3474,10 +3480,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="D7" s="3">
         <f>D4</f>
@@ -3489,10 +3495,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="D8" s="3">
         <f>D5</f>
@@ -3504,10 +3510,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="D9" s="3">
         <f>D6</f>
@@ -3519,10 +3525,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="D10" s="3">
         <f>D7</f>
@@ -3534,10 +3540,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="D11" s="3">
         <f>D8</f>
@@ -3549,10 +3555,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="D12" s="3">
         <f>D9</f>
@@ -3564,10 +3570,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="D13" s="3">
         <f>D10</f>
@@ -3579,10 +3585,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="D14" s="3">
         <f>D11</f>
@@ -3594,10 +3600,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="D15" s="3">
         <f>D12</f>
@@ -3609,10 +3615,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="D16" s="3">
         <f>D13</f>
@@ -3624,10 +3630,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="D17" s="3">
         <f>D14</f>
@@ -3639,10 +3645,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="D18" s="3">
         <f>D15</f>
@@ -3654,10 +3660,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="D19" s="3">
         <f>D16</f>
@@ -3669,10 +3675,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="D20" s="3">
         <f>D17</f>
@@ -3684,10 +3690,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="D21" s="3">
         <f>D18</f>
@@ -3699,10 +3705,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="D22" s="3">
         <f>D19</f>
@@ -3714,10 +3720,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="D23" s="3">
         <f>D20</f>
@@ -3729,10 +3735,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="D24" s="3">
         <f>D21</f>
@@ -3744,10 +3750,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="D25" s="3">
         <f>D22</f>
@@ -3759,10 +3765,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="D26" s="3">
         <v>2011</v>
@@ -3773,10 +3779,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="D27" s="3">
         <f>D23</f>
@@ -3788,10 +3794,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="D28" s="3">
         <f>D24</f>
@@ -3803,10 +3809,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="D29" s="3">
         <f>D25</f>
@@ -3818,10 +3824,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="D30" s="3">
         <f>D27</f>
@@ -3833,10 +3839,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="D31" s="3">
         <f>D28</f>
@@ -3848,10 +3854,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="D32" s="3">
         <f>D29</f>
@@ -3863,10 +3869,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="D33" s="3">
         <f>D30</f>
@@ -3878,10 +3884,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="D34" s="3">
         <f>D31</f>
@@ -3893,10 +3899,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="D35" s="3">
         <f>D32</f>
@@ -3908,10 +3914,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="D36" s="3">
         <f>D33</f>
@@ -3923,10 +3929,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="D37" s="3">
         <f>D34</f>
@@ -3938,10 +3944,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="D38" s="3">
         <f>D35</f>
@@ -3953,10 +3959,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="D39" s="3">
         <v>2011</v>
@@ -3967,10 +3973,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="D40" s="3">
         <v>2012</v>
@@ -3981,10 +3987,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="D41" s="3">
         <v>2013</v>
@@ -3995,10 +4001,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="D42" s="3">
         <f>D39</f>
@@ -4010,10 +4016,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="D43" s="3">
         <f>D40</f>
@@ -4025,10 +4031,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="D44" s="3">
         <f>D41</f>
@@ -4040,10 +4046,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D45" s="3">
         <f>D42</f>
@@ -4055,10 +4061,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D46" s="3">
         <f>D43</f>
@@ -4070,10 +4076,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D47" s="3">
         <f>D44</f>
@@ -4085,10 +4091,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D48" s="3">
         <f>D45</f>
@@ -4100,10 +4106,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D49" s="3">
         <f>D46</f>
@@ -4115,10 +4121,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D50" s="3">
         <f>D47</f>
@@ -4130,10 +4136,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="D51" s="3">
         <f>D48</f>
@@ -4145,10 +4151,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="D52" s="3">
         <f>D49</f>
@@ -4160,10 +4166,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="D53" s="3">
         <f>D50</f>
@@ -4175,10 +4181,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="D54" s="3">
         <f>D51</f>
@@ -4190,10 +4196,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="D55" s="3">
         <f>D52</f>
@@ -4205,10 +4211,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="D56" s="3">
         <f>D53</f>
@@ -4232,17 +4238,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.85156" style="24" customWidth="1"/>
-    <col min="2" max="2" width="8.17188" style="24" customWidth="1"/>
-    <col min="3" max="256" width="8.85156" style="24" customWidth="1"/>
+    <col min="1" max="1" width="5.85156" style="27" customWidth="1"/>
+    <col min="2" max="2" width="8.17188" style="27" customWidth="1"/>
+    <col min="3" max="256" width="8.85156" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
@@ -6382,21 +6388,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.1719" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.35156" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.67188" style="4" customWidth="1"/>
-    <col min="4" max="256" width="8.85156" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.1719" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.35156" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.67188" style="7" customWidth="1"/>
+    <col min="4" max="256" width="8.85156" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
@@ -6482,21 +6488,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.17188" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.1719" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.35156" style="5" customWidth="1"/>
-    <col min="4" max="256" width="8.85156" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.17188" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.1719" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.35156" style="8" customWidth="1"/>
+    <col min="4" max="256" width="8.85156" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
@@ -6506,7 +6512,7 @@
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>42005</v>
       </c>
     </row>
@@ -6517,7 +6523,7 @@
       <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>42006</v>
       </c>
     </row>
@@ -6528,7 +6534,7 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>42007</v>
       </c>
     </row>
@@ -6539,7 +6545,7 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>42008</v>
       </c>
     </row>
@@ -6550,7 +6556,7 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>42009</v>
       </c>
     </row>
@@ -6561,7 +6567,7 @@
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="9">
         <v>42010</v>
       </c>
     </row>
@@ -6572,7 +6578,7 @@
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>42011</v>
       </c>
     </row>
@@ -6583,7 +6589,7 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="9">
         <v>42012</v>
       </c>
     </row>
@@ -6594,7 +6600,7 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>42013</v>
       </c>
     </row>
@@ -6605,7 +6611,7 @@
       <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>42014</v>
       </c>
     </row>
@@ -6616,7 +6622,7 @@
       <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="9">
         <v>42015</v>
       </c>
     </row>
@@ -6627,7 +6633,7 @@
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="9">
         <v>42016</v>
       </c>
     </row>
@@ -6638,7 +6644,7 @@
       <c r="B14" s="3">
         <v>5</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="9">
         <v>42017</v>
       </c>
     </row>
@@ -6649,7 +6655,7 @@
       <c r="B15" s="3">
         <v>5</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="9">
         <v>42018</v>
       </c>
     </row>
@@ -6660,7 +6666,7 @@
       <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="9">
         <v>42019</v>
       </c>
     </row>
@@ -6671,7 +6677,7 @@
       <c r="B17" s="3">
         <v>5</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="9">
         <v>42020</v>
       </c>
     </row>
@@ -6682,7 +6688,7 @@
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="9">
         <v>42021</v>
       </c>
     </row>
@@ -6697,87 +6703,67 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.1719" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.1719" style="7" customWidth="1"/>
-    <col min="3" max="3" width="7.17188" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.17188" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.85156" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.85156" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.17188" style="7" customWidth="1"/>
-    <col min="10" max="10" width="5.67188" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.8516" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.17188" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11.8516" style="7" customWidth="1"/>
-    <col min="14" max="14" width="11.6719" style="7" customWidth="1"/>
-    <col min="15" max="15" width="8" style="7" customWidth="1"/>
-    <col min="16" max="16" width="16.1719" style="7" customWidth="1"/>
-    <col min="17" max="17" width="11.5" style="7" customWidth="1"/>
-    <col min="18" max="18" width="14.1719" style="7" customWidth="1"/>
-    <col min="19" max="256" width="8.85156" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14.1719" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14.1719" style="10" customWidth="1"/>
+    <col min="3" max="3" width="7.17188" style="10" customWidth="1"/>
+    <col min="4" max="4" width="6.17188" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.85156" style="10" customWidth="1"/>
+    <col min="6" max="6" width="7.85156" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.17188" style="10" customWidth="1"/>
+    <col min="10" max="10" width="5.67188" style="10" customWidth="1"/>
+    <col min="11" max="11" width="13.8516" style="10" customWidth="1"/>
+    <col min="12" max="12" width="9.17188" style="10" customWidth="1"/>
+    <col min="13" max="13" width="11.8516" style="10" customWidth="1"/>
+    <col min="14" max="256" width="8.85156" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N1" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O1" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="P1" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Q1" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="R1" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
@@ -6791,49 +6777,34 @@
         <v>1</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F2" s="3">
         <v>9.949999999999999</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="9">
         <v>42005</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M2" s="3">
         <v>48335</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Q2" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R2" s="3">
-        <v>27116</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -6848,49 +6819,34 @@
         <v>2</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F3" s="3">
         <v>123.45</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="9">
         <v>42006</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M3" s="3">
         <v>74133</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O3" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="P3" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Q3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R3" s="3">
-        <v>45440</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -6905,49 +6861,34 @@
         <v>3</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F4" s="3">
         <v>456.3</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="9">
         <v>42007</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M4" s="3">
         <v>85754</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="P4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q4" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R4" s="3">
-        <v>20337</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -6961,49 +6902,34 @@
         <v>4</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F5" s="3">
         <v>32</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="9">
         <v>42008</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M5" s="3">
         <v>14652</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="P5" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="Q5" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R5" s="3">
-        <v>75236</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
@@ -7017,49 +6943,34 @@
         <v>5</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F6" s="3">
         <v>255.175</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="9">
         <v>42009</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M6" s="3">
         <v>50320</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="P6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q6" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R6" s="3">
-        <v>98498</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
@@ -7073,49 +6984,34 @@
         <v>6</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F7" s="3">
         <v>295.075</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="9">
         <v>42010</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M7" s="3">
         <v>53215</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="P7" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Q7" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R7" s="3">
-        <v>95852</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
@@ -7129,49 +7025,34 @@
         <v>7</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F8" s="3">
         <v>334.975</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="9">
         <v>42011</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M8" s="3">
         <v>37605</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="P8" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Q8" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R8" s="3">
-        <v>80045</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
@@ -7185,49 +7066,34 @@
         <v>8</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F9" s="3">
         <v>374.875</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="9">
         <v>42012</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M9" s="3">
         <v>8104</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="P9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="Q9" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R9" s="3">
-        <v>19093</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
@@ -7241,49 +7107,34 @@
         <v>9</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F10" s="3">
         <v>414.775</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="9">
         <v>42013</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M10" s="3">
         <v>19172</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="P10" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Q10" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R10" s="3">
-        <v>30311</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -7297,49 +7148,34 @@
         <v>10</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F11" s="3">
         <v>454.675</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="9">
         <v>42014</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M11" s="3">
         <v>34282</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="P11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Q11" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R11" s="3">
-        <v>23213</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -7353,49 +7189,34 @@
         <v>11</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F12" s="3">
         <v>494.575</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="9">
         <v>42015</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M12" s="3">
         <v>88563</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R12" s="3">
-        <v>22244</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
@@ -7409,49 +7230,34 @@
         <v>12</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F13" s="3">
         <v>534.475</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="9">
         <v>42016</v>
       </c>
       <c r="H13" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="I13" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M13" s="3">
         <v>16565</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Q13" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R13" s="3">
-        <v>70616</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -7465,49 +7271,34 @@
         <v>13</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F14" s="3">
         <v>574.375</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="9">
         <v>42017</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M14" s="3">
         <v>77010</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R14" s="3">
-        <v>66112</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
@@ -7521,49 +7312,34 @@
         <v>14</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F15" s="3">
         <v>614.275</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="9">
         <v>42018</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M15" s="3">
         <v>24040</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="P15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q15" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R15" s="3">
-        <v>56944</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -7577,49 +7353,34 @@
         <v>15</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F16" s="3">
         <v>654.175</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="9">
         <v>42019</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M16" s="3">
         <v>31416</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="P16" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Q16" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R16" s="3">
-        <v>81005</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
@@ -7633,49 +7394,34 @@
         <v>16</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F17" s="3">
         <v>694.075</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="9">
         <v>42020</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M17" s="3">
         <v>20520</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="P17" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="Q17" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R17" s="3">
-        <v>6726</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
@@ -7689,49 +7435,34 @@
         <v>17</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F18" s="3">
         <v>733.975</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="9">
         <v>42021</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M18" s="3">
         <v>20540</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="P18" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="Q18" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R18" s="3">
-        <v>87115</v>
       </c>
     </row>
   </sheetData>
@@ -7745,27 +7476,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.1719" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.1719" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.1719" style="8" customWidth="1"/>
-    <col min="4" max="256" width="8.85156" style="8" customWidth="1"/>
+    <col min="1" max="1" width="14.1719" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.1719" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.1719" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.1719" style="11" customWidth="1"/>
+    <col min="5" max="256" width="8.85156" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>235</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
@@ -7775,8 +7510,11 @@
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>268</v>
+      <c r="C2" s="3">
+        <v>847182374</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>236</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -7786,140 +7524,179 @@
       <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>268</v>
+      <c r="C3" s="3">
+        <v>192347918</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>236</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="2">
-        <v>269</v>
+      <c r="C4" s="3">
+        <v>754823793</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>237</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>269</v>
+      <c r="C5" s="3">
+        <v>234524352</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>237</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>268</v>
+      <c r="C6" s="3">
+        <v>764324547</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>236</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>269</v>
+      <c r="C7" s="3">
+        <v>424527744</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>237</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>270</v>
+      <c r="C8" s="3">
+        <v>134468533</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>238</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>268</v>
+      <c r="C9" s="3">
+        <v>354678578</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>236</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>270</v>
+      <c r="C10" s="3">
+        <v>135426547</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>238</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>269</v>
+      <c r="C11" s="3">
+        <v>345667687</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>237</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>268</v>
+      <c r="C12" s="3">
+        <v>234524677</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>236</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>270</v>
+      <c r="C13" s="3">
+        <v>444563788</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>238</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>268</v>
+      <c r="C14" s="3">
+        <v>536875654</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>236</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>270</v>
+      <c r="C15" s="3">
+        <v>456745689</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -7939,89 +7716,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.8516" style="9" customWidth="1"/>
-    <col min="2" max="2" width="105.172" style="9" customWidth="1"/>
-    <col min="3" max="256" width="8.85156" style="9" customWidth="1"/>
+    <col min="1" max="1" width="12.8516" style="12" customWidth="1"/>
+    <col min="2" max="2" width="105.172" style="12" customWidth="1"/>
+    <col min="3" max="256" width="8.85156" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>272</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>274</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>276</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>278</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>280</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>282</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>284</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>286</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>288</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>290</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -8041,29 +7818,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.85156" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.8516" style="10" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="93.3516" style="10" customWidth="1"/>
-    <col min="5" max="5" width="26.3516" style="10" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="10" customWidth="1"/>
+    <col min="1" max="1" width="5.85156" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.8516" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="93.3516" style="13" customWidth="1"/>
+    <col min="5" max="5" width="26.3516" style="13" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>293</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
@@ -8071,16 +7848,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>296</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -8088,16 +7865,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>299</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -8105,16 +7882,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>302</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -8122,16 +7899,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>305</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
@@ -8139,16 +7916,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>308</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
@@ -8156,67 +7933,67 @@
         <v>6</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C8" t="s" s="12">
-        <v>312</v>
-      </c>
-      <c r="D8" t="s" s="13">
-        <v>313</v>
+        <v>245</v>
+      </c>
+      <c r="C8" t="s" s="15">
+        <v>280</v>
+      </c>
+      <c r="D8" t="s" s="16">
+        <v>281</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>314</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="14">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C9" t="s" s="15">
-        <v>315</v>
-      </c>
-      <c r="D9" t="s" s="15">
-        <v>280</v>
+        <v>247</v>
+      </c>
+      <c r="C9" t="s" s="18">
+        <v>283</v>
+      </c>
+      <c r="D9" t="s" s="18">
+        <v>248</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>316</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="16">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C10" t="s" s="15">
-        <v>317</v>
-      </c>
-      <c r="D10" t="s" s="15">
-        <v>282</v>
+        <v>249</v>
+      </c>
+      <c r="C10" t="s" s="18">
+        <v>285</v>
+      </c>
+      <c r="D10" t="s" s="18">
+        <v>250</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>318</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" ht="14.4" customHeight="1">
@@ -8224,16 +8001,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="C11" t="s" s="15">
-        <v>319</v>
-      </c>
-      <c r="D11" t="s" s="15">
-        <v>284</v>
+        <v>251</v>
+      </c>
+      <c r="C11" t="s" s="18">
+        <v>287</v>
+      </c>
+      <c r="D11" t="s" s="18">
+        <v>252</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>320</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" ht="14.4" customHeight="1">
@@ -8241,16 +8018,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C12" t="s" s="15">
-        <v>321</v>
-      </c>
-      <c r="D12" t="s" s="15">
-        <v>322</v>
+        <v>253</v>
+      </c>
+      <c r="C12" t="s" s="18">
+        <v>289</v>
+      </c>
+      <c r="D12" t="s" s="18">
+        <v>290</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>323</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" ht="14.4" customHeight="1">
@@ -8258,16 +8035,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C13" t="s" s="17">
-        <v>324</v>
-      </c>
-      <c r="D13" t="s" s="17">
-        <v>288</v>
+        <v>255</v>
+      </c>
+      <c r="C13" t="s" s="20">
+        <v>292</v>
+      </c>
+      <c r="D13" t="s" s="20">
+        <v>256</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>325</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -8287,33 +8064,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.85156" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.35156" style="18" customWidth="1"/>
-    <col min="3" max="3" width="5.85156" style="18" customWidth="1"/>
-    <col min="4" max="4" width="7.85156" style="18" customWidth="1"/>
-    <col min="5" max="5" width="4.85156" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9.35156" style="18" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="18" customWidth="1"/>
+    <col min="1" max="1" width="4.85156" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.35156" style="21" customWidth="1"/>
+    <col min="3" max="3" width="5.85156" style="21" customWidth="1"/>
+    <col min="4" max="4" width="7.85156" style="21" customWidth="1"/>
+    <col min="5" max="5" width="4.85156" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9.35156" style="21" customWidth="1"/>
+    <col min="7" max="256" width="8.85156" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>329</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
@@ -8332,7 +8109,7 @@
       <c r="E2" s="3">
         <v>250</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="22">
         <v>42005</v>
       </c>
     </row>
@@ -8352,7 +8129,7 @@
       <c r="E3" s="3">
         <v>100</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="22">
         <v>42006</v>
       </c>
     </row>
@@ -8372,7 +8149,7 @@
       <c r="E4" s="3">
         <v>100</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="22">
         <v>42007</v>
       </c>
     </row>
@@ -8392,7 +8169,7 @@
       <c r="E5" s="3">
         <v>120</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="22">
         <v>42008</v>
       </c>
     </row>
@@ -8412,7 +8189,7 @@
       <c r="E6" s="3">
         <v>600</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="22">
         <v>42009</v>
       </c>
     </row>
@@ -8432,7 +8209,7 @@
       <c r="E7" s="3">
         <v>500</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="22">
         <v>42010</v>
       </c>
     </row>
@@ -8453,21 +8230,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.17188" style="20" customWidth="1"/>
-    <col min="2" max="2" width="4.85156" style="20" customWidth="1"/>
-    <col min="3" max="3" width="7.85156" style="20" customWidth="1"/>
-    <col min="4" max="256" width="8.85156" style="20" customWidth="1"/>
+    <col min="1" max="1" width="7.17188" style="23" customWidth="1"/>
+    <col min="2" max="2" width="4.85156" style="23" customWidth="1"/>
+    <col min="3" max="3" width="7.85156" style="23" customWidth="1"/>
+    <col min="4" max="256" width="8.85156" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>327</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">

--- a/src/data/seed.xlsx
+++ b/src/data/seed.xlsx
@@ -8104,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="E2" s="3">
         <v>250</v>
@@ -8124,7 +8124,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E3" s="3">
         <v>100</v>
@@ -8144,7 +8144,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="E4" s="3">
         <v>100</v>
@@ -8164,7 +8164,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E5" s="3">
         <v>120</v>
@@ -8184,7 +8184,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>900</v>
       </c>
       <c r="E6" s="3">
         <v>600</v>
@@ -8204,7 +8204,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3">
         <v>500</v>

--- a/src/data/seed.xlsx
+++ b/src/data/seed.xlsx
@@ -1,29 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett\Documents\GitHub\everything-roadster\src\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Account" sheetId="1" r:id="rId4"/>
-    <sheet name="RatesVendor" sheetId="2" r:id="rId5"/>
-    <sheet name="PartOrder" sheetId="3" r:id="rId6"/>
-    <sheet name="Shipment" sheetId="4" r:id="rId7"/>
-    <sheet name="Payment" sheetId="5" r:id="rId8"/>
-    <sheet name="PartCategory" sheetId="6" r:id="rId9"/>
-    <sheet name="Part" sheetId="7" r:id="rId10"/>
-    <sheet name="ListedPart" sheetId="8" r:id="rId11"/>
-    <sheet name="ContainsPart" sheetId="9" r:id="rId12"/>
-    <sheet name="Make" sheetId="10" r:id="rId13"/>
-    <sheet name="Model" sheetId="11" r:id="rId14"/>
-    <sheet name="Vehicle" sheetId="12" r:id="rId15"/>
-    <sheet name="FitsIn" sheetId="13" r:id="rId16"/>
+    <sheet name="Account" sheetId="1" r:id="rId1"/>
+    <sheet name="RatesVendor" sheetId="2" r:id="rId2"/>
+    <sheet name="PartOrder" sheetId="3" r:id="rId3"/>
+    <sheet name="Shipment" sheetId="4" r:id="rId4"/>
+    <sheet name="PartCategory" sheetId="6" r:id="rId5"/>
+    <sheet name="Part" sheetId="7" r:id="rId6"/>
+    <sheet name="Payment" sheetId="5" r:id="rId7"/>
+    <sheet name="ListedPart" sheetId="8" r:id="rId8"/>
+    <sheet name="ContainsPart" sheetId="9" r:id="rId9"/>
+    <sheet name="Make" sheetId="10" r:id="rId10"/>
+    <sheet name="Model" sheetId="11" r:id="rId11"/>
+    <sheet name="Vehicle" sheetId="12" r:id="rId12"/>
+    <sheet name="FitsIn" sheetId="13" r:id="rId13"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="332">
   <si>
     <t>accountId</t>
   </si>
@@ -66,7 +74,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -1013,32 +1021,34 @@
   <si>
     <t>year</t>
   </si>
+  <si>
+    <t>admin@test.com</t>
+  </si>
+  <si>
+    <t>1-(608)855-1946</t>
+  </si>
+  <si>
+    <t>1-(717)176-0761</t>
+  </si>
+  <si>
+    <t>5551 Sachs Drive</t>
+  </si>
+  <si>
+    <t>39 Petterle Street</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Calibri"/>
@@ -1047,6 +1057,12 @@
       <sz val="8"/>
       <color indexed="12"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1161,124 +1177,129 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ff404040"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1480,7 +1501,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1499,7 +1520,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1529,7 +1550,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1555,7 +1576,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1581,7 +1602,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1607,7 +1628,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1633,7 +1654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1659,7 +1680,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1685,7 +1706,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1711,7 +1732,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1737,7 +1758,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1750,9 +1771,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1769,7 +1796,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1788,7 +1815,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1814,7 +1841,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1840,7 +1867,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1866,7 +1893,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1892,7 +1919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1918,7 +1945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1944,7 +1971,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1970,7 +1997,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1996,7 +2023,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2022,7 +2049,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2035,9 +2062,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2051,7 +2084,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2070,7 +2103,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2100,7 +2133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2126,7 +2159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2152,7 +2185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2178,7 +2211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2204,7 +2237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2230,7 +2263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2256,7 +2289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2282,7 +2315,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2308,7 +2341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2321,881 +2354,968 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.67188" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1719" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1719" style="1" customWidth="1"/>
-    <col min="13" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="1" customWidth="1"/>
+    <col min="13" max="256" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s" s="5">
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s" s="5">
+      <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s" s="6">
+      <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s" s="2">
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s" s="2">
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L3" s="3">
         <v>20057</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s" s="2">
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="F4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s" s="2">
+      <c r="H4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s" s="2">
+      <c r="I4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s" s="2">
+      <c r="J4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="3">
         <v>12255</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s" s="2">
+      <c r="J5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="K5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="3">
         <v>12237</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s" s="2">
+      <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s" s="2">
+      <c r="G6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H6" t="s" s="2">
+      <c r="H6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I6" t="s" s="2">
+      <c r="I6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J6" t="s" s="2">
+      <c r="J6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="K6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="3">
         <v>33185</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E7" t="s" s="2">
+      <c r="E7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F7" t="s" s="2">
+      <c r="F7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G7" t="s" s="2">
+      <c r="G7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H7" t="s" s="2">
+      <c r="H7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I7" t="s" s="2">
+      <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="J7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="3">
         <v>20022</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E8" t="s" s="2">
+      <c r="E8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F8" t="s" s="2">
+      <c r="F8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G8" t="s" s="2">
+      <c r="G8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H8" t="s" s="2">
+      <c r="H8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I8" t="s" s="2">
+      <c r="I8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J8" t="s" s="2">
+      <c r="J8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="K8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="3">
         <v>33467</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="D9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I9" t="s" s="2">
+      <c r="I9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J9" t="s" s="2">
+      <c r="J9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="K9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="3">
         <v>75049</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I10" t="s" s="2">
+      <c r="I10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J10" t="s" s="2">
+      <c r="J10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="K10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="3">
         <v>36622</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J11" t="s" s="2">
+      <c r="J11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="K11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="3">
         <v>58122</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J12" t="s" s="2">
+      <c r="J12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="K12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="3">
         <v>53779</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s" s="2">
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J13" t="s" s="2">
+      <c r="J13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="K13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="3">
         <v>85715</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J14" t="s" s="2">
+      <c r="J14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="K14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="3">
         <v>38308</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J15" t="s" s="2">
+      <c r="J15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="K15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="3">
         <v>45271</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s" s="2">
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J16" t="s" s="2">
+      <c r="J16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="K16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="3">
         <v>53710</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J17" t="s" s="2">
+      <c r="J17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="K17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="3">
         <v>17622</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J18" t="s" s="2">
+      <c r="J18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="K18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="3">
         <v>25775</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J19" t="s" s="2">
+      <c r="J19" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="K19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="3">
         <v>23514</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s" s="2">
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J20" t="s" s="2">
+      <c r="J20" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="K20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="3">
         <v>94064</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s" s="2">
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J21" t="s" s="2">
+      <c r="J21" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="K21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="3">
         <v>92878</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s" s="2">
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="J22" t="s" s="2">
+      <c r="J22" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="K22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="3">
         <v>50936</v>
       </c>
     </row>
+    <row r="23" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="3">
+        <v>72447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="3">
+        <v>77113</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C23" r:id="rId2"/>
+    <hyperlink ref="C24" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3203,55 +3323,54 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="24" customWidth="1"/>
-    <col min="2" max="256" width="8.85156" style="24" customWidth="1"/>
+    <col min="1" max="256" width="8.88671875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>304</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3259,115 +3378,115 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.67188" style="25" customWidth="1"/>
-    <col min="2" max="256" width="8.85156" style="25" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="25" customWidth="1"/>
+    <col min="2" max="256" width="8.88671875" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="2">
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="2">
+    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="2">
+    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="2">
+    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="2">
+    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="2">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="2">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>322</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3375,413 +3494,413 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV56"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11.8516" style="26" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="26" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="26" customWidth="1"/>
     <col min="4" max="4" width="5" style="26" customWidth="1"/>
-    <col min="5" max="256" width="8.85156" style="26" customWidth="1"/>
+    <col min="5" max="256" width="8.88671875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D2" s="3">
         <v>2008</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D3" s="3">
         <v>2009</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D4" s="3">
         <v>2010</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D5" s="3">
-        <f>D2</f>
+        <f t="shared" ref="D5:D25" si="0">D2</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D6" s="3">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D7" s="3">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D8" s="3">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D9" s="3">
-        <f>D6</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D10" s="3">
-        <f>D7</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D11" s="3">
-        <f>D8</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D12" s="3">
-        <f>D9</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D13" s="3">
-        <f>D10</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" s="2" t="s">
         <v>310</v>
       </c>
       <c r="D14" s="3">
-        <f>D11</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" s="2" t="s">
         <v>310</v>
       </c>
       <c r="D15" s="3">
-        <f>D12</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" s="2" t="s">
         <v>310</v>
       </c>
       <c r="D16" s="3">
-        <f>D13</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D17" s="3">
-        <f>D14</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D18" s="3">
-        <f>D15</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D19" s="3">
-        <f>D16</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" s="2" t="s">
         <v>311</v>
       </c>
       <c r="D20" s="3">
-        <f>D17</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" s="2" t="s">
         <v>311</v>
       </c>
       <c r="D21" s="3">
-        <f>D18</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" s="2" t="s">
         <v>311</v>
       </c>
       <c r="D22" s="3">
-        <f>D19</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D23" s="3">
-        <f>D20</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D24" s="3">
-        <f>D21</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D25" s="3">
-        <f>D22</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D26" s="3">
         <v>2011</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D27" s="3">
@@ -3789,14 +3908,14 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D28" s="3">
@@ -3804,14 +3923,14 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D29" s="3">
@@ -3819,411 +3938,411 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D30" s="3">
-        <f>D27</f>
+        <f t="shared" ref="D30:D38" si="1">D27</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D31" s="3">
-        <f>D28</f>
+        <f t="shared" si="1"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D32" s="3">
-        <f>D29</f>
+        <f t="shared" si="1"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D33" s="3">
-        <f>D30</f>
+        <f t="shared" si="1"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D34" s="3">
-        <f>D31</f>
+        <f t="shared" si="1"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D35" s="3">
-        <f>D32</f>
+        <f t="shared" si="1"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D36" s="3">
-        <f>D33</f>
+        <f t="shared" si="1"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D37" s="3">
-        <f>D34</f>
+        <f t="shared" si="1"/>
         <v>2009</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D38" s="3">
-        <f>D35</f>
+        <f t="shared" si="1"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" s="2" t="s">
         <v>317</v>
       </c>
       <c r="D39" s="3">
         <v>2011</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" s="2" t="s">
         <v>317</v>
       </c>
       <c r="D40" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" s="2" t="s">
         <v>317</v>
       </c>
       <c r="D41" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" s="2" t="s">
         <v>318</v>
       </c>
       <c r="D42" s="3">
-        <f>D39</f>
+        <f t="shared" ref="D42:D56" si="2">D39</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" s="2" t="s">
         <v>318</v>
       </c>
       <c r="D43" s="3">
-        <f>D40</f>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" s="2" t="s">
         <v>318</v>
       </c>
       <c r="D44" s="3">
-        <f>D41</f>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" s="2" t="s">
         <v>319</v>
       </c>
       <c r="D45" s="3">
-        <f>D42</f>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" s="2" t="s">
         <v>319</v>
       </c>
       <c r="D46" s="3">
-        <f>D43</f>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" s="2" t="s">
         <v>319</v>
       </c>
       <c r="D47" s="3">
-        <f>D44</f>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" s="2" t="s">
         <v>320</v>
       </c>
       <c r="D48" s="3">
-        <f>D45</f>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" s="2" t="s">
         <v>320</v>
       </c>
       <c r="D49" s="3">
-        <f>D46</f>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" s="2" t="s">
         <v>320</v>
       </c>
       <c r="D50" s="3">
-        <f>D47</f>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D51" s="3">
-        <f>D48</f>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D52" s="3">
-        <f>D49</f>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D53" s="3">
-        <f>D50</f>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D54" s="3">
-        <f>D51</f>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D55" s="3">
-        <f>D52</f>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D56" s="3">
-        <f>D53</f>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4231,27 +4350,27 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B266"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV266"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85156" style="27" customWidth="1"/>
-    <col min="2" max="2" width="8.17188" style="27" customWidth="1"/>
-    <col min="3" max="256" width="8.85156" style="27" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" style="27" customWidth="1"/>
+    <col min="3" max="256" width="8.88671875" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4259,7 +4378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4267,7 +4386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4275,7 +4394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -4283,7 +4402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -4291,7 +4410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -4299,7 +4418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -4307,7 +4426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -4315,7 +4434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -4323,7 +4442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -4331,7 +4450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -4339,7 +4458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -4347,7 +4466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -4355,7 +4474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -4363,7 +4482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -4371,7 +4490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -4379,7 +4498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -4387,7 +4506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -4395,7 +4514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -4403,7 +4522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -4411,7 +4530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -4419,7 +4538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -4427,7 +4546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -4435,7 +4554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -4443,7 +4562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -4451,7 +4570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -4459,7 +4578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -4467,7 +4586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -4475,7 +4594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -4483,7 +4602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -4491,7 +4610,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -4499,7 +4618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -4507,7 +4626,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -4515,7 +4634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -4523,7 +4642,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -4531,7 +4650,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -4539,7 +4658,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -4547,7 +4666,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -4555,7 +4674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -4563,7 +4682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>1</v>
       </c>
@@ -4571,7 +4690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -4579,7 +4698,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -4587,7 +4706,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>1</v>
       </c>
@@ -4595,7 +4714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -4603,7 +4722,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
+    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -4611,7 +4730,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
+    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -4619,7 +4738,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -4627,7 +4746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1">
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -4635,7 +4754,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1">
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -4643,7 +4762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1">
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>1</v>
       </c>
@@ -4651,7 +4770,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1">
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -4659,7 +4778,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1">
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>1</v>
       </c>
@@ -4667,7 +4786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1">
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -4675,7 +4794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1">
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -4683,7 +4802,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1">
+    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>2</v>
       </c>
@@ -4691,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1">
+    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>2</v>
       </c>
@@ -4699,7 +4818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1">
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>2</v>
       </c>
@@ -4707,7 +4826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1">
+    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>2</v>
       </c>
@@ -4715,7 +4834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1">
+    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>2</v>
       </c>
@@ -4723,7 +4842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1">
+    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>2</v>
       </c>
@@ -4731,7 +4850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1">
+    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>2</v>
       </c>
@@ -4739,7 +4858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1">
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>2</v>
       </c>
@@ -4747,7 +4866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1">
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>2</v>
       </c>
@@ -4755,7 +4874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1">
+    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>2</v>
       </c>
@@ -4763,7 +4882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1">
+    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>2</v>
       </c>
@@ -4771,7 +4890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1">
+    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>2</v>
       </c>
@@ -4779,7 +4898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1">
+    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>2</v>
       </c>
@@ -4787,7 +4906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1">
+    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>2</v>
       </c>
@@ -4795,7 +4914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1">
+    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>2</v>
       </c>
@@ -4803,7 +4922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1">
+    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>2</v>
       </c>
@@ -4811,7 +4930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1">
+    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>2</v>
       </c>
@@ -4819,7 +4938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" ht="15" customHeight="1">
+    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>2</v>
       </c>
@@ -4827,7 +4946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1">
+    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>2</v>
       </c>
@@ -4835,7 +4954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1">
+    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>2</v>
       </c>
@@ -4843,7 +4962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1">
+    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>2</v>
       </c>
@@ -4851,7 +4970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1">
+    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>2</v>
       </c>
@@ -4859,7 +4978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1">
+    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>2</v>
       </c>
@@ -4867,7 +4986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" ht="15" customHeight="1">
+    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>2</v>
       </c>
@@ -4875,7 +4994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1">
+    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>2</v>
       </c>
@@ -4883,7 +5002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" ht="15" customHeight="1">
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>2</v>
       </c>
@@ -4891,7 +5010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" ht="15" customHeight="1">
+    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>2</v>
       </c>
@@ -4899,7 +5018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1">
+    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>2</v>
       </c>
@@ -4907,7 +5026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1">
+    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>2</v>
       </c>
@@ -4915,7 +5034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1">
+    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>2</v>
       </c>
@@ -4923,7 +5042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1">
+    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>2</v>
       </c>
@@ -4931,7 +5050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1">
+    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>2</v>
       </c>
@@ -4939,7 +5058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" ht="15" customHeight="1">
+    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>2</v>
       </c>
@@ -4947,7 +5066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" ht="15" customHeight="1">
+    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>2</v>
       </c>
@@ -4955,7 +5074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" ht="15" customHeight="1">
+    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>2</v>
       </c>
@@ -4963,7 +5082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" ht="15" customHeight="1">
+    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>2</v>
       </c>
@@ -4971,7 +5090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" ht="15" customHeight="1">
+    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>2</v>
       </c>
@@ -4979,7 +5098,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" ht="15" customHeight="1">
+    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>2</v>
       </c>
@@ -4987,7 +5106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" ht="15" customHeight="1">
+    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>2</v>
       </c>
@@ -4995,7 +5114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" ht="15" customHeight="1">
+    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>2</v>
       </c>
@@ -5003,7 +5122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" ht="15" customHeight="1">
+    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>2</v>
       </c>
@@ -5011,7 +5130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="1">
+    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>2</v>
       </c>
@@ -5019,7 +5138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" ht="15" customHeight="1">
+    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>2</v>
       </c>
@@ -5027,7 +5146,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" ht="15" customHeight="1">
+    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>2</v>
       </c>
@@ -5035,7 +5154,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" ht="15" customHeight="1">
+    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>2</v>
       </c>
@@ -5043,7 +5162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" ht="15" customHeight="1">
+    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>2</v>
       </c>
@@ -5051,7 +5170,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" ht="15" customHeight="1">
+    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>2</v>
       </c>
@@ -5059,7 +5178,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="1">
+    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>2</v>
       </c>
@@ -5067,7 +5186,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" ht="15" customHeight="1">
+    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>2</v>
       </c>
@@ -5075,7 +5194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" ht="15" customHeight="1">
+    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>2</v>
       </c>
@@ -5083,7 +5202,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1">
+    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>2</v>
       </c>
@@ -5091,7 +5210,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" ht="15" customHeight="1">
+    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>2</v>
       </c>
@@ -5099,7 +5218,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" ht="15" customHeight="1">
+    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -5107,7 +5226,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" ht="15" customHeight="1">
+    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>2</v>
       </c>
@@ -5115,7 +5234,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" ht="15" customHeight="1">
+    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>3</v>
       </c>
@@ -5123,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" ht="15" customHeight="1">
+    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>3</v>
       </c>
@@ -5131,7 +5250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" ht="15" customHeight="1">
+    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>3</v>
       </c>
@@ -5139,7 +5258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" ht="15" customHeight="1">
+    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>3</v>
       </c>
@@ -5147,7 +5266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" ht="15" customHeight="1">
+    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>3</v>
       </c>
@@ -5155,7 +5274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" ht="15" customHeight="1">
+    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>3</v>
       </c>
@@ -5163,7 +5282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" ht="15" customHeight="1">
+    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>3</v>
       </c>
@@ -5171,7 +5290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" ht="15" customHeight="1">
+    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>3</v>
       </c>
@@ -5179,7 +5298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" ht="15" customHeight="1">
+    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>3</v>
       </c>
@@ -5187,7 +5306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" ht="15" customHeight="1">
+    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>3</v>
       </c>
@@ -5195,7 +5314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" ht="15" customHeight="1">
+    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>3</v>
       </c>
@@ -5203,7 +5322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" ht="15" customHeight="1">
+    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>3</v>
       </c>
@@ -5211,7 +5330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" ht="15" customHeight="1">
+    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>3</v>
       </c>
@@ -5219,7 +5338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" ht="15" customHeight="1">
+    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>3</v>
       </c>
@@ -5227,7 +5346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" ht="15" customHeight="1">
+    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>3</v>
       </c>
@@ -5235,7 +5354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" ht="15" customHeight="1">
+    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>3</v>
       </c>
@@ -5243,7 +5362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" ht="15" customHeight="1">
+    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>3</v>
       </c>
@@ -5251,7 +5370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" ht="15" customHeight="1">
+    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>3</v>
       </c>
@@ -5259,7 +5378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" ht="15" customHeight="1">
+    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>3</v>
       </c>
@@ -5267,7 +5386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" ht="15" customHeight="1">
+    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>3</v>
       </c>
@@ -5275,7 +5394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" ht="15" customHeight="1">
+    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>3</v>
       </c>
@@ -5283,7 +5402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" ht="15" customHeight="1">
+    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>3</v>
       </c>
@@ -5291,7 +5410,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" ht="15" customHeight="1">
+    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>3</v>
       </c>
@@ -5299,7 +5418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" ht="15" customHeight="1">
+    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>3</v>
       </c>
@@ -5307,7 +5426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" ht="15" customHeight="1">
+    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>3</v>
       </c>
@@ -5315,7 +5434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" ht="15" customHeight="1">
+    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>3</v>
       </c>
@@ -5323,7 +5442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" ht="15" customHeight="1">
+    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>3</v>
       </c>
@@ -5331,7 +5450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" ht="15" customHeight="1">
+    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>3</v>
       </c>
@@ -5339,7 +5458,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" ht="15" customHeight="1">
+    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>3</v>
       </c>
@@ -5347,7 +5466,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" ht="15" customHeight="1">
+    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>3</v>
       </c>
@@ -5355,7 +5474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" ht="15" customHeight="1">
+    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>3</v>
       </c>
@@ -5363,7 +5482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" ht="15" customHeight="1">
+    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>3</v>
       </c>
@@ -5371,7 +5490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="142" ht="15" customHeight="1">
+    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>3</v>
       </c>
@@ -5379,7 +5498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" ht="15" customHeight="1">
+    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>3</v>
       </c>
@@ -5387,7 +5506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" ht="15" customHeight="1">
+    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>3</v>
       </c>
@@ -5395,7 +5514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" ht="15" customHeight="1">
+    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>3</v>
       </c>
@@ -5403,7 +5522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" ht="15" customHeight="1">
+    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>3</v>
       </c>
@@ -5411,7 +5530,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="147" ht="15" customHeight="1">
+    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>3</v>
       </c>
@@ -5419,7 +5538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" ht="15" customHeight="1">
+    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>3</v>
       </c>
@@ -5427,7 +5546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" ht="15" customHeight="1">
+    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>3</v>
       </c>
@@ -5435,7 +5554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" ht="15" customHeight="1">
+    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>3</v>
       </c>
@@ -5443,7 +5562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" ht="15" customHeight="1">
+    <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>3</v>
       </c>
@@ -5451,7 +5570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" ht="15" customHeight="1">
+    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>3</v>
       </c>
@@ -5459,7 +5578,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="153" ht="15" customHeight="1">
+    <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>3</v>
       </c>
@@ -5467,7 +5586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" ht="15" customHeight="1">
+    <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>3</v>
       </c>
@@ -5475,7 +5594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="155" ht="15" customHeight="1">
+    <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>3</v>
       </c>
@@ -5483,7 +5602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="156" ht="15" customHeight="1">
+    <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>3</v>
       </c>
@@ -5491,7 +5610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" ht="15" customHeight="1">
+    <row r="157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>3</v>
       </c>
@@ -5499,7 +5618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="158" ht="15" customHeight="1">
+    <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>3</v>
       </c>
@@ -5507,7 +5626,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="159" ht="15" customHeight="1">
+    <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>3</v>
       </c>
@@ -5515,7 +5634,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" ht="15" customHeight="1">
+    <row r="160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>3</v>
       </c>
@@ -5523,7 +5642,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" ht="15" customHeight="1">
+    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>3</v>
       </c>
@@ -5531,7 +5650,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="162" ht="15" customHeight="1">
+    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>3</v>
       </c>
@@ -5539,7 +5658,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" ht="15" customHeight="1">
+    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>3</v>
       </c>
@@ -5547,7 +5666,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" ht="15" customHeight="1">
+    <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>4</v>
       </c>
@@ -5555,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" ht="15" customHeight="1">
+    <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>4</v>
       </c>
@@ -5563,7 +5682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" ht="15" customHeight="1">
+    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>4</v>
       </c>
@@ -5571,7 +5690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" ht="15" customHeight="1">
+    <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>4</v>
       </c>
@@ -5579,7 +5698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" ht="15" customHeight="1">
+    <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>4</v>
       </c>
@@ -5587,7 +5706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" ht="15" customHeight="1">
+    <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>4</v>
       </c>
@@ -5595,7 +5714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" ht="15" customHeight="1">
+    <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>4</v>
       </c>
@@ -5603,7 +5722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" ht="15" customHeight="1">
+    <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>4</v>
       </c>
@@ -5611,7 +5730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" ht="15" customHeight="1">
+    <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>4</v>
       </c>
@@ -5619,7 +5738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" ht="15" customHeight="1">
+    <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>4</v>
       </c>
@@ -5627,7 +5746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" ht="15" customHeight="1">
+    <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>4</v>
       </c>
@@ -5635,7 +5754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" ht="15" customHeight="1">
+    <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>4</v>
       </c>
@@ -5643,7 +5762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" ht="15" customHeight="1">
+    <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>4</v>
       </c>
@@ -5651,7 +5770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" ht="15" customHeight="1">
+    <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>4</v>
       </c>
@@ -5659,7 +5778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" ht="15" customHeight="1">
+    <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>4</v>
       </c>
@@ -5667,7 +5786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" ht="15" customHeight="1">
+    <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>4</v>
       </c>
@@ -5675,7 +5794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" ht="15" customHeight="1">
+    <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>4</v>
       </c>
@@ -5683,7 +5802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" ht="15" customHeight="1">
+    <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>4</v>
       </c>
@@ -5691,7 +5810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" ht="15" customHeight="1">
+    <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>4</v>
       </c>
@@ -5699,7 +5818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" ht="15" customHeight="1">
+    <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>4</v>
       </c>
@@ -5707,7 +5826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" ht="15" customHeight="1">
+    <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>4</v>
       </c>
@@ -5715,7 +5834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" ht="15" customHeight="1">
+    <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>4</v>
       </c>
@@ -5723,7 +5842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" ht="15" customHeight="1">
+    <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>4</v>
       </c>
@@ -5731,7 +5850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" ht="15" customHeight="1">
+    <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>4</v>
       </c>
@@ -5739,7 +5858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" ht="15" customHeight="1">
+    <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>4</v>
       </c>
@@ -5747,7 +5866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" ht="15" customHeight="1">
+    <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>4</v>
       </c>
@@ -5755,7 +5874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" ht="15" customHeight="1">
+    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>4</v>
       </c>
@@ -5763,7 +5882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" ht="15" customHeight="1">
+    <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>4</v>
       </c>
@@ -5771,7 +5890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" ht="15" customHeight="1">
+    <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>4</v>
       </c>
@@ -5779,7 +5898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" ht="15" customHeight="1">
+    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>4</v>
       </c>
@@ -5787,7 +5906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" ht="15" customHeight="1">
+    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>4</v>
       </c>
@@ -5795,7 +5914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" ht="15" customHeight="1">
+    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>4</v>
       </c>
@@ -5803,7 +5922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" ht="15" customHeight="1">
+    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>4</v>
       </c>
@@ -5811,7 +5930,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="197" ht="15" customHeight="1">
+    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>4</v>
       </c>
@@ -5819,7 +5938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" ht="15" customHeight="1">
+    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>4</v>
       </c>
@@ -5827,7 +5946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" ht="15" customHeight="1">
+    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>4</v>
       </c>
@@ -5835,7 +5954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="200" ht="15" customHeight="1">
+    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>4</v>
       </c>
@@ -5843,7 +5962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="201" ht="15" customHeight="1">
+    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>4</v>
       </c>
@@ -5851,7 +5970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" ht="15" customHeight="1">
+    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>4</v>
       </c>
@@ -5859,7 +5978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="203" ht="15" customHeight="1">
+    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>4</v>
       </c>
@@ -5867,7 +5986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" ht="15" customHeight="1">
+    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>4</v>
       </c>
@@ -5875,7 +5994,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="205" ht="15" customHeight="1">
+    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>4</v>
       </c>
@@ -5883,7 +6002,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="206" ht="15" customHeight="1">
+    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>4</v>
       </c>
@@ -5891,7 +6010,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="207" ht="15" customHeight="1">
+    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>4</v>
       </c>
@@ -5899,7 +6018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="208" ht="15" customHeight="1">
+    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>4</v>
       </c>
@@ -5907,7 +6026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="209" ht="15" customHeight="1">
+    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>4</v>
       </c>
@@ -5915,7 +6034,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="210" ht="15" customHeight="1">
+    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>4</v>
       </c>
@@ -5923,7 +6042,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="211" ht="15" customHeight="1">
+    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>4</v>
       </c>
@@ -5931,7 +6050,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="212" ht="15" customHeight="1">
+    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>4</v>
       </c>
@@ -5939,7 +6058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" ht="15" customHeight="1">
+    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>4</v>
       </c>
@@ -5947,7 +6066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="214" ht="15" customHeight="1">
+    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>4</v>
       </c>
@@ -5955,7 +6074,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="215" ht="15" customHeight="1">
+    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>4</v>
       </c>
@@ -5963,7 +6082,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="216" ht="15" customHeight="1">
+    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>4</v>
       </c>
@@ -5971,7 +6090,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" ht="15" customHeight="1">
+    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>4</v>
       </c>
@@ -5979,7 +6098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="218" ht="15" customHeight="1">
+    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>5</v>
       </c>
@@ -5987,7 +6106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="219" ht="15" customHeight="1">
+    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>5</v>
       </c>
@@ -5995,7 +6114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" ht="15" customHeight="1">
+    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>5</v>
       </c>
@@ -6003,7 +6122,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="221" ht="15" customHeight="1">
+    <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>5</v>
       </c>
@@ -6011,7 +6130,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" ht="15" customHeight="1">
+    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>5</v>
       </c>
@@ -6019,7 +6138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="223" ht="15" customHeight="1">
+    <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>5</v>
       </c>
@@ -6027,7 +6146,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="224" ht="15" customHeight="1">
+    <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>5</v>
       </c>
@@ -6035,7 +6154,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="225" ht="15" customHeight="1">
+    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>5</v>
       </c>
@@ -6043,7 +6162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" ht="15" customHeight="1">
+    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>5</v>
       </c>
@@ -6051,7 +6170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="227" ht="15" customHeight="1">
+    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>5</v>
       </c>
@@ -6059,7 +6178,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="228" ht="15" customHeight="1">
+    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>5</v>
       </c>
@@ -6067,7 +6186,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="229" ht="15" customHeight="1">
+    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>5</v>
       </c>
@@ -6075,7 +6194,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="230" ht="15" customHeight="1">
+    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>5</v>
       </c>
@@ -6083,7 +6202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="231" ht="15" customHeight="1">
+    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>5</v>
       </c>
@@ -6091,7 +6210,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="232" ht="15" customHeight="1">
+    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>5</v>
       </c>
@@ -6099,7 +6218,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="233" ht="15" customHeight="1">
+    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>5</v>
       </c>
@@ -6107,7 +6226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="234" ht="15" customHeight="1">
+    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>5</v>
       </c>
@@ -6115,7 +6234,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="235" ht="15" customHeight="1">
+    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>5</v>
       </c>
@@ -6123,7 +6242,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="236" ht="15" customHeight="1">
+    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>5</v>
       </c>
@@ -6131,7 +6250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" ht="15" customHeight="1">
+    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>5</v>
       </c>
@@ -6139,7 +6258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" ht="15" customHeight="1">
+    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>5</v>
       </c>
@@ -6147,7 +6266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" ht="15" customHeight="1">
+    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>5</v>
       </c>
@@ -6155,7 +6274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" ht="15" customHeight="1">
+    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>5</v>
       </c>
@@ -6163,7 +6282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" ht="15" customHeight="1">
+    <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>5</v>
       </c>
@@ -6171,7 +6290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" ht="15" customHeight="1">
+    <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>6</v>
       </c>
@@ -6179,7 +6298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" ht="15" customHeight="1">
+    <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>6</v>
       </c>
@@ -6187,7 +6306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" ht="15" customHeight="1">
+    <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>6</v>
       </c>
@@ -6195,7 +6314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" ht="15" customHeight="1">
+    <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>6</v>
       </c>
@@ -6203,7 +6322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" ht="15" customHeight="1">
+    <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>6</v>
       </c>
@@ -6211,7 +6330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" ht="15" customHeight="1">
+    <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>6</v>
       </c>
@@ -6219,7 +6338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" ht="15" customHeight="1">
+    <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>6</v>
       </c>
@@ -6227,7 +6346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" ht="15" customHeight="1">
+    <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>6</v>
       </c>
@@ -6235,7 +6354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" ht="15" customHeight="1">
+    <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>6</v>
       </c>
@@ -6243,7 +6362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" ht="15" customHeight="1">
+    <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>6</v>
       </c>
@@ -6251,7 +6370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" ht="15" customHeight="1">
+    <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>6</v>
       </c>
@@ -6259,7 +6378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" ht="15" customHeight="1">
+    <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>6</v>
       </c>
@@ -6267,7 +6386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" ht="15" customHeight="1">
+    <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>6</v>
       </c>
@@ -6275,7 +6394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" ht="15" customHeight="1">
+    <row r="255" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>6</v>
       </c>
@@ -6283,7 +6402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" ht="15" customHeight="1">
+    <row r="256" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>6</v>
       </c>
@@ -6291,7 +6410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" ht="15" customHeight="1">
+    <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>6</v>
       </c>
@@ -6299,7 +6418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" ht="15" customHeight="1">
+    <row r="258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>6</v>
       </c>
@@ -6307,7 +6426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" ht="15" customHeight="1">
+    <row r="259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>6</v>
       </c>
@@ -6315,7 +6434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" ht="15" customHeight="1">
+    <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>6</v>
       </c>
@@ -6323,7 +6442,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" ht="15" customHeight="1">
+    <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>6</v>
       </c>
@@ -6331,7 +6450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="262" ht="15" customHeight="1">
+    <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>6</v>
       </c>
@@ -6339,7 +6458,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="263" ht="15" customHeight="1">
+    <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>6</v>
       </c>
@@ -6347,7 +6466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="264" ht="15" customHeight="1">
+    <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>6</v>
       </c>
@@ -6355,7 +6474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" ht="15" customHeight="1">
+    <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>6</v>
       </c>
@@ -6363,7 +6482,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="266" ht="15" customHeight="1">
+    <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>6</v>
       </c>
@@ -6373,7 +6492,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6381,31 +6500,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1719" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.35156" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.67188" style="7" customWidth="1"/>
-    <col min="4" max="256" width="8.85156" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="7" customWidth="1"/>
+    <col min="4" max="256" width="8.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>3</v>
       </c>
@@ -6413,12 +6534,12 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -6427,9 +6548,9 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -6438,9 +6559,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -6449,31 +6570,130 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>3.8</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>0.1</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.94999999999999896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.23999999999999899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-0.47000000000000097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-1.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-1.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-3.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-4.7300000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6481,31 +6701,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.17188" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.1719" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.35156" style="8" customWidth="1"/>
-    <col min="4" max="256" width="8.85156" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="8" customWidth="1"/>
+    <col min="4" max="256" width="8.88671875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6516,7 +6736,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6527,7 +6747,7 @@
         <v>42006</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6538,7 +6758,7 @@
         <v>42007</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -6549,7 +6769,7 @@
         <v>42008</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -6560,7 +6780,7 @@
         <v>42009</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6571,7 +6791,7 @@
         <v>42010</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -6582,7 +6802,7 @@
         <v>42011</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -6593,7 +6813,7 @@
         <v>42012</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6604,7 +6824,7 @@
         <v>42013</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6615,7 +6835,7 @@
         <v>42014</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -6626,7 +6846,7 @@
         <v>42015</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -6637,7 +6857,7 @@
         <v>42016</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -6648,7 +6868,7 @@
         <v>42017</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -6659,7 +6879,7 @@
         <v>42018</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6670,7 +6890,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -6681,7 +6901,7 @@
         <v>42020</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -6694,7 +6914,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6702,71 +6922,70 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1719" style="10" customWidth="1"/>
-    <col min="2" max="2" width="14.1719" style="10" customWidth="1"/>
-    <col min="3" max="3" width="7.17188" style="10" customWidth="1"/>
-    <col min="4" max="4" width="6.17188" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.85156" style="10" customWidth="1"/>
-    <col min="6" max="6" width="7.85156" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="10" customWidth="1"/>
+    <col min="1" max="2" width="14.21875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="10" customWidth="1"/>
     <col min="8" max="8" width="10" style="10" customWidth="1"/>
-    <col min="9" max="9" width="9.17188" style="10" customWidth="1"/>
-    <col min="10" max="10" width="5.67188" style="10" customWidth="1"/>
-    <col min="11" max="11" width="13.8516" style="10" customWidth="1"/>
-    <col min="12" max="12" width="9.17188" style="10" customWidth="1"/>
-    <col min="13" max="13" width="11.8516" style="10" customWidth="1"/>
-    <col min="14" max="256" width="8.85156" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="10" customWidth="1"/>
+    <col min="14" max="256" width="8.88671875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6776,38 +6995,38 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="3">
-        <v>9.949999999999999</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="G2" s="9">
         <v>42005</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="I2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="J2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="K2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="L2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M2" s="3">
         <v>48335</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6818,10 +7037,10 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F3" s="3">
@@ -6830,26 +7049,26 @@
       <c r="G3" s="9">
         <v>42006</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I3" t="s" s="2">
+      <c r="I3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="J3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="K3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="L3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M3" s="3">
         <v>74133</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6860,10 +7079,10 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F4" s="3">
@@ -6872,26 +7091,26 @@
       <c r="G4" s="9">
         <v>42007</v>
       </c>
-      <c r="H4" t="s" s="2">
+      <c r="H4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I4" t="s" s="2">
+      <c r="I4" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J4" t="s" s="2">
+      <c r="J4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="K4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="L4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M4" s="3">
         <v>85754</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -6901,10 +7120,10 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F5" s="3">
@@ -6913,26 +7132,26 @@
       <c r="G5" s="9">
         <v>42008</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J5" t="s" s="2">
+      <c r="J5" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="K5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="L5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M5" s="3">
         <v>14652</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -6942,38 +7161,38 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E6" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F6" s="3">
-        <v>255.175</v>
+        <v>255.17500000000001</v>
       </c>
       <c r="G6" s="9">
         <v>42009</v>
       </c>
-      <c r="H6" t="s" s="2">
+      <c r="H6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I6" t="s" s="2">
+      <c r="I6" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J6" t="s" s="2">
+      <c r="J6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="K6" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3">
         <v>50320</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6983,38 +7202,38 @@
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E7" t="s" s="2">
+      <c r="E7" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F7" s="3">
-        <v>295.075</v>
+        <v>295.07499999999999</v>
       </c>
       <c r="G7" s="9">
         <v>42010</v>
       </c>
-      <c r="H7" t="s" s="2">
+      <c r="H7" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I7" t="s" s="2">
+      <c r="I7" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="J7" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3">
         <v>53215</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -7024,38 +7243,38 @@
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E8" t="s" s="2">
+      <c r="E8" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F8" s="3">
-        <v>334.975</v>
+        <v>334.97500000000002</v>
       </c>
       <c r="G8" s="9">
         <v>42011</v>
       </c>
-      <c r="H8" t="s" s="2">
+      <c r="H8" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I8" t="s" s="2">
+      <c r="I8" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J8" t="s" s="2">
+      <c r="J8" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="K8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M8" s="3">
         <v>37605</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -7065,10 +7284,10 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="D9" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F9" s="3">
@@ -7077,26 +7296,26 @@
       <c r="G9" s="9">
         <v>42012</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I9" t="s" s="2">
+      <c r="I9" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J9" t="s" s="2">
+      <c r="J9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="K9" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="L9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M9" s="3">
         <v>8104</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -7106,38 +7325,38 @@
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F10" s="3">
-        <v>414.775</v>
+        <v>414.77499999999998</v>
       </c>
       <c r="G10" s="9">
         <v>42013</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I10" t="s" s="2">
+      <c r="I10" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J10" t="s" s="2">
+      <c r="J10" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="K10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="L10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M10" s="3">
         <v>19172</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -7147,38 +7366,38 @@
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F11" s="3">
-        <v>454.675</v>
+        <v>454.67500000000001</v>
       </c>
       <c r="G11" s="9">
         <v>42014</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J11" t="s" s="2">
+      <c r="J11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="K11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="L11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M11" s="3">
         <v>34282</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -7188,38 +7407,38 @@
       <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F12" s="3">
-        <v>494.575</v>
+        <v>494.57499999999999</v>
       </c>
       <c r="G12" s="9">
         <v>42015</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J12" t="s" s="2">
+      <c r="J12" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="K12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="L12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M12" s="3">
         <v>88563</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -7229,38 +7448,38 @@
       <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F13" s="3">
-        <v>534.475</v>
+        <v>534.47500000000002</v>
       </c>
       <c r="G13" s="9">
         <v>42016</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="J13" t="s" s="2">
+      <c r="J13" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="K13" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="L13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M13" s="3">
         <v>16565</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -7270,10 +7489,10 @@
       <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F14" s="3">
@@ -7282,26 +7501,26 @@
       <c r="G14" s="9">
         <v>42017</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J14" t="s" s="2">
+      <c r="J14" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="K14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="L14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M14" s="3">
         <v>77010</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -7311,38 +7530,38 @@
       <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F15" s="3">
-        <v>614.275</v>
+        <v>614.27499999999998</v>
       </c>
       <c r="G15" s="9">
         <v>42018</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J15" t="s" s="2">
+      <c r="J15" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="K15" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="L15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M15" s="3">
         <v>24040</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -7352,38 +7571,38 @@
       <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F16" s="3">
-        <v>654.175</v>
+        <v>654.17499999999995</v>
       </c>
       <c r="G16" s="9">
         <v>42019</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="J16" t="s" s="2">
+      <c r="J16" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="K16" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="L16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M16" s="3">
         <v>31416</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -7393,38 +7612,38 @@
       <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F17" s="3">
-        <v>694.075</v>
+        <v>694.07500000000005</v>
       </c>
       <c r="G17" s="9">
         <v>42020</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J17" t="s" s="2">
+      <c r="J17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="K17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="L17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M17" s="3">
         <v>20520</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -7434,31 +7653,31 @@
       <c r="C18" s="3">
         <v>17</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F18" s="3">
-        <v>733.975</v>
+        <v>733.97500000000002</v>
       </c>
       <c r="G18" s="9">
         <v>42021</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="J18" t="s" s="2">
+      <c r="J18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="K18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="L18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M18" s="3">
@@ -7467,7 +7686,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7475,233 +7694,101 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1719" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.1719" style="11" customWidth="1"/>
-    <col min="3" max="3" width="14.1719" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.1719" style="11" customWidth="1"/>
-    <col min="5" max="256" width="8.85156" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="105.21875" style="12" customWidth="1"/>
+    <col min="3" max="256" width="8.88671875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>847182374</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>192347918</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>754823793</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3">
-        <v>234524352</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>764324547</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
-        <v>424527744</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
-        <v>134468533</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3">
-        <v>354678578</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>135426547</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <v>345667687</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
-        <v>234524677</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
-        <v>444563788</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3">
-        <v>536875654</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3">
-        <v>456745689</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>238</v>
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7709,101 +7796,245 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8516" style="12" customWidth="1"/>
-    <col min="2" max="2" width="105.172" style="12" customWidth="1"/>
-    <col min="3" max="256" width="8.85156" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="93.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="13" customWidth="1"/>
+    <col min="6" max="256" width="8.88671875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="C1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="E1" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="C2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="2">
+      <c r="C3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="2">
+      <c r="C8" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="C9" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="2">
+      <c r="E9" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="C10" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="2">
+      <c r="E10" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="C11" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="2">
+      <c r="E11" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="2">
+      <c r="C12" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="C13" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>258</v>
+      <c r="E13" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7811,245 +8042,235 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85156" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.8516" style="13" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="93.3516" style="13" customWidth="1"/>
-    <col min="5" max="5" width="26.3516" style="13" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="13" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="11" customWidth="1"/>
+    <col min="5" max="256" width="8.88671875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>847182374</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>192347918</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>754823793</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>234524352</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>764324547</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="14">
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>424527744</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C8" t="s" s="15">
-        <v>280</v>
-      </c>
-      <c r="D8" t="s" s="16">
-        <v>281</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="17">
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>134468533</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C9" t="s" s="18">
-        <v>283</v>
-      </c>
-      <c r="D9" t="s" s="18">
-        <v>248</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="19">
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>354678578</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C10" t="s" s="18">
-        <v>285</v>
-      </c>
-      <c r="D10" t="s" s="18">
-        <v>250</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1">
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>135426547</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C11" t="s" s="18">
-        <v>287</v>
-      </c>
-      <c r="D11" t="s" s="18">
-        <v>252</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1">
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>345667687</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C12" t="s" s="18">
-        <v>289</v>
-      </c>
-      <c r="D12" t="s" s="18">
-        <v>290</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" ht="14.4" customHeight="1">
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>234524677</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C13" t="s" s="20">
-        <v>292</v>
-      </c>
-      <c r="D13" t="s" s="20">
-        <v>256</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>293</v>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>444563788</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>536875654</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3">
+        <v>456745689</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8057,48 +8278,50 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85156" style="21" customWidth="1"/>
-    <col min="2" max="2" width="8.35156" style="21" customWidth="1"/>
-    <col min="3" max="3" width="5.85156" style="21" customWidth="1"/>
-    <col min="4" max="4" width="7.85156" style="21" customWidth="1"/>
-    <col min="5" max="5" width="4.85156" style="21" customWidth="1"/>
-    <col min="6" max="6" width="9.35156" style="21" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="21" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="21" customWidth="1"/>
+    <col min="7" max="256" width="8.88671875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -8113,12 +8336,12 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -8132,13 +8355,16 @@
       <c r="F3" s="22">
         <v>42006</v>
       </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
+      <c r="J3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -8152,13 +8378,16 @@
       <c r="F4" s="22">
         <v>42007</v>
       </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
+      <c r="J4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -8172,13 +8401,16 @@
       <c r="F5" s="22">
         <v>42008</v>
       </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
+      <c r="J5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
         <v>6</v>
@@ -8192,13 +8424,16 @@
       <c r="F6" s="22">
         <v>42009</v>
       </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
+      <c r="J6" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
         <v>5</v>
@@ -8212,10 +8447,133 @@
       <c r="F7" s="22">
         <v>42010</v>
       </c>
+      <c r="J7" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17">
+        <v>7</v>
+      </c>
+      <c r="C8" s="17">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17">
+        <v>100</v>
+      </c>
+      <c r="E8" s="17">
+        <v>600</v>
+      </c>
+      <c r="F8" s="22">
+        <v>42011</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17">
+        <v>7</v>
+      </c>
+      <c r="D9" s="17">
+        <v>100</v>
+      </c>
+      <c r="E9" s="17">
+        <v>100</v>
+      </c>
+      <c r="F9" s="22">
+        <v>42012</v>
+      </c>
+      <c r="J9" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
+        <v>8</v>
+      </c>
+      <c r="D10" s="17">
+        <v>239</v>
+      </c>
+      <c r="E10" s="17">
+        <v>200</v>
+      </c>
+      <c r="F10" s="22">
+        <v>42013</v>
+      </c>
+      <c r="J10" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="J11" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="J12" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="J13" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="J14" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="J15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="J16" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="J17" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8223,31 +8581,31 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.17188" style="23" customWidth="1"/>
-    <col min="2" max="2" width="4.85156" style="23" customWidth="1"/>
-    <col min="3" max="3" width="7.85156" style="23" customWidth="1"/>
-    <col min="4" max="256" width="8.85156" style="23" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="23" customWidth="1"/>
+    <col min="4" max="256" width="8.88671875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -8258,7 +8616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -8269,7 +8627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -8280,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -8291,7 +8649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -8302,7 +8660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -8313,7 +8671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -8324,7 +8682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -8335,7 +8693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -8346,7 +8704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -8357,7 +8715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -8368,7 +8726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -8379,7 +8737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -8390,7 +8748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -8401,7 +8759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -8412,7 +8770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -8423,7 +8781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -8436,7 +8794,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
